--- a/Temp/LGA/졸작 계획서_이규아.xlsx
+++ b/Temp/LGA/졸작 계획서_이규아.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCACDAF-E290-4FD8-9404-18907DC72CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="6" rupBuild="9.104.180.50690"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -13,164 +12,134 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'프로젝트 시간 표시 막대'!$4:$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
   <si>
     <t>졸업작품 제안서 발표 계획서</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>블랜더3d 게임 그래픽 특강(김현 교수님)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>창원에서 쉬기</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>하계 기획자 특훈에서 졸업 작품 게임 기획 구체화</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>하계 기획자 특훈에서 졸업 작품 게임 기획서 제작</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>학교 도서관에서 언리얼 엔진 책을 빌려서 실습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>빛 이론 등 쉐이더 기초 교양 배양</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>책 '혼자 공부하는 SQL' 실습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>방학 중 수업 준비 및 개인 독학 환경 구축</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>책 '언리얼 엔진 5 블루프린트 비주얼 스크립팅 3/e' 참고하여 언리얼 엔진 실습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">UDP, TCP 통신 프로토콜 프로그래밍 실습  </t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>책 '3D 게임을 움직이는 수학과 물리' 학습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>책 '게임 프로그래밍 패턴' 복습</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>디자인 패턴 실습해보기(관련 책 혹은 강의)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>복습 겸 한 달간 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>복습 겸 8월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>복습 겸 7월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>블루프린터로 핵심 메커니즘 프로토타입 제작</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>언리얼 엔진으로 간단한 게임 구현(디자인 패턴을 사용한다, 블루프린트X)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>복습 겸 9월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>복습 겸 10월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>졸작 프로토타입에 사용할 리소스 제작 혹은 탐색(텍스쳐)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>2학기 수업 참여 및 종합설계기획 수강</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>프로토타입 피드백 및 수정</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>언리얼 엔진 소스 레벨 테스트 및 벤치마킹 환경 구축</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>언리얼 엔진 팀프로젝트 개발 환경 구축(생산성 높이기)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>언리얼 엔진 외부 모듈 소스 분석 및 테스트</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>졸작 프로토타입 서버 스펙, 프레임워크 설계</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>복습 겸 11월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>졸작 제안서 제출 및 발표 준비</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>홍길동</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>담당자:홍길동</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 외부 강의 수강 및 프레임워크 설계</t>
+  </si>
+  <si>
+    <t>언리얼 C++프로그래밍 학습</t>
+  </si>
+  <si>
+    <t>언리얼 블루프린트 복습</t>
+  </si>
+  <si>
+    <t>서버 클라이언트 연동 연습</t>
+  </si>
+  <si>
+    <t>서버 클라이언트 연동 실습</t>
+  </si>
+  <si>
+    <t>언리얼 클라이언트 서버 연동 연습</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -179,436 +148,409 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="m&quot;월&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
+      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
-      <family val="2"/>
+      <color theme="1" tint="0.249950"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <sz val="14.0"/>
       <name val="Malgun Gothic"/>
-      <family val="2"/>
+      <color theme="1" tint="0.499980"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
+      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
-      <family val="2"/>
+      <color theme="1" tint="0.249950"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
-      <family val="2"/>
+      <color theme="1" tint="0.049990"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <sz val="12.0"/>
       <name val="Malgun Gothic"/>
-      <family val="2"/>
+      <color theme="1" tint="0.049990"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF006100"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF9C0006"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="31"/>
-      <color theme="9" tint="-0.24994659260841701"/>
+      <sz val="31.0"/>
       <name val="Malgun Gothic"/>
-      <family val="2"/>
+      <color theme="9" tint="-0.249950"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <sz val="18.0"/>
       <name val="Malgun Gothic"/>
-      <family val="2"/>
+      <color theme="1" tint="0.049990"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="0"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="0"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FFFF0000"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FFFA7D00"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF3F3F76"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF9C5700"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FFFA7D00"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
+      <u/>
+      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="10"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <u/>
+      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="11"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.049990"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.150000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.149970"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0" tint="-0.249950"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="3" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC4F4AA"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -618,27 +560,24 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="1" tint="0.499980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149970"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149970"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -647,16 +586,14 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -671,7 +608,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -686,7 +622,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -695,7 +630,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -710,7 +644,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -725,7 +658,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -736,7 +668,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -745,24 +676,31 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149970"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
+      <alignment horizontal="right" vertical="center" indent="1" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="left" vertical="center"/>
@@ -774,167 +712,294 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+      <alignment horizontal="left" vertical="center" indent="1" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="23" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="9" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="9" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="7" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="7" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="8" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="4" borderId="3" xfId="8" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="3" xfId="8" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="5">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="46" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="44" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="6">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="54">
     <cellStyle name="20% - 강조색1" xfId="29" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="33" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="37" builtinId="38" customBuiltin="1"/>
@@ -962,19 +1027,16 @@
     <cellStyle name="경고문" xfId="24" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="21" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="17" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="날짜" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="메모" xfId="25" builtinId="10" customBuiltin="1"/>
     <cellStyle name="백분율" xfId="15" builtinId="5" customBuiltin="1"/>
     <cellStyle name="보통" xfId="18" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="상태" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="설명 텍스트" xfId="26" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="23" builtinId="23" customBuiltin="1"/>
     <cellStyle name="쉼표" xfId="11" builtinId="3" customBuiltin="1"/>
     <cellStyle name="쉼표 [0]" xfId="12" builtinId="6" customBuiltin="1"/>
     <cellStyle name="연결된 셀" xfId="22" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="요약" xfId="27" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="요일" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="월" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="입력" xfId="19" builtinId="20" customBuiltin="1"/>
     <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -985,17 +1047,22 @@
     <cellStyle name="출력" xfId="20" builtinId="21" customBuiltin="1"/>
     <cellStyle name="통화" xfId="13" builtinId="4" customBuiltin="1"/>
     <cellStyle name="통화 [0]" xfId="14" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="평일" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="하이퍼링크" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="날짜" xfId="6"/>
+    <cellStyle name="상태" xfId="10"/>
+    <cellStyle name="요일" xfId="8"/>
+    <cellStyle name="월" xfId="9"/>
+    <cellStyle name="평일" xfId="7"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.799980"/>
         </patternFill>
       </fill>
       <border>
@@ -1005,11 +1072,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.799980"/>
         </patternFill>
       </fill>
       <border>
@@ -1019,11 +1086,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.799980"/>
         </patternFill>
       </fill>
       <border>
@@ -1033,11 +1100,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.799980"/>
         </patternFill>
       </fill>
       <border>
@@ -1047,11 +1114,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.799980"/>
         </patternFill>
       </fill>
       <border>
@@ -1061,11 +1128,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.799980"/>
         </patternFill>
       </fill>
       <border>
@@ -1075,11 +1142,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.799980"/>
         </patternFill>
       </fill>
       <border>
@@ -1088,20 +1155,6 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFC4F4AA"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1307,99 +1360,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A31" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35:T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="30.000000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" style="4" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="3" customWidth="1"/>
-    <col min="18" max="30" width="5.59765625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="2.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="4" width="13.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="17" style="3" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="30" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="31" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="48.75" customHeight="1">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="2:30" ht="48.750000" customHeight="1">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
     </row>
-    <row r="2" spans="2:30" ht="24.75" customHeight="1" thickBot="1">
+    <row r="2" spans="2:30" ht="24.750000" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <f>DATEVALUE("2023/06/28")</f>
         <v>45105</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
-    <row r="4" spans="2:30" ht="18.75" customHeight="1">
+    <row r="3" ht="12.750000" customHeight="1"/>
+    <row r="4" spans="2:30" ht="18.750000" customHeight="1">
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="str">
-        <f>LOWER(TEXT(C6, "m월"))</f>
+        <f>LOWER(TEXT(C6,"m월"))</f>
         <v>6월</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f t="shared" ref="D4:I4" si="0">IF(TEXT(D6,"m월")=TEXT(C6,"m월"),"",LOWER(TEXT(D6,"m월")))</f>
+        <f>IF(TEXT(D6,"m월")=TEXT(C6,"m월"),"",LOWER(TEXT(D6,"m월")))</f>
         <v/>
       </c>
       <c r="E4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(E6,"m월")=TEXT(D6,"m월"),"",LOWER(TEXT(E6,"m월")))</f>
         <v/>
       </c>
       <c r="F4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(F6,"m월")=TEXT(E6,"m월"),"",LOWER(TEXT(F6,"m월")))</f>
         <v>7월</v>
       </c>
       <c r="G4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(G6,"m월")=TEXT(F6,"m월"),"",LOWER(TEXT(G6,"m월")))</f>
         <v/>
       </c>
       <c r="H4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(H6,"m월")=TEXT(G6,"m월"),"",LOWER(TEXT(H6,"m월")))</f>
         <v/>
       </c>
       <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(I6,"m월")=TEXT(H6,"m월"),"",LOWER(TEXT(I6,"m월")))</f>
         <v/>
       </c>
       <c r="J4" s="8" t="str">
@@ -1407,27 +1460,27 @@
         <v>7월</v>
       </c>
       <c r="K4" s="8" t="str">
-        <f t="shared" ref="K4:P4" si="1">IF(TEXT(K6,"m월")=TEXT(J6,"m월"),"",LOWER(TEXT(K6,"m월")))</f>
+        <f>IF(TEXT(K6,"m월")=TEXT(J6,"m월"),"",LOWER(TEXT(K6,"m월")))</f>
         <v/>
       </c>
       <c r="L4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(L6,"m월")=TEXT(K6,"m월"),"",LOWER(TEXT(L6,"m월")))</f>
         <v/>
       </c>
       <c r="M4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(M6,"m월")=TEXT(L6,"m월"),"",LOWER(TEXT(M6,"m월")))</f>
         <v/>
       </c>
       <c r="N4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(N6,"m월")=TEXT(M6,"m월"),"",LOWER(TEXT(N6,"m월")))</f>
         <v/>
       </c>
       <c r="O4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(O6,"m월")=TEXT(N6,"m월"),"",LOWER(TEXT(O6,"m월")))</f>
         <v/>
       </c>
       <c r="P4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(P6,"m월")=TEXT(O6,"m월"),"",LOWER(TEXT(P6,"m월")))</f>
         <v/>
       </c>
       <c r="Q4" s="7" t="str">
@@ -1435,27 +1488,27 @@
         <v>7월</v>
       </c>
       <c r="R4" s="7" t="str">
-        <f t="shared" ref="R4:W4" si="2">IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</f>
+        <f>IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</f>
         <v/>
       </c>
       <c r="S4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(S6,"m월")=TEXT(R6,"m월"),"",LOWER(TEXT(S6,"m월")))</f>
         <v/>
       </c>
       <c r="T4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(T6,"m월")=TEXT(S6,"m월"),"",LOWER(TEXT(T6,"m월")))</f>
         <v/>
       </c>
       <c r="U4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(U6,"m월")=TEXT(T6,"m월"),"",LOWER(TEXT(U6,"m월")))</f>
         <v/>
       </c>
       <c r="V4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(V6,"m월")=TEXT(U6,"m월"),"",LOWER(TEXT(V6,"m월")))</f>
         <v/>
       </c>
       <c r="W4" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(W6,"m월")=TEXT(V6,"m월"),"",LOWER(TEXT(W6,"m월")))</f>
         <v/>
       </c>
       <c r="X4" s="8" t="str">
@@ -1463,146 +1516,146 @@
         <v>7월</v>
       </c>
       <c r="Y4" s="8" t="str">
-        <f t="shared" ref="Y4:AD4" si="3">IF(TEXT(Y6,"m월")=TEXT(X6,"m월"),"",LOWER(TEXT(Y6,"m월")))</f>
+        <f>IF(TEXT(Y6,"m월")=TEXT(X6,"m월"),"",LOWER(TEXT(Y6,"m월")))</f>
         <v/>
       </c>
       <c r="Z4" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(Z6,"m월")=TEXT(Y6,"m월"),"",LOWER(TEXT(Z6,"m월")))</f>
         <v/>
       </c>
       <c r="AA4" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(AA6,"m월")=TEXT(Z6,"m월"),"",LOWER(TEXT(AA6,"m월")))</f>
         <v/>
       </c>
       <c r="AB4" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(AB6,"m월")=TEXT(AA6,"m월"),"",LOWER(TEXT(AB6,"m월")))</f>
         <v/>
       </c>
       <c r="AC4" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(AC6,"m월")=TEXT(AB6,"m월"),"",LOWER(TEXT(AC6,"m월")))</f>
         <v/>
       </c>
       <c r="AD4" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(AD6,"m월")=TEXT(AC6,"m월"),"",LOWER(TEXT(AD6,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="12" customHeight="1">
+    <row r="5" spans="2:30" ht="12.000000" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="9" t="str">
         <f>LOWER(TEXT(C6,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f t="shared" ref="D5:AD5" si="4">LOWER(TEXT(D6,"aaa"))</f>
+        <f>LOWER(TEXT(D6,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="E5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(E6,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(F6,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(G6,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(H6,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(I6,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="J5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(J6,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="K5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(K6,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="L5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(L6,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="M5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(M6,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="N5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(N6,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="O5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(O6,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="P5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(P6,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="Q5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(Q6,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="R5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(R6,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="S5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(S6,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="T5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(T6,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="U5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(U6,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="V5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(V6,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="W5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(W6,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="X5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(X6,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="Y5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(Y6,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Z5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(Z6,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="AA5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(AA6,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="AB5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(AB6,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AC5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(AC6,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AD5" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(AD6,"aaa"))</f>
         <v>화</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:30" ht="18.000000" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
@@ -1615,103 +1668,103 @@
         <v>45106</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" ref="E6:Q6" si="5">D6+1</f>
+        <f>D6+1</f>
         <v>45107</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="5"/>
+        <f>E6+1</f>
         <v>45108</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" si="5"/>
+        <f>F6+1</f>
         <v>45109</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="5"/>
+        <f>G6+1</f>
         <v>45110</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" si="5"/>
+        <f>H6+1</f>
         <v>45111</v>
       </c>
       <c r="J6" s="12">
-        <f t="shared" si="5"/>
+        <f>I6+1</f>
         <v>45112</v>
       </c>
       <c r="K6" s="12">
-        <f t="shared" si="5"/>
+        <f>J6+1</f>
         <v>45113</v>
       </c>
       <c r="L6" s="12">
-        <f t="shared" si="5"/>
+        <f>K6+1</f>
         <v>45114</v>
       </c>
       <c r="M6" s="12">
-        <f t="shared" si="5"/>
+        <f>L6+1</f>
         <v>45115</v>
       </c>
       <c r="N6" s="12">
-        <f t="shared" si="5"/>
+        <f>M6+1</f>
         <v>45116</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" si="5"/>
+        <f>N6+1</f>
         <v>45117</v>
       </c>
       <c r="P6" s="12">
-        <f t="shared" si="5"/>
+        <f>O6+1</f>
         <v>45118</v>
       </c>
       <c r="Q6" s="11">
-        <f t="shared" si="5"/>
+        <f>P6+1</f>
         <v>45119</v>
       </c>
       <c r="R6" s="11">
-        <f t="shared" ref="R6:X6" si="6">Q6+1</f>
+        <f>Q6+1</f>
         <v>45120</v>
       </c>
       <c r="S6" s="11">
-        <f t="shared" si="6"/>
+        <f>R6+1</f>
         <v>45121</v>
       </c>
       <c r="T6" s="11">
-        <f t="shared" si="6"/>
+        <f>S6+1</f>
         <v>45122</v>
       </c>
       <c r="U6" s="11">
-        <f t="shared" si="6"/>
+        <f>T6+1</f>
         <v>45123</v>
       </c>
       <c r="V6" s="11">
-        <f t="shared" si="6"/>
+        <f>U6+1</f>
         <v>45124</v>
       </c>
       <c r="W6" s="11">
-        <f t="shared" si="6"/>
+        <f>V6+1</f>
         <v>45125</v>
       </c>
       <c r="X6" s="12">
-        <f t="shared" si="6"/>
+        <f>W6+1</f>
         <v>45126</v>
       </c>
       <c r="Y6" s="12">
-        <f t="shared" ref="Y6:AC6" si="7">X6+1</f>
+        <f>X6+1</f>
         <v>45127</v>
       </c>
       <c r="Z6" s="12">
-        <f t="shared" si="7"/>
+        <f>Y6+1</f>
         <v>45128</v>
       </c>
       <c r="AA6" s="12">
-        <f t="shared" si="7"/>
+        <f>Z6+1</f>
         <v>45129</v>
       </c>
       <c r="AB6" s="12">
-        <f t="shared" si="7"/>
+        <f>AA6+1</f>
         <v>45130</v>
       </c>
       <c r="AC6" s="12">
-        <f t="shared" si="7"/>
+        <f>AB6+1</f>
         <v>45131</v>
       </c>
       <c r="AD6" s="12">
@@ -1719,44 +1772,42 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="30" customHeight="1">
+    <row r="7" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="32" t="s">
+      <c r="C7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
     </row>
-    <row r="8" spans="2:30" ht="30" customHeight="1">
+    <row r="8" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
@@ -1765,52 +1816,44 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="23" t="s">
-        <v>7</v>
-      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="23"/>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
       <c r="X8" s="23"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
-      <c r="AA8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
     </row>
-    <row r="9" spans="2:30" ht="30" customHeight="1">
+    <row r="9" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B9" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
@@ -1835,7 +1878,7 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="14"/>
     </row>
-    <row r="10" spans="2:30" ht="30" customHeight="1">
+    <row r="10" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B10" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -1869,34 +1912,34 @@
       <c r="AC10" s="15"/>
       <c r="AD10" s="14"/>
     </row>
-    <row r="11" spans="2:30" ht="30" customHeight="1">
+    <row r="11" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B11" s="13"/>
       <c r="C11" s="6" t="str">
-        <f>LOWER(TEXT(C13, "m월"))</f>
+        <f>LOWER(TEXT(C13,"m월"))</f>
         <v>7월</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f t="shared" ref="D11" si="8">IF(TEXT(D13,"m월")=TEXT(C13,"m월"),"",LOWER(TEXT(D13,"m월")))</f>
+        <f>IF(TEXT(D13,"m월")=TEXT(C13,"m월"),"",LOWER(TEXT(D13,"m월")))</f>
         <v/>
       </c>
       <c r="E11" s="7" t="str">
-        <f t="shared" ref="E11" si="9">IF(TEXT(E13,"m월")=TEXT(D13,"m월"),"",LOWER(TEXT(E13,"m월")))</f>
+        <f>IF(TEXT(E13,"m월")=TEXT(D13,"m월"),"",LOWER(TEXT(E13,"m월")))</f>
         <v/>
       </c>
       <c r="F11" s="7" t="str">
-        <f t="shared" ref="F11" si="10">IF(TEXT(F13,"m월")=TEXT(E13,"m월"),"",LOWER(TEXT(F13,"m월")))</f>
+        <f>IF(TEXT(F13,"m월")=TEXT(E13,"m월"),"",LOWER(TEXT(F13,"m월")))</f>
         <v/>
       </c>
       <c r="G11" s="7" t="str">
-        <f t="shared" ref="G11" si="11">IF(TEXT(G13,"m월")=TEXT(F13,"m월"),"",LOWER(TEXT(G13,"m월")))</f>
+        <f>IF(TEXT(G13,"m월")=TEXT(F13,"m월"),"",LOWER(TEXT(G13,"m월")))</f>
         <v/>
       </c>
       <c r="H11" s="7" t="str">
-        <f t="shared" ref="H11" si="12">IF(TEXT(H13,"m월")=TEXT(G13,"m월"),"",LOWER(TEXT(H13,"m월")))</f>
+        <f>IF(TEXT(H13,"m월")=TEXT(G13,"m월"),"",LOWER(TEXT(H13,"m월")))</f>
         <v/>
       </c>
       <c r="I11" s="7" t="str">
-        <f t="shared" ref="I11" si="13">IF(TEXT(I13,"m월")=TEXT(H13,"m월"),"",LOWER(TEXT(I13,"m월")))</f>
+        <f>IF(TEXT(I13,"m월")=TEXT(H13,"m월"),"",LOWER(TEXT(I13,"m월")))</f>
         <v>8월</v>
       </c>
       <c r="J11" s="8" t="str">
@@ -1904,27 +1947,27 @@
         <v>8월</v>
       </c>
       <c r="K11" s="8" t="str">
-        <f t="shared" ref="K11" si="14">IF(TEXT(K13,"m월")=TEXT(J13,"m월"),"",LOWER(TEXT(K13,"m월")))</f>
+        <f>IF(TEXT(K13,"m월")=TEXT(J13,"m월"),"",LOWER(TEXT(K13,"m월")))</f>
         <v/>
       </c>
       <c r="L11" s="8" t="str">
-        <f t="shared" ref="L11" si="15">IF(TEXT(L13,"m월")=TEXT(K13,"m월"),"",LOWER(TEXT(L13,"m월")))</f>
+        <f>IF(TEXT(L13,"m월")=TEXT(K13,"m월"),"",LOWER(TEXT(L13,"m월")))</f>
         <v/>
       </c>
       <c r="M11" s="8" t="str">
-        <f t="shared" ref="M11" si="16">IF(TEXT(M13,"m월")=TEXT(L13,"m월"),"",LOWER(TEXT(M13,"m월")))</f>
+        <f>IF(TEXT(M13,"m월")=TEXT(L13,"m월"),"",LOWER(TEXT(M13,"m월")))</f>
         <v/>
       </c>
       <c r="N11" s="8" t="str">
-        <f t="shared" ref="N11" si="17">IF(TEXT(N13,"m월")=TEXT(M13,"m월"),"",LOWER(TEXT(N13,"m월")))</f>
+        <f>IF(TEXT(N13,"m월")=TEXT(M13,"m월"),"",LOWER(TEXT(N13,"m월")))</f>
         <v/>
       </c>
       <c r="O11" s="8" t="str">
-        <f t="shared" ref="O11" si="18">IF(TEXT(O13,"m월")=TEXT(N13,"m월"),"",LOWER(TEXT(O13,"m월")))</f>
+        <f>IF(TEXT(O13,"m월")=TEXT(N13,"m월"),"",LOWER(TEXT(O13,"m월")))</f>
         <v/>
       </c>
       <c r="P11" s="8" t="str">
-        <f t="shared" ref="P11" si="19">IF(TEXT(P13,"m월")=TEXT(O13,"m월"),"",LOWER(TEXT(P13,"m월")))</f>
+        <f>IF(TEXT(P13,"m월")=TEXT(O13,"m월"),"",LOWER(TEXT(P13,"m월")))</f>
         <v/>
       </c>
       <c r="Q11" s="7" t="str">
@@ -1932,27 +1975,27 @@
         <v>8월</v>
       </c>
       <c r="R11" s="7" t="str">
-        <f t="shared" ref="R11" si="20">IF(TEXT(R13,"m월")=TEXT(Q13,"m월"),"",LOWER(TEXT(R13,"m월")))</f>
+        <f>IF(TEXT(R13,"m월")=TEXT(Q13,"m월"),"",LOWER(TEXT(R13,"m월")))</f>
         <v/>
       </c>
       <c r="S11" s="7" t="str">
-        <f t="shared" ref="S11" si="21">IF(TEXT(S13,"m월")=TEXT(R13,"m월"),"",LOWER(TEXT(S13,"m월")))</f>
+        <f>IF(TEXT(S13,"m월")=TEXT(R13,"m월"),"",LOWER(TEXT(S13,"m월")))</f>
         <v/>
       </c>
       <c r="T11" s="7" t="str">
-        <f t="shared" ref="T11" si="22">IF(TEXT(T13,"m월")=TEXT(S13,"m월"),"",LOWER(TEXT(T13,"m월")))</f>
+        <f>IF(TEXT(T13,"m월")=TEXT(S13,"m월"),"",LOWER(TEXT(T13,"m월")))</f>
         <v/>
       </c>
       <c r="U11" s="7" t="str">
-        <f t="shared" ref="U11" si="23">IF(TEXT(U13,"m월")=TEXT(T13,"m월"),"",LOWER(TEXT(U13,"m월")))</f>
+        <f>IF(TEXT(U13,"m월")=TEXT(T13,"m월"),"",LOWER(TEXT(U13,"m월")))</f>
         <v/>
       </c>
       <c r="V11" s="7" t="str">
-        <f t="shared" ref="V11" si="24">IF(TEXT(V13,"m월")=TEXT(U13,"m월"),"",LOWER(TEXT(V13,"m월")))</f>
+        <f>IF(TEXT(V13,"m월")=TEXT(U13,"m월"),"",LOWER(TEXT(V13,"m월")))</f>
         <v/>
       </c>
       <c r="W11" s="7" t="str">
-        <f t="shared" ref="W11" si="25">IF(TEXT(W13,"m월")=TEXT(V13,"m월"),"",LOWER(TEXT(W13,"m월")))</f>
+        <f>IF(TEXT(W13,"m월")=TEXT(V13,"m월"),"",LOWER(TEXT(W13,"m월")))</f>
         <v/>
       </c>
       <c r="X11" s="8" t="str">
@@ -1960,146 +2003,146 @@
         <v>8월</v>
       </c>
       <c r="Y11" s="8" t="str">
-        <f t="shared" ref="Y11" si="26">IF(TEXT(Y13,"m월")=TEXT(X13,"m월"),"",LOWER(TEXT(Y13,"m월")))</f>
+        <f>IF(TEXT(Y13,"m월")=TEXT(X13,"m월"),"",LOWER(TEXT(Y13,"m월")))</f>
         <v/>
       </c>
       <c r="Z11" s="8" t="str">
-        <f t="shared" ref="Z11" si="27">IF(TEXT(Z13,"m월")=TEXT(Y13,"m월"),"",LOWER(TEXT(Z13,"m월")))</f>
+        <f>IF(TEXT(Z13,"m월")=TEXT(Y13,"m월"),"",LOWER(TEXT(Z13,"m월")))</f>
         <v/>
       </c>
       <c r="AA11" s="8" t="str">
-        <f t="shared" ref="AA11" si="28">IF(TEXT(AA13,"m월")=TEXT(Z13,"m월"),"",LOWER(TEXT(AA13,"m월")))</f>
+        <f>IF(TEXT(AA13,"m월")=TEXT(Z13,"m월"),"",LOWER(TEXT(AA13,"m월")))</f>
         <v/>
       </c>
       <c r="AB11" s="8" t="str">
-        <f t="shared" ref="AB11" si="29">IF(TEXT(AB13,"m월")=TEXT(AA13,"m월"),"",LOWER(TEXT(AB13,"m월")))</f>
+        <f>IF(TEXT(AB13,"m월")=TEXT(AA13,"m월"),"",LOWER(TEXT(AB13,"m월")))</f>
         <v/>
       </c>
       <c r="AC11" s="8" t="str">
-        <f t="shared" ref="AC11" si="30">IF(TEXT(AC13,"m월")=TEXT(AB13,"m월"),"",LOWER(TEXT(AC13,"m월")))</f>
+        <f>IF(TEXT(AC13,"m월")=TEXT(AB13,"m월"),"",LOWER(TEXT(AC13,"m월")))</f>
         <v/>
       </c>
       <c r="AD11" s="8" t="str">
-        <f t="shared" ref="AD11" si="31">IF(TEXT(AD13,"m월")=TEXT(AC13,"m월"),"",LOWER(TEXT(AD13,"m월")))</f>
+        <f>IF(TEXT(AD13,"m월")=TEXT(AC13,"m월"),"",LOWER(TEXT(AD13,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:30" ht="30" customHeight="1">
+    <row r="12" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="9" t="str">
         <f>LOWER(TEXT(C13,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f t="shared" ref="D12:AD12" si="32">LOWER(TEXT(D13,"aaa"))</f>
+        <f>LOWER(TEXT(D13,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="E12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(E13,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(F13,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(G13,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(H13,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(I13,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="J12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(J13,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="K12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(K13,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="L12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(L13,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="M12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(M13,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="N12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(N13,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="O12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(O13,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="P12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(P13,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="Q12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(Q13,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="R12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(R13,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(S13,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="T12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(T13,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="U12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(U13,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="V12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(V13,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="W12" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(W13,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="X12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(X13,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="Y12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(Y13,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Z12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(Z13,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="AA12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(AA13,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="AB12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(AB13,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AC12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(AC13,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AD12" s="10" t="str">
-        <f t="shared" si="32"/>
+        <f>LOWER(TEXT(AD13,"aaa"))</f>
         <v>화</v>
       </c>
     </row>
-    <row r="13" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B13" s="13"/>
       <c r="C13" s="11">
         <f>AD6+1</f>
@@ -2110,151 +2153,147 @@
         <v>45134</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" ref="E13" si="33">D13+1</f>
+        <f>D13+1</f>
         <v>45135</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" ref="F13" si="34">E13+1</f>
+        <f>E13+1</f>
         <v>45136</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" ref="G13" si="35">F13+1</f>
+        <f>F13+1</f>
         <v>45137</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" ref="H13" si="36">G13+1</f>
+        <f>G13+1</f>
         <v>45138</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" ref="I13" si="37">H13+1</f>
+        <f>H13+1</f>
         <v>45139</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" ref="J13" si="38">I13+1</f>
+        <f>I13+1</f>
         <v>45140</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" ref="K13" si="39">J13+1</f>
+        <f>J13+1</f>
         <v>45141</v>
       </c>
       <c r="L13" s="12">
-        <f t="shared" ref="L13" si="40">K13+1</f>
+        <f>K13+1</f>
         <v>45142</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" ref="M13" si="41">L13+1</f>
+        <f>L13+1</f>
         <v>45143</v>
       </c>
       <c r="N13" s="12">
-        <f t="shared" ref="N13" si="42">M13+1</f>
+        <f>M13+1</f>
         <v>45144</v>
       </c>
       <c r="O13" s="12">
-        <f t="shared" ref="O13" si="43">N13+1</f>
+        <f>N13+1</f>
         <v>45145</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" ref="P13" si="44">O13+1</f>
+        <f>O13+1</f>
         <v>45146</v>
       </c>
       <c r="Q13" s="11">
-        <f t="shared" ref="Q13" si="45">P13+1</f>
+        <f>P13+1</f>
         <v>45147</v>
       </c>
       <c r="R13" s="11">
-        <f t="shared" ref="R13" si="46">Q13+1</f>
+        <f>Q13+1</f>
         <v>45148</v>
       </c>
       <c r="S13" s="11">
-        <f t="shared" ref="S13" si="47">R13+1</f>
+        <f>R13+1</f>
         <v>45149</v>
       </c>
       <c r="T13" s="11">
-        <f t="shared" ref="T13" si="48">S13+1</f>
+        <f>S13+1</f>
         <v>45150</v>
       </c>
       <c r="U13" s="11">
-        <f t="shared" ref="U13" si="49">T13+1</f>
+        <f>T13+1</f>
         <v>45151</v>
       </c>
       <c r="V13" s="11">
-        <f t="shared" ref="V13" si="50">U13+1</f>
+        <f>U13+1</f>
         <v>45152</v>
       </c>
       <c r="W13" s="11">
-        <f t="shared" ref="W13" si="51">V13+1</f>
+        <f>V13+1</f>
         <v>45153</v>
       </c>
       <c r="X13" s="12">
-        <f t="shared" ref="X13" si="52">W13+1</f>
+        <f>W13+1</f>
         <v>45154</v>
       </c>
       <c r="Y13" s="12">
-        <f t="shared" ref="Y13" si="53">X13+1</f>
+        <f>X13+1</f>
         <v>45155</v>
       </c>
       <c r="Z13" s="12">
-        <f t="shared" ref="Z13" si="54">Y13+1</f>
+        <f>Y13+1</f>
         <v>45156</v>
       </c>
       <c r="AA13" s="12">
-        <f t="shared" ref="AA13" si="55">Z13+1</f>
+        <f>Z13+1</f>
         <v>45157</v>
       </c>
       <c r="AB13" s="12">
-        <f t="shared" ref="AB13" si="56">AA13+1</f>
+        <f>AA13+1</f>
         <v>45158</v>
       </c>
       <c r="AC13" s="12">
-        <f t="shared" ref="AC13" si="57">AB13+1</f>
+        <f>AB13+1</f>
         <v>45159</v>
       </c>
       <c r="AD13" s="12">
-        <f t="shared" ref="AD13" si="58">AC13+1</f>
+        <f>AC13+1</f>
         <v>45160</v>
       </c>
     </row>
-    <row r="14" spans="2:30" ht="30" customHeight="1">
+    <row r="14" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B14" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="14"/>
+      <c r="C14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="48"/>
     </row>
-    <row r="15" spans="2:30" ht="30" customHeight="1">
+    <row r="15" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B15" s="13"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2264,24 +2303,24 @@
       <c r="F15" s="21"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="27" t="s">
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
       <c r="W15" s="23" t="s">
         <v>14</v>
       </c>
@@ -2293,7 +2332,7 @@
       <c r="AC15" s="23"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="2:30" ht="30" customHeight="1">
+    <row r="16" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B16" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2327,7 +2366,7 @@
       <c r="AC16" s="15"/>
       <c r="AD16" s="14"/>
     </row>
-    <row r="17" spans="2:30" ht="30" customHeight="1">
+    <row r="17" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B17" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2361,30 +2400,30 @@
       <c r="AC17" s="15"/>
       <c r="AD17" s="14"/>
     </row>
-    <row r="18" spans="2:30" ht="30" customHeight="1">
+    <row r="18" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B18" s="13"/>
       <c r="C18" s="6" t="str">
-        <f>LOWER(TEXT(C20, "m월"))</f>
+        <f>LOWER(TEXT(C20,"m월"))</f>
         <v>8월</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f t="shared" ref="D18" si="59">IF(TEXT(D20,"m월")=TEXT(C20,"m월"),"",LOWER(TEXT(D20,"m월")))</f>
+        <f>IF(TEXT(D20,"m월")=TEXT(C20,"m월"),"",LOWER(TEXT(D20,"m월")))</f>
         <v/>
       </c>
       <c r="E18" s="7" t="str">
-        <f t="shared" ref="E18" si="60">IF(TEXT(E20,"m월")=TEXT(D20,"m월"),"",LOWER(TEXT(E20,"m월")))</f>
+        <f>IF(TEXT(E20,"m월")=TEXT(D20,"m월"),"",LOWER(TEXT(E20,"m월")))</f>
         <v/>
       </c>
       <c r="F18" s="7" t="str">
-        <f t="shared" ref="F18" si="61">IF(TEXT(F20,"m월")=TEXT(E20,"m월"),"",LOWER(TEXT(F20,"m월")))</f>
+        <f>IF(TEXT(F20,"m월")=TEXT(E20,"m월"),"",LOWER(TEXT(F20,"m월")))</f>
         <v/>
       </c>
       <c r="G18" s="7" t="str">
-        <f t="shared" ref="G18" si="62">IF(TEXT(G20,"m월")=TEXT(F20,"m월"),"",LOWER(TEXT(G20,"m월")))</f>
+        <f>IF(TEXT(G20,"m월")=TEXT(F20,"m월"),"",LOWER(TEXT(G20,"m월")))</f>
         <v/>
       </c>
       <c r="H18" s="7" t="str">
-        <f t="shared" ref="H18" si="63">IF(TEXT(H20,"m월")=TEXT(G20,"m월"),"",LOWER(TEXT(H20,"m월")))</f>
+        <f>IF(TEXT(H20,"m월")=TEXT(G20,"m월"),"",LOWER(TEXT(H20,"m월")))</f>
         <v/>
       </c>
       <c r="I18" s="7" t="str">
@@ -2396,23 +2435,23 @@
         <v>8월</v>
       </c>
       <c r="K18" s="8" t="str">
-        <f t="shared" ref="K18" si="64">IF(TEXT(K20,"m월")=TEXT(J20,"m월"),"",LOWER(TEXT(K20,"m월")))</f>
+        <f>IF(TEXT(K20,"m월")=TEXT(J20,"m월"),"",LOWER(TEXT(K20,"m월")))</f>
         <v/>
       </c>
       <c r="L18" s="8" t="str">
-        <f t="shared" ref="L18" si="65">IF(TEXT(L20,"m월")=TEXT(K20,"m월"),"",LOWER(TEXT(L20,"m월")))</f>
+        <f>IF(TEXT(L20,"m월")=TEXT(K20,"m월"),"",LOWER(TEXT(L20,"m월")))</f>
         <v>9월</v>
       </c>
       <c r="M18" s="8" t="str">
-        <f t="shared" ref="M18" si="66">IF(TEXT(M20,"m월")=TEXT(L20,"m월"),"",LOWER(TEXT(M20,"m월")))</f>
+        <f>IF(TEXT(M20,"m월")=TEXT(L20,"m월"),"",LOWER(TEXT(M20,"m월")))</f>
         <v/>
       </c>
       <c r="N18" s="8" t="str">
-        <f t="shared" ref="N18" si="67">IF(TEXT(N20,"m월")=TEXT(M20,"m월"),"",LOWER(TEXT(N20,"m월")))</f>
+        <f>IF(TEXT(N20,"m월")=TEXT(M20,"m월"),"",LOWER(TEXT(N20,"m월")))</f>
         <v/>
       </c>
       <c r="O18" s="8" t="str">
-        <f t="shared" ref="O18" si="68">IF(TEXT(O20,"m월")=TEXT(N20,"m월"),"",LOWER(TEXT(O20,"m월")))</f>
+        <f>IF(TEXT(O20,"m월")=TEXT(N20,"m월"),"",LOWER(TEXT(O20,"m월")))</f>
         <v/>
       </c>
       <c r="P18" s="8" t="str">
@@ -2424,27 +2463,27 @@
         <v>9월</v>
       </c>
       <c r="R18" s="7" t="str">
-        <f t="shared" ref="R18" si="69">IF(TEXT(R20,"m월")=TEXT(Q20,"m월"),"",LOWER(TEXT(R20,"m월")))</f>
+        <f>IF(TEXT(R20,"m월")=TEXT(Q20,"m월"),"",LOWER(TEXT(R20,"m월")))</f>
         <v/>
       </c>
       <c r="S18" s="7" t="str">
-        <f t="shared" ref="S18" si="70">IF(TEXT(S20,"m월")=TEXT(R20,"m월"),"",LOWER(TEXT(S20,"m월")))</f>
+        <f>IF(TEXT(S20,"m월")=TEXT(R20,"m월"),"",LOWER(TEXT(S20,"m월")))</f>
         <v/>
       </c>
       <c r="T18" s="7" t="str">
-        <f t="shared" ref="T18" si="71">IF(TEXT(T20,"m월")=TEXT(S20,"m월"),"",LOWER(TEXT(T20,"m월")))</f>
+        <f>IF(TEXT(T20,"m월")=TEXT(S20,"m월"),"",LOWER(TEXT(T20,"m월")))</f>
         <v/>
       </c>
       <c r="U18" s="7" t="str">
-        <f t="shared" ref="U18" si="72">IF(TEXT(U20,"m월")=TEXT(T20,"m월"),"",LOWER(TEXT(U20,"m월")))</f>
+        <f>IF(TEXT(U20,"m월")=TEXT(T20,"m월"),"",LOWER(TEXT(U20,"m월")))</f>
         <v/>
       </c>
       <c r="V18" s="7" t="str">
-        <f t="shared" ref="V18" si="73">IF(TEXT(V20,"m월")=TEXT(U20,"m월"),"",LOWER(TEXT(V20,"m월")))</f>
+        <f>IF(TEXT(V20,"m월")=TEXT(U20,"m월"),"",LOWER(TEXT(V20,"m월")))</f>
         <v/>
       </c>
       <c r="W18" s="7" t="str">
-        <f t="shared" ref="W18" si="74">IF(TEXT(W20,"m월")=TEXT(V20,"m월"),"",LOWER(TEXT(W20,"m월")))</f>
+        <f>IF(TEXT(W20,"m월")=TEXT(V20,"m월"),"",LOWER(TEXT(W20,"m월")))</f>
         <v/>
       </c>
       <c r="X18" s="8" t="str">
@@ -2452,146 +2491,146 @@
         <v>9월</v>
       </c>
       <c r="Y18" s="8" t="str">
-        <f t="shared" ref="Y18" si="75">IF(TEXT(Y20,"m월")=TEXT(X20,"m월"),"",LOWER(TEXT(Y20,"m월")))</f>
+        <f>IF(TEXT(Y20,"m월")=TEXT(X20,"m월"),"",LOWER(TEXT(Y20,"m월")))</f>
         <v/>
       </c>
       <c r="Z18" s="8" t="str">
-        <f t="shared" ref="Z18" si="76">IF(TEXT(Z20,"m월")=TEXT(Y20,"m월"),"",LOWER(TEXT(Z20,"m월")))</f>
+        <f>IF(TEXT(Z20,"m월")=TEXT(Y20,"m월"),"",LOWER(TEXT(Z20,"m월")))</f>
         <v/>
       </c>
       <c r="AA18" s="8" t="str">
-        <f t="shared" ref="AA18" si="77">IF(TEXT(AA20,"m월")=TEXT(Z20,"m월"),"",LOWER(TEXT(AA20,"m월")))</f>
+        <f>IF(TEXT(AA20,"m월")=TEXT(Z20,"m월"),"",LOWER(TEXT(AA20,"m월")))</f>
         <v/>
       </c>
       <c r="AB18" s="8" t="str">
-        <f t="shared" ref="AB18" si="78">IF(TEXT(AB20,"m월")=TEXT(AA20,"m월"),"",LOWER(TEXT(AB20,"m월")))</f>
+        <f>IF(TEXT(AB20,"m월")=TEXT(AA20,"m월"),"",LOWER(TEXT(AB20,"m월")))</f>
         <v/>
       </c>
       <c r="AC18" s="8" t="str">
-        <f t="shared" ref="AC18" si="79">IF(TEXT(AC20,"m월")=TEXT(AB20,"m월"),"",LOWER(TEXT(AC20,"m월")))</f>
+        <f>IF(TEXT(AC20,"m월")=TEXT(AB20,"m월"),"",LOWER(TEXT(AC20,"m월")))</f>
         <v/>
       </c>
       <c r="AD18" s="8" t="str">
-        <f t="shared" ref="AD18" si="80">IF(TEXT(AD20,"m월")=TEXT(AC20,"m월"),"",LOWER(TEXT(AD20,"m월")))</f>
+        <f>IF(TEXT(AD20,"m월")=TEXT(AC20,"m월"),"",LOWER(TEXT(AD20,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:30" ht="30" customHeight="1">
+    <row r="19" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B19" s="13"/>
       <c r="C19" s="9" t="str">
         <f>LOWER(TEXT(C20,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="D19" s="9" t="str">
-        <f t="shared" ref="D19:AD19" si="81">LOWER(TEXT(D20,"aaa"))</f>
+        <f>LOWER(TEXT(D20,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="E19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(E20,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="F19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(F20,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(G20,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(H20,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="I19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(I20,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="J19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(J20,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="K19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(K20,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="L19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(L20,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="M19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(M20,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="N19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(N20,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="O19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(O20,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="P19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(P20,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="Q19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(Q20,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="R19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(R20,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(S20,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="T19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(T20,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="U19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(U20,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="V19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(V20,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="W19" s="9" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(W20,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="X19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(X20,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="Y19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(Y20,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Z19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(Z20,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="AA19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(AA20,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="AB19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(AB20,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AC19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(AC20,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AD19" s="10" t="str">
-        <f t="shared" si="81"/>
+        <f>LOWER(TEXT(AD20,"aaa"))</f>
         <v>화</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B20" s="13"/>
       <c r="C20" s="11">
         <f>AD13+1</f>
@@ -2602,19 +2641,19 @@
         <v>45162</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" ref="E20" si="82">D20+1</f>
+        <f>D20+1</f>
         <v>45163</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" ref="F20" si="83">E20+1</f>
+        <f>E20+1</f>
         <v>45164</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" ref="G20" si="84">F20+1</f>
+        <f>F20+1</f>
         <v>45165</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" ref="H20" si="85">G20+1</f>
+        <f>G20+1</f>
         <v>45166</v>
       </c>
       <c r="I20" s="11">
@@ -2622,27 +2661,27 @@
         <v>45167</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" ref="J20" si="86">I20+1</f>
+        <f>I20+1</f>
         <v>45168</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" ref="K20" si="87">J20+1</f>
+        <f>J20+1</f>
         <v>45169</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" ref="L20" si="88">K20+1</f>
+        <f>K20+1</f>
         <v>45170</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" ref="M20" si="89">L20+1</f>
+        <f>L20+1</f>
         <v>45171</v>
       </c>
       <c r="N20" s="12">
-        <f t="shared" ref="N20" si="90">M20+1</f>
+        <f>M20+1</f>
         <v>45172</v>
       </c>
       <c r="O20" s="12">
-        <f t="shared" ref="O20" si="91">N20+1</f>
+        <f>N20+1</f>
         <v>45173</v>
       </c>
       <c r="P20" s="12">
@@ -2650,63 +2689,63 @@
         <v>45174</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" ref="Q20" si="92">P20+1</f>
+        <f>P20+1</f>
         <v>45175</v>
       </c>
       <c r="R20" s="11">
-        <f t="shared" ref="R20" si="93">Q20+1</f>
+        <f>Q20+1</f>
         <v>45176</v>
       </c>
       <c r="S20" s="11">
-        <f t="shared" ref="S20" si="94">R20+1</f>
+        <f>R20+1</f>
         <v>45177</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" ref="T20" si="95">S20+1</f>
+        <f>S20+1</f>
         <v>45178</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" ref="U20" si="96">T20+1</f>
+        <f>T20+1</f>
         <v>45179</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" ref="V20" si="97">U20+1</f>
+        <f>U20+1</f>
         <v>45180</v>
       </c>
       <c r="W20" s="11">
-        <f t="shared" ref="W20" si="98">V20+1</f>
+        <f>V20+1</f>
         <v>45181</v>
       </c>
       <c r="X20" s="12">
-        <f t="shared" ref="X20" si="99">W20+1</f>
+        <f>W20+1</f>
         <v>45182</v>
       </c>
       <c r="Y20" s="12">
-        <f t="shared" ref="Y20" si="100">X20+1</f>
+        <f>X20+1</f>
         <v>45183</v>
       </c>
       <c r="Z20" s="12">
-        <f t="shared" ref="Z20" si="101">Y20+1</f>
+        <f>Y20+1</f>
         <v>45184</v>
       </c>
       <c r="AA20" s="12">
-        <f t="shared" ref="AA20" si="102">Z20+1</f>
+        <f>Z20+1</f>
         <v>45185</v>
       </c>
       <c r="AB20" s="12">
-        <f t="shared" ref="AB20" si="103">AA20+1</f>
+        <f>AA20+1</f>
         <v>45186</v>
       </c>
       <c r="AC20" s="12">
-        <f t="shared" ref="AC20" si="104">AB20+1</f>
+        <f>AB20+1</f>
         <v>45187</v>
       </c>
       <c r="AD20" s="12">
-        <f t="shared" ref="AD20" si="105">AC20+1</f>
+        <f>AC20+1</f>
         <v>45188</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="30" customHeight="1">
+    <row r="21" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B21" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2720,71 +2759,71 @@
       <c r="I21" s="15"/>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
     </row>
-    <row r="22" spans="2:30" ht="30" customHeight="1">
+    <row r="22" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B22" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
     </row>
-    <row r="23" spans="2:30" ht="30" customHeight="1">
+    <row r="23" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B23" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2818,30 +2857,30 @@
       <c r="AC23" s="15"/>
       <c r="AD23" s="14"/>
     </row>
-    <row r="24" spans="2:30" ht="30" customHeight="1">
+    <row r="24" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B24" s="13"/>
       <c r="C24" s="6" t="str">
-        <f>LOWER(TEXT(C26, "m월"))</f>
+        <f>LOWER(TEXT(C26,"m월"))</f>
         <v>9월</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f t="shared" ref="D24" si="106">IF(TEXT(D26,"m월")=TEXT(C26,"m월"),"",LOWER(TEXT(D26,"m월")))</f>
+        <f>IF(TEXT(D26,"m월")=TEXT(C26,"m월"),"",LOWER(TEXT(D26,"m월")))</f>
         <v/>
       </c>
       <c r="E24" s="7" t="str">
-        <f t="shared" ref="E24" si="107">IF(TEXT(E26,"m월")=TEXT(D26,"m월"),"",LOWER(TEXT(E26,"m월")))</f>
+        <f>IF(TEXT(E26,"m월")=TEXT(D26,"m월"),"",LOWER(TEXT(E26,"m월")))</f>
         <v/>
       </c>
       <c r="F24" s="7" t="str">
-        <f t="shared" ref="F24" si="108">IF(TEXT(F26,"m월")=TEXT(E26,"m월"),"",LOWER(TEXT(F26,"m월")))</f>
+        <f>IF(TEXT(F26,"m월")=TEXT(E26,"m월"),"",LOWER(TEXT(F26,"m월")))</f>
         <v/>
       </c>
       <c r="G24" s="7" t="str">
-        <f t="shared" ref="G24" si="109">IF(TEXT(G26,"m월")=TEXT(F26,"m월"),"",LOWER(TEXT(G26,"m월")))</f>
+        <f>IF(TEXT(G26,"m월")=TEXT(F26,"m월"),"",LOWER(TEXT(G26,"m월")))</f>
         <v/>
       </c>
       <c r="H24" s="7" t="str">
-        <f t="shared" ref="H24" si="110">IF(TEXT(H26,"m월")=TEXT(G26,"m월"),"",LOWER(TEXT(H26,"m월")))</f>
+        <f>IF(TEXT(H26,"m월")=TEXT(G26,"m월"),"",LOWER(TEXT(H26,"m월")))</f>
         <v/>
       </c>
       <c r="I24" s="7" t="str">
@@ -2853,23 +2892,23 @@
         <v>9월</v>
       </c>
       <c r="K24" s="8" t="str">
-        <f t="shared" ref="K24" si="111">IF(TEXT(K26,"m월")=TEXT(J26,"m월"),"",LOWER(TEXT(K26,"m월")))</f>
+        <f>IF(TEXT(K26,"m월")=TEXT(J26,"m월"),"",LOWER(TEXT(K26,"m월")))</f>
         <v/>
       </c>
       <c r="L24" s="8" t="str">
-        <f t="shared" ref="L24" si="112">IF(TEXT(L26,"m월")=TEXT(K26,"m월"),"",LOWER(TEXT(L26,"m월")))</f>
+        <f>IF(TEXT(L26,"m월")=TEXT(K26,"m월"),"",LOWER(TEXT(L26,"m월")))</f>
         <v/>
       </c>
       <c r="M24" s="8" t="str">
-        <f t="shared" ref="M24" si="113">IF(TEXT(M26,"m월")=TEXT(L26,"m월"),"",LOWER(TEXT(M26,"m월")))</f>
+        <f>IF(TEXT(M26,"m월")=TEXT(L26,"m월"),"",LOWER(TEXT(M26,"m월")))</f>
         <v/>
       </c>
       <c r="N24" s="8" t="str">
-        <f t="shared" ref="N24" si="114">IF(TEXT(N26,"m월")=TEXT(M26,"m월"),"",LOWER(TEXT(N26,"m월")))</f>
+        <f>IF(TEXT(N26,"m월")=TEXT(M26,"m월"),"",LOWER(TEXT(N26,"m월")))</f>
         <v>10월</v>
       </c>
       <c r="O24" s="8" t="str">
-        <f t="shared" ref="O24" si="115">IF(TEXT(O26,"m월")=TEXT(N26,"m월"),"",LOWER(TEXT(O26,"m월")))</f>
+        <f>IF(TEXT(O26,"m월")=TEXT(N26,"m월"),"",LOWER(TEXT(O26,"m월")))</f>
         <v/>
       </c>
       <c r="P24" s="8" t="str">
@@ -2881,27 +2920,27 @@
         <v>10월</v>
       </c>
       <c r="R24" s="7" t="str">
-        <f t="shared" ref="R24" si="116">IF(TEXT(R26,"m월")=TEXT(Q26,"m월"),"",LOWER(TEXT(R26,"m월")))</f>
+        <f>IF(TEXT(R26,"m월")=TEXT(Q26,"m월"),"",LOWER(TEXT(R26,"m월")))</f>
         <v/>
       </c>
       <c r="S24" s="7" t="str">
-        <f t="shared" ref="S24" si="117">IF(TEXT(S26,"m월")=TEXT(R26,"m월"),"",LOWER(TEXT(S26,"m월")))</f>
+        <f>IF(TEXT(S26,"m월")=TEXT(R26,"m월"),"",LOWER(TEXT(S26,"m월")))</f>
         <v/>
       </c>
       <c r="T24" s="7" t="str">
-        <f t="shared" ref="T24" si="118">IF(TEXT(T26,"m월")=TEXT(S26,"m월"),"",LOWER(TEXT(T26,"m월")))</f>
+        <f>IF(TEXT(T26,"m월")=TEXT(S26,"m월"),"",LOWER(TEXT(T26,"m월")))</f>
         <v/>
       </c>
       <c r="U24" s="7" t="str">
-        <f t="shared" ref="U24" si="119">IF(TEXT(U26,"m월")=TEXT(T26,"m월"),"",LOWER(TEXT(U26,"m월")))</f>
+        <f>IF(TEXT(U26,"m월")=TEXT(T26,"m월"),"",LOWER(TEXT(U26,"m월")))</f>
         <v/>
       </c>
       <c r="V24" s="7" t="str">
-        <f t="shared" ref="V24" si="120">IF(TEXT(V26,"m월")=TEXT(U26,"m월"),"",LOWER(TEXT(V26,"m월")))</f>
+        <f>IF(TEXT(V26,"m월")=TEXT(U26,"m월"),"",LOWER(TEXT(V26,"m월")))</f>
         <v/>
       </c>
       <c r="W24" s="7" t="str">
-        <f t="shared" ref="W24" si="121">IF(TEXT(W26,"m월")=TEXT(V26,"m월"),"",LOWER(TEXT(W26,"m월")))</f>
+        <f>IF(TEXT(W26,"m월")=TEXT(V26,"m월"),"",LOWER(TEXT(W26,"m월")))</f>
         <v/>
       </c>
       <c r="X24" s="8" t="str">
@@ -2909,146 +2948,146 @@
         <v>10월</v>
       </c>
       <c r="Y24" s="8" t="str">
-        <f t="shared" ref="Y24" si="122">IF(TEXT(Y26,"m월")=TEXT(X26,"m월"),"",LOWER(TEXT(Y26,"m월")))</f>
+        <f>IF(TEXT(Y26,"m월")=TEXT(X26,"m월"),"",LOWER(TEXT(Y26,"m월")))</f>
         <v/>
       </c>
       <c r="Z24" s="8" t="str">
-        <f t="shared" ref="Z24" si="123">IF(TEXT(Z26,"m월")=TEXT(Y26,"m월"),"",LOWER(TEXT(Z26,"m월")))</f>
+        <f>IF(TEXT(Z26,"m월")=TEXT(Y26,"m월"),"",LOWER(TEXT(Z26,"m월")))</f>
         <v/>
       </c>
       <c r="AA24" s="8" t="str">
-        <f t="shared" ref="AA24" si="124">IF(TEXT(AA26,"m월")=TEXT(Z26,"m월"),"",LOWER(TEXT(AA26,"m월")))</f>
+        <f>IF(TEXT(AA26,"m월")=TEXT(Z26,"m월"),"",LOWER(TEXT(AA26,"m월")))</f>
         <v/>
       </c>
       <c r="AB24" s="8" t="str">
-        <f t="shared" ref="AB24" si="125">IF(TEXT(AB26,"m월")=TEXT(AA26,"m월"),"",LOWER(TEXT(AB26,"m월")))</f>
+        <f>IF(TEXT(AB26,"m월")=TEXT(AA26,"m월"),"",LOWER(TEXT(AB26,"m월")))</f>
         <v/>
       </c>
       <c r="AC24" s="8" t="str">
-        <f t="shared" ref="AC24" si="126">IF(TEXT(AC26,"m월")=TEXT(AB26,"m월"),"",LOWER(TEXT(AC26,"m월")))</f>
+        <f>IF(TEXT(AC26,"m월")=TEXT(AB26,"m월"),"",LOWER(TEXT(AC26,"m월")))</f>
         <v/>
       </c>
       <c r="AD24" s="8" t="str">
-        <f t="shared" ref="AD24" si="127">IF(TEXT(AD26,"m월")=TEXT(AC26,"m월"),"",LOWER(TEXT(AD26,"m월")))</f>
+        <f>IF(TEXT(AD26,"m월")=TEXT(AC26,"m월"),"",LOWER(TEXT(AD26,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="30" customHeight="1">
+    <row r="25" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B25" s="13"/>
       <c r="C25" s="9" t="str">
         <f>LOWER(TEXT(C26,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="D25" s="9" t="str">
-        <f t="shared" ref="D25:AD25" si="128">LOWER(TEXT(D26,"aaa"))</f>
+        <f>LOWER(TEXT(D26,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="E25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(E26,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(F26,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(G26,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="H25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(H26,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="I25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(I26,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="J25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(J26,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="K25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(K26,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="L25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(L26,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="M25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(M26,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="N25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(N26,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="O25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(O26,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="P25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(P26,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="Q25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(Q26,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="R25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(R26,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="S25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(S26,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="T25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(T26,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="U25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(U26,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="V25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(V26,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="W25" s="9" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(W26,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="X25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(X26,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="Y25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(Y26,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Z25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(Z26,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="AA25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(AA26,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="AB25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(AB26,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AC25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(AC26,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AD25" s="10" t="str">
-        <f t="shared" si="128"/>
+        <f>LOWER(TEXT(AD26,"aaa"))</f>
         <v>화</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B26" s="13"/>
       <c r="C26" s="11">
         <f>AD20+1</f>
@@ -3059,19 +3098,19 @@
         <v>45190</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" ref="E26" si="129">D26+1</f>
+        <f>D26+1</f>
         <v>45191</v>
       </c>
       <c r="F26" s="11">
-        <f t="shared" ref="F26" si="130">E26+1</f>
+        <f>E26+1</f>
         <v>45192</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" ref="G26" si="131">F26+1</f>
+        <f>F26+1</f>
         <v>45193</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" ref="H26" si="132">G26+1</f>
+        <f>G26+1</f>
         <v>45194</v>
       </c>
       <c r="I26" s="11">
@@ -3079,27 +3118,27 @@
         <v>45195</v>
       </c>
       <c r="J26" s="12">
-        <f t="shared" ref="J26" si="133">I26+1</f>
+        <f>I26+1</f>
         <v>45196</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" ref="K26" si="134">J26+1</f>
+        <f>J26+1</f>
         <v>45197</v>
       </c>
       <c r="L26" s="12">
-        <f t="shared" ref="L26" si="135">K26+1</f>
+        <f>K26+1</f>
         <v>45198</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" ref="M26" si="136">L26+1</f>
+        <f>L26+1</f>
         <v>45199</v>
       </c>
       <c r="N26" s="12">
-        <f t="shared" ref="N26" si="137">M26+1</f>
+        <f>M26+1</f>
         <v>45200</v>
       </c>
       <c r="O26" s="12">
-        <f t="shared" ref="O26" si="138">N26+1</f>
+        <f>N26+1</f>
         <v>45201</v>
       </c>
       <c r="P26" s="12">
@@ -3107,143 +3146,141 @@
         <v>45202</v>
       </c>
       <c r="Q26" s="11">
-        <f t="shared" ref="Q26" si="139">P26+1</f>
+        <f>P26+1</f>
         <v>45203</v>
       </c>
       <c r="R26" s="11">
-        <f t="shared" ref="R26" si="140">Q26+1</f>
+        <f>Q26+1</f>
         <v>45204</v>
       </c>
       <c r="S26" s="11">
-        <f t="shared" ref="S26" si="141">R26+1</f>
+        <f>R26+1</f>
         <v>45205</v>
       </c>
       <c r="T26" s="11">
-        <f t="shared" ref="T26" si="142">S26+1</f>
+        <f>S26+1</f>
         <v>45206</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" ref="U26" si="143">T26+1</f>
+        <f>T26+1</f>
         <v>45207</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" ref="V26" si="144">U26+1</f>
+        <f>U26+1</f>
         <v>45208</v>
       </c>
       <c r="W26" s="11">
-        <f t="shared" ref="W26" si="145">V26+1</f>
+        <f>V26+1</f>
         <v>45209</v>
       </c>
       <c r="X26" s="12">
-        <f t="shared" ref="X26" si="146">W26+1</f>
+        <f>W26+1</f>
         <v>45210</v>
       </c>
       <c r="Y26" s="12">
-        <f t="shared" ref="Y26" si="147">X26+1</f>
+        <f>X26+1</f>
         <v>45211</v>
       </c>
       <c r="Z26" s="12">
-        <f t="shared" ref="Z26" si="148">Y26+1</f>
+        <f>Y26+1</f>
         <v>45212</v>
       </c>
       <c r="AA26" s="12">
-        <f t="shared" ref="AA26" si="149">Z26+1</f>
+        <f>Z26+1</f>
         <v>45213</v>
       </c>
       <c r="AB26" s="12">
-        <f t="shared" ref="AB26" si="150">AA26+1</f>
+        <f>AA26+1</f>
         <v>45214</v>
       </c>
       <c r="AC26" s="12">
-        <f t="shared" ref="AC26" si="151">AB26+1</f>
+        <f>AB26+1</f>
         <v>45215</v>
       </c>
       <c r="AD26" s="12">
-        <f t="shared" ref="AD26" si="152">AC26+1</f>
+        <f>AC26+1</f>
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="30" customHeight="1">
+    <row r="27" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B27" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
     </row>
-    <row r="28" spans="2:30" ht="30" customHeight="1">
+    <row r="28" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B28" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="23"/>
-      <c r="E28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="26" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="27" t="s">
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
       <c r="AB28" s="23" t="s">
         <v>22</v>
       </c>
       <c r="AC28" s="23"/>
       <c r="AD28" s="23"/>
     </row>
-    <row r="29" spans="2:30" ht="30" customHeight="1">
+    <row r="29" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B29" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -3277,30 +3314,30 @@
       <c r="AC29" s="15"/>
       <c r="AD29" s="14"/>
     </row>
-    <row r="30" spans="2:30" ht="30" customHeight="1">
+    <row r="30" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B30" s="13"/>
       <c r="C30" s="6" t="str">
-        <f>LOWER(TEXT(C32, "m월"))</f>
+        <f>LOWER(TEXT(C32,"m월"))</f>
         <v>10월</v>
       </c>
       <c r="D30" s="7" t="str">
-        <f t="shared" ref="D30" si="153">IF(TEXT(D32,"m월")=TEXT(C32,"m월"),"",LOWER(TEXT(D32,"m월")))</f>
+        <f>IF(TEXT(D32,"m월")=TEXT(C32,"m월"),"",LOWER(TEXT(D32,"m월")))</f>
         <v/>
       </c>
       <c r="E30" s="7" t="str">
-        <f t="shared" ref="E30" si="154">IF(TEXT(E32,"m월")=TEXT(D32,"m월"),"",LOWER(TEXT(E32,"m월")))</f>
+        <f>IF(TEXT(E32,"m월")=TEXT(D32,"m월"),"",LOWER(TEXT(E32,"m월")))</f>
         <v/>
       </c>
       <c r="F30" s="7" t="str">
-        <f t="shared" ref="F30" si="155">IF(TEXT(F32,"m월")=TEXT(E32,"m월"),"",LOWER(TEXT(F32,"m월")))</f>
+        <f>IF(TEXT(F32,"m월")=TEXT(E32,"m월"),"",LOWER(TEXT(F32,"m월")))</f>
         <v/>
       </c>
       <c r="G30" s="7" t="str">
-        <f t="shared" ref="G30" si="156">IF(TEXT(G32,"m월")=TEXT(F32,"m월"),"",LOWER(TEXT(G32,"m월")))</f>
+        <f>IF(TEXT(G32,"m월")=TEXT(F32,"m월"),"",LOWER(TEXT(G32,"m월")))</f>
         <v/>
       </c>
       <c r="H30" s="7" t="str">
-        <f t="shared" ref="H30" si="157">IF(TEXT(H32,"m월")=TEXT(G32,"m월"),"",LOWER(TEXT(H32,"m월")))</f>
+        <f>IF(TEXT(H32,"m월")=TEXT(G32,"m월"),"",LOWER(TEXT(H32,"m월")))</f>
         <v/>
       </c>
       <c r="I30" s="7" t="str">
@@ -3312,23 +3349,23 @@
         <v>10월</v>
       </c>
       <c r="K30" s="8" t="str">
-        <f t="shared" ref="K30" si="158">IF(TEXT(K32,"m월")=TEXT(J32,"m월"),"",LOWER(TEXT(K32,"m월")))</f>
+        <f>IF(TEXT(K32,"m월")=TEXT(J32,"m월"),"",LOWER(TEXT(K32,"m월")))</f>
         <v/>
       </c>
       <c r="L30" s="8" t="str">
-        <f t="shared" ref="L30" si="159">IF(TEXT(L32,"m월")=TEXT(K32,"m월"),"",LOWER(TEXT(L32,"m월")))</f>
+        <f>IF(TEXT(L32,"m월")=TEXT(K32,"m월"),"",LOWER(TEXT(L32,"m월")))</f>
         <v/>
       </c>
       <c r="M30" s="8" t="str">
-        <f t="shared" ref="M30" si="160">IF(TEXT(M32,"m월")=TEXT(L32,"m월"),"",LOWER(TEXT(M32,"m월")))</f>
+        <f>IF(TEXT(M32,"m월")=TEXT(L32,"m월"),"",LOWER(TEXT(M32,"m월")))</f>
         <v/>
       </c>
       <c r="N30" s="8" t="str">
-        <f t="shared" ref="N30" si="161">IF(TEXT(N32,"m월")=TEXT(M32,"m월"),"",LOWER(TEXT(N32,"m월")))</f>
+        <f>IF(TEXT(N32,"m월")=TEXT(M32,"m월"),"",LOWER(TEXT(N32,"m월")))</f>
         <v/>
       </c>
       <c r="O30" s="8" t="str">
-        <f t="shared" ref="O30" si="162">IF(TEXT(O32,"m월")=TEXT(N32,"m월"),"",LOWER(TEXT(O32,"m월")))</f>
+        <f>IF(TEXT(O32,"m월")=TEXT(N32,"m월"),"",LOWER(TEXT(O32,"m월")))</f>
         <v/>
       </c>
       <c r="P30" s="8" t="str">
@@ -3340,27 +3377,27 @@
         <v>11월</v>
       </c>
       <c r="R30" s="7" t="str">
-        <f t="shared" ref="R30" si="163">IF(TEXT(R32,"m월")=TEXT(Q32,"m월"),"",LOWER(TEXT(R32,"m월")))</f>
+        <f>IF(TEXT(R32,"m월")=TEXT(Q32,"m월"),"",LOWER(TEXT(R32,"m월")))</f>
         <v/>
       </c>
       <c r="S30" s="7" t="str">
-        <f t="shared" ref="S30" si="164">IF(TEXT(S32,"m월")=TEXT(R32,"m월"),"",LOWER(TEXT(S32,"m월")))</f>
+        <f>IF(TEXT(S32,"m월")=TEXT(R32,"m월"),"",LOWER(TEXT(S32,"m월")))</f>
         <v/>
       </c>
       <c r="T30" s="7" t="str">
-        <f t="shared" ref="T30" si="165">IF(TEXT(T32,"m월")=TEXT(S32,"m월"),"",LOWER(TEXT(T32,"m월")))</f>
+        <f>IF(TEXT(T32,"m월")=TEXT(S32,"m월"),"",LOWER(TEXT(T32,"m월")))</f>
         <v/>
       </c>
       <c r="U30" s="7" t="str">
-        <f t="shared" ref="U30" si="166">IF(TEXT(U32,"m월")=TEXT(T32,"m월"),"",LOWER(TEXT(U32,"m월")))</f>
+        <f>IF(TEXT(U32,"m월")=TEXT(T32,"m월"),"",LOWER(TEXT(U32,"m월")))</f>
         <v/>
       </c>
       <c r="V30" s="7" t="str">
-        <f t="shared" ref="V30" si="167">IF(TEXT(V32,"m월")=TEXT(U32,"m월"),"",LOWER(TEXT(V32,"m월")))</f>
+        <f>IF(TEXT(V32,"m월")=TEXT(U32,"m월"),"",LOWER(TEXT(V32,"m월")))</f>
         <v/>
       </c>
       <c r="W30" s="7" t="str">
-        <f t="shared" ref="W30" si="168">IF(TEXT(W32,"m월")=TEXT(V32,"m월"),"",LOWER(TEXT(W32,"m월")))</f>
+        <f>IF(TEXT(W32,"m월")=TEXT(V32,"m월"),"",LOWER(TEXT(W32,"m월")))</f>
         <v/>
       </c>
       <c r="X30" s="8" t="str">
@@ -3368,146 +3405,146 @@
         <v>11월</v>
       </c>
       <c r="Y30" s="8" t="str">
-        <f t="shared" ref="Y30" si="169">IF(TEXT(Y32,"m월")=TEXT(X32,"m월"),"",LOWER(TEXT(Y32,"m월")))</f>
+        <f>IF(TEXT(Y32,"m월")=TEXT(X32,"m월"),"",LOWER(TEXT(Y32,"m월")))</f>
         <v/>
       </c>
       <c r="Z30" s="8" t="str">
-        <f t="shared" ref="Z30" si="170">IF(TEXT(Z32,"m월")=TEXT(Y32,"m월"),"",LOWER(TEXT(Z32,"m월")))</f>
+        <f>IF(TEXT(Z32,"m월")=TEXT(Y32,"m월"),"",LOWER(TEXT(Z32,"m월")))</f>
         <v/>
       </c>
       <c r="AA30" s="8" t="str">
-        <f t="shared" ref="AA30" si="171">IF(TEXT(AA32,"m월")=TEXT(Z32,"m월"),"",LOWER(TEXT(AA32,"m월")))</f>
+        <f>IF(TEXT(AA32,"m월")=TEXT(Z32,"m월"),"",LOWER(TEXT(AA32,"m월")))</f>
         <v/>
       </c>
       <c r="AB30" s="8" t="str">
-        <f t="shared" ref="AB30" si="172">IF(TEXT(AB32,"m월")=TEXT(AA32,"m월"),"",LOWER(TEXT(AB32,"m월")))</f>
+        <f>IF(TEXT(AB32,"m월")=TEXT(AA32,"m월"),"",LOWER(TEXT(AB32,"m월")))</f>
         <v/>
       </c>
       <c r="AC30" s="8" t="str">
-        <f t="shared" ref="AC30" si="173">IF(TEXT(AC32,"m월")=TEXT(AB32,"m월"),"",LOWER(TEXT(AC32,"m월")))</f>
+        <f>IF(TEXT(AC32,"m월")=TEXT(AB32,"m월"),"",LOWER(TEXT(AC32,"m월")))</f>
         <v/>
       </c>
       <c r="AD30" s="8" t="str">
-        <f t="shared" ref="AD30" si="174">IF(TEXT(AD32,"m월")=TEXT(AC32,"m월"),"",LOWER(TEXT(AD32,"m월")))</f>
+        <f>IF(TEXT(AD32,"m월")=TEXT(AC32,"m월"),"",LOWER(TEXT(AD32,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="30" customHeight="1">
+    <row r="31" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B31" s="13"/>
       <c r="C31" s="9" t="str">
         <f>LOWER(TEXT(C32,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="D31" s="9" t="str">
-        <f t="shared" ref="D31:AD31" si="175">LOWER(TEXT(D32,"aaa"))</f>
+        <f>LOWER(TEXT(D32,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="E31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(E32,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="F31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(F32,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(G32,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(H32,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="I31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(I32,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="J31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(J32,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="K31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(K32,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="L31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(L32,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="M31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(M32,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="N31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(N32,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="O31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(O32,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="P31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(P32,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="Q31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(Q32,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="R31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(R32,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(S32,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="T31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(T32,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="U31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(U32,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="V31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(V32,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="W31" s="9" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(W32,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="X31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(X32,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="Y31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(Y32,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Z31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(Z32,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="AA31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(AA32,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="AB31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(AB32,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AC31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(AC32,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AD31" s="10" t="str">
-        <f t="shared" si="175"/>
+        <f>LOWER(TEXT(AD32,"aaa"))</f>
         <v>화</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B32" s="13"/>
       <c r="C32" s="11">
         <f>AD26+1</f>
@@ -3518,19 +3555,19 @@
         <v>45218</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" ref="E32" si="176">D32+1</f>
+        <f>D32+1</f>
         <v>45219</v>
       </c>
       <c r="F32" s="11">
-        <f t="shared" ref="F32" si="177">E32+1</f>
+        <f>E32+1</f>
         <v>45220</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" ref="G32" si="178">F32+1</f>
+        <f>F32+1</f>
         <v>45221</v>
       </c>
       <c r="H32" s="11">
-        <f t="shared" ref="H32" si="179">G32+1</f>
+        <f>G32+1</f>
         <v>45222</v>
       </c>
       <c r="I32" s="11">
@@ -3538,27 +3575,27 @@
         <v>45223</v>
       </c>
       <c r="J32" s="12">
-        <f t="shared" ref="J32" si="180">I32+1</f>
+        <f>I32+1</f>
         <v>45224</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" ref="K32" si="181">J32+1</f>
+        <f>J32+1</f>
         <v>45225</v>
       </c>
       <c r="L32" s="12">
-        <f t="shared" ref="L32" si="182">K32+1</f>
+        <f>K32+1</f>
         <v>45226</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" ref="M32" si="183">L32+1</f>
+        <f>L32+1</f>
         <v>45227</v>
       </c>
       <c r="N32" s="12">
-        <f t="shared" ref="N32" si="184">M32+1</f>
+        <f>M32+1</f>
         <v>45228</v>
       </c>
       <c r="O32" s="12">
-        <f t="shared" ref="O32" si="185">N32+1</f>
+        <f>N32+1</f>
         <v>45229</v>
       </c>
       <c r="P32" s="12">
@@ -3566,139 +3603,137 @@
         <v>45230</v>
       </c>
       <c r="Q32" s="11">
-        <f t="shared" ref="Q32" si="186">P32+1</f>
+        <f>P32+1</f>
         <v>45231</v>
       </c>
       <c r="R32" s="11">
-        <f t="shared" ref="R32" si="187">Q32+1</f>
+        <f>Q32+1</f>
         <v>45232</v>
       </c>
       <c r="S32" s="11">
-        <f t="shared" ref="S32" si="188">R32+1</f>
+        <f>R32+1</f>
         <v>45233</v>
       </c>
       <c r="T32" s="11">
-        <f t="shared" ref="T32" si="189">S32+1</f>
+        <f>S32+1</f>
         <v>45234</v>
       </c>
       <c r="U32" s="11">
-        <f t="shared" ref="U32" si="190">T32+1</f>
+        <f>T32+1</f>
         <v>45235</v>
       </c>
       <c r="V32" s="11">
-        <f t="shared" ref="V32" si="191">U32+1</f>
+        <f>U32+1</f>
         <v>45236</v>
       </c>
       <c r="W32" s="11">
-        <f t="shared" ref="W32" si="192">V32+1</f>
+        <f>V32+1</f>
         <v>45237</v>
       </c>
       <c r="X32" s="12">
-        <f t="shared" ref="X32" si="193">W32+1</f>
+        <f>W32+1</f>
         <v>45238</v>
       </c>
       <c r="Y32" s="12">
-        <f t="shared" ref="Y32" si="194">X32+1</f>
+        <f>X32+1</f>
         <v>45239</v>
       </c>
       <c r="Z32" s="12">
-        <f t="shared" ref="Z32" si="195">Y32+1</f>
+        <f>Y32+1</f>
         <v>45240</v>
       </c>
       <c r="AA32" s="12">
-        <f t="shared" ref="AA32" si="196">Z32+1</f>
+        <f>Z32+1</f>
         <v>45241</v>
       </c>
       <c r="AB32" s="12">
-        <f t="shared" ref="AB32" si="197">AA32+1</f>
+        <f>AA32+1</f>
         <v>45242</v>
       </c>
       <c r="AC32" s="12">
-        <f t="shared" ref="AC32" si="198">AB32+1</f>
+        <f>AB32+1</f>
         <v>45243</v>
       </c>
       <c r="AD32" s="12">
-        <f t="shared" ref="AD32" si="199">AC32+1</f>
+        <f>AC32+1</f>
         <v>45244</v>
       </c>
     </row>
-    <row r="33" spans="2:30" ht="30" customHeight="1">
+    <row r="33" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B33" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
     </row>
-    <row r="34" spans="2:30" ht="30" customHeight="1">
+    <row r="34" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B34" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
     </row>
-    <row r="35" spans="2:30" ht="30" customHeight="1">
+    <row r="35" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B35" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -3732,30 +3767,30 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="14"/>
     </row>
-    <row r="36" spans="2:30" ht="30" customHeight="1">
+    <row r="36" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B36" s="13"/>
       <c r="C36" s="6" t="str">
-        <f>LOWER(TEXT(C38, "m월"))</f>
+        <f>LOWER(TEXT(C38,"m월"))</f>
         <v>11월</v>
       </c>
       <c r="D36" s="7" t="str">
-        <f t="shared" ref="D36" si="200">IF(TEXT(D38,"m월")=TEXT(C38,"m월"),"",LOWER(TEXT(D38,"m월")))</f>
+        <f>IF(TEXT(D38,"m월")=TEXT(C38,"m월"),"",LOWER(TEXT(D38,"m월")))</f>
         <v/>
       </c>
       <c r="E36" s="7" t="str">
-        <f t="shared" ref="E36" si="201">IF(TEXT(E38,"m월")=TEXT(D38,"m월"),"",LOWER(TEXT(E38,"m월")))</f>
+        <f>IF(TEXT(E38,"m월")=TEXT(D38,"m월"),"",LOWER(TEXT(E38,"m월")))</f>
         <v/>
       </c>
       <c r="F36" s="7" t="str">
-        <f t="shared" ref="F36" si="202">IF(TEXT(F38,"m월")=TEXT(E38,"m월"),"",LOWER(TEXT(F38,"m월")))</f>
+        <f>IF(TEXT(F38,"m월")=TEXT(E38,"m월"),"",LOWER(TEXT(F38,"m월")))</f>
         <v/>
       </c>
       <c r="G36" s="7" t="str">
-        <f t="shared" ref="G36" si="203">IF(TEXT(G38,"m월")=TEXT(F38,"m월"),"",LOWER(TEXT(G38,"m월")))</f>
+        <f>IF(TEXT(G38,"m월")=TEXT(F38,"m월"),"",LOWER(TEXT(G38,"m월")))</f>
         <v/>
       </c>
       <c r="H36" s="7" t="str">
-        <f t="shared" ref="H36" si="204">IF(TEXT(H38,"m월")=TEXT(G38,"m월"),"",LOWER(TEXT(H38,"m월")))</f>
+        <f>IF(TEXT(H38,"m월")=TEXT(G38,"m월"),"",LOWER(TEXT(H38,"m월")))</f>
         <v/>
       </c>
       <c r="I36" s="7" t="str">
@@ -3767,23 +3802,23 @@
         <v>11월</v>
       </c>
       <c r="K36" s="8" t="str">
-        <f t="shared" ref="K36" si="205">IF(TEXT(K38,"m월")=TEXT(J38,"m월"),"",LOWER(TEXT(K38,"m월")))</f>
+        <f>IF(TEXT(K38,"m월")=TEXT(J38,"m월"),"",LOWER(TEXT(K38,"m월")))</f>
         <v/>
       </c>
       <c r="L36" s="8" t="str">
-        <f t="shared" ref="L36" si="206">IF(TEXT(L38,"m월")=TEXT(K38,"m월"),"",LOWER(TEXT(L38,"m월")))</f>
+        <f>IF(TEXT(L38,"m월")=TEXT(K38,"m월"),"",LOWER(TEXT(L38,"m월")))</f>
         <v/>
       </c>
       <c r="M36" s="8" t="str">
-        <f t="shared" ref="M36" si="207">IF(TEXT(M38,"m월")=TEXT(L38,"m월"),"",LOWER(TEXT(M38,"m월")))</f>
+        <f>IF(TEXT(M38,"m월")=TEXT(L38,"m월"),"",LOWER(TEXT(M38,"m월")))</f>
         <v/>
       </c>
       <c r="N36" s="8" t="str">
-        <f t="shared" ref="N36" si="208">IF(TEXT(N38,"m월")=TEXT(M38,"m월"),"",LOWER(TEXT(N38,"m월")))</f>
+        <f>IF(TEXT(N38,"m월")=TEXT(M38,"m월"),"",LOWER(TEXT(N38,"m월")))</f>
         <v/>
       </c>
       <c r="O36" s="8" t="str">
-        <f t="shared" ref="O36" si="209">IF(TEXT(O38,"m월")=TEXT(N38,"m월"),"",LOWER(TEXT(O38,"m월")))</f>
+        <f>IF(TEXT(O38,"m월")=TEXT(N38,"m월"),"",LOWER(TEXT(O38,"m월")))</f>
         <v/>
       </c>
       <c r="P36" s="8" t="str">
@@ -3795,27 +3830,27 @@
         <v>11월</v>
       </c>
       <c r="R36" s="7" t="str">
-        <f t="shared" ref="R36" si="210">IF(TEXT(R38,"m월")=TEXT(Q38,"m월"),"",LOWER(TEXT(R38,"m월")))</f>
+        <f>IF(TEXT(R38,"m월")=TEXT(Q38,"m월"),"",LOWER(TEXT(R38,"m월")))</f>
         <v/>
       </c>
       <c r="S36" s="7" t="str">
-        <f t="shared" ref="S36" si="211">IF(TEXT(S38,"m월")=TEXT(R38,"m월"),"",LOWER(TEXT(S38,"m월")))</f>
+        <f>IF(TEXT(S38,"m월")=TEXT(R38,"m월"),"",LOWER(TEXT(S38,"m월")))</f>
         <v>12월</v>
       </c>
       <c r="T36" s="7" t="str">
-        <f t="shared" ref="T36" si="212">IF(TEXT(T38,"m월")=TEXT(S38,"m월"),"",LOWER(TEXT(T38,"m월")))</f>
+        <f>IF(TEXT(T38,"m월")=TEXT(S38,"m월"),"",LOWER(TEXT(T38,"m월")))</f>
         <v/>
       </c>
       <c r="U36" s="7" t="str">
-        <f t="shared" ref="U36" si="213">IF(TEXT(U38,"m월")=TEXT(T38,"m월"),"",LOWER(TEXT(U38,"m월")))</f>
+        <f>IF(TEXT(U38,"m월")=TEXT(T38,"m월"),"",LOWER(TEXT(U38,"m월")))</f>
         <v/>
       </c>
       <c r="V36" s="7" t="str">
-        <f t="shared" ref="V36" si="214">IF(TEXT(V38,"m월")=TEXT(U38,"m월"),"",LOWER(TEXT(V38,"m월")))</f>
+        <f>IF(TEXT(V38,"m월")=TEXT(U38,"m월"),"",LOWER(TEXT(V38,"m월")))</f>
         <v/>
       </c>
       <c r="W36" s="7" t="str">
-        <f t="shared" ref="W36" si="215">IF(TEXT(W38,"m월")=TEXT(V38,"m월"),"",LOWER(TEXT(W38,"m월")))</f>
+        <f>IF(TEXT(W38,"m월")=TEXT(V38,"m월"),"",LOWER(TEXT(W38,"m월")))</f>
         <v/>
       </c>
       <c r="X36" s="8" t="str">
@@ -3823,146 +3858,146 @@
         <v>12월</v>
       </c>
       <c r="Y36" s="8" t="str">
-        <f t="shared" ref="Y36" si="216">IF(TEXT(Y38,"m월")=TEXT(X38,"m월"),"",LOWER(TEXT(Y38,"m월")))</f>
+        <f>IF(TEXT(Y38,"m월")=TEXT(X38,"m월"),"",LOWER(TEXT(Y38,"m월")))</f>
         <v/>
       </c>
       <c r="Z36" s="8" t="str">
-        <f t="shared" ref="Z36" si="217">IF(TEXT(Z38,"m월")=TEXT(Y38,"m월"),"",LOWER(TEXT(Z38,"m월")))</f>
+        <f>IF(TEXT(Z38,"m월")=TEXT(Y38,"m월"),"",LOWER(TEXT(Z38,"m월")))</f>
         <v/>
       </c>
       <c r="AA36" s="8" t="str">
-        <f t="shared" ref="AA36" si="218">IF(TEXT(AA38,"m월")=TEXT(Z38,"m월"),"",LOWER(TEXT(AA38,"m월")))</f>
+        <f>IF(TEXT(AA38,"m월")=TEXT(Z38,"m월"),"",LOWER(TEXT(AA38,"m월")))</f>
         <v/>
       </c>
       <c r="AB36" s="8" t="str">
-        <f t="shared" ref="AB36" si="219">IF(TEXT(AB38,"m월")=TEXT(AA38,"m월"),"",LOWER(TEXT(AB38,"m월")))</f>
+        <f>IF(TEXT(AB38,"m월")=TEXT(AA38,"m월"),"",LOWER(TEXT(AB38,"m월")))</f>
         <v/>
       </c>
       <c r="AC36" s="8" t="str">
-        <f t="shared" ref="AC36" si="220">IF(TEXT(AC38,"m월")=TEXT(AB38,"m월"),"",LOWER(TEXT(AC38,"m월")))</f>
+        <f>IF(TEXT(AC38,"m월")=TEXT(AB38,"m월"),"",LOWER(TEXT(AC38,"m월")))</f>
         <v/>
       </c>
       <c r="AD36" s="8" t="str">
-        <f t="shared" ref="AD36" si="221">IF(TEXT(AD38,"m월")=TEXT(AC38,"m월"),"",LOWER(TEXT(AD38,"m월")))</f>
+        <f>IF(TEXT(AD38,"m월")=TEXT(AC38,"m월"),"",LOWER(TEXT(AD38,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:30" ht="30" customHeight="1">
+    <row r="37" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B37" s="13"/>
       <c r="C37" s="9" t="str">
         <f>LOWER(TEXT(C38,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="D37" s="9" t="str">
-        <f t="shared" ref="D37:AD37" si="222">LOWER(TEXT(D38,"aaa"))</f>
+        <f>LOWER(TEXT(D38,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="E37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(E38,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(F38,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(G38,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="H37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(H38,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="I37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(I38,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="J37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(J38,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="K37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(K38,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="L37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(L38,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="M37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(M38,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="N37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(N38,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="O37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(O38,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="P37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(P38,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="Q37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(Q38,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="R37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(R38,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(S38,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="T37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(T38,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="U37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(U38,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="V37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(V38,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="W37" s="9" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(W38,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="X37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(X38,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="Y37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(Y38,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Z37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(Z38,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="AA37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(AA38,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="AB37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(AB38,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AC37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(AC38,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AD37" s="10" t="str">
-        <f t="shared" si="222"/>
+        <f>LOWER(TEXT(AD38,"aaa"))</f>
         <v>화</v>
       </c>
     </row>
-    <row r="38" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="38" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B38" s="13"/>
       <c r="C38" s="11">
         <f>AD32+1</f>
@@ -3973,19 +4008,19 @@
         <v>45246</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" ref="E38" si="223">D38+1</f>
+        <f>D38+1</f>
         <v>45247</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" ref="F38" si="224">E38+1</f>
+        <f>E38+1</f>
         <v>45248</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" ref="G38" si="225">F38+1</f>
+        <f>F38+1</f>
         <v>45249</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" ref="H38" si="226">G38+1</f>
+        <f>G38+1</f>
         <v>45250</v>
       </c>
       <c r="I38" s="11">
@@ -3993,27 +4028,27 @@
         <v>45251</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" ref="J38" si="227">I38+1</f>
+        <f>I38+1</f>
         <v>45252</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" ref="K38" si="228">J38+1</f>
+        <f>J38+1</f>
         <v>45253</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" ref="L38" si="229">K38+1</f>
+        <f>K38+1</f>
         <v>45254</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" ref="M38" si="230">L38+1</f>
+        <f>L38+1</f>
         <v>45255</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" ref="N38" si="231">M38+1</f>
+        <f>M38+1</f>
         <v>45256</v>
       </c>
       <c r="O38" s="12">
-        <f t="shared" ref="O38" si="232">N38+1</f>
+        <f>N38+1</f>
         <v>45257</v>
       </c>
       <c r="P38" s="12">
@@ -4021,105 +4056,105 @@
         <v>45258</v>
       </c>
       <c r="Q38" s="11">
-        <f t="shared" ref="Q38" si="233">P38+1</f>
+        <f>P38+1</f>
         <v>45259</v>
       </c>
       <c r="R38" s="11">
-        <f t="shared" ref="R38" si="234">Q38+1</f>
+        <f>Q38+1</f>
         <v>45260</v>
       </c>
       <c r="S38" s="11">
-        <f t="shared" ref="S38" si="235">R38+1</f>
+        <f>R38+1</f>
         <v>45261</v>
       </c>
       <c r="T38" s="11">
-        <f t="shared" ref="T38" si="236">S38+1</f>
+        <f>S38+1</f>
         <v>45262</v>
       </c>
       <c r="U38" s="11">
-        <f t="shared" ref="U38" si="237">T38+1</f>
+        <f>T38+1</f>
         <v>45263</v>
       </c>
       <c r="V38" s="11">
-        <f t="shared" ref="V38" si="238">U38+1</f>
+        <f>U38+1</f>
         <v>45264</v>
       </c>
       <c r="W38" s="11">
-        <f t="shared" ref="W38" si="239">V38+1</f>
+        <f>V38+1</f>
         <v>45265</v>
       </c>
       <c r="X38" s="12">
-        <f t="shared" ref="X38" si="240">W38+1</f>
+        <f>W38+1</f>
         <v>45266</v>
       </c>
       <c r="Y38" s="12">
-        <f t="shared" ref="Y38" si="241">X38+1</f>
+        <f>X38+1</f>
         <v>45267</v>
       </c>
       <c r="Z38" s="12">
-        <f t="shared" ref="Z38" si="242">Y38+1</f>
+        <f>Y38+1</f>
         <v>45268</v>
       </c>
       <c r="AA38" s="12">
-        <f t="shared" ref="AA38" si="243">Z38+1</f>
+        <f>Z38+1</f>
         <v>45269</v>
       </c>
       <c r="AB38" s="12">
-        <f t="shared" ref="AB38" si="244">AA38+1</f>
+        <f>AA38+1</f>
         <v>45270</v>
       </c>
       <c r="AC38" s="12">
-        <f t="shared" ref="AC38" si="245">AB38+1</f>
+        <f>AB38+1</f>
         <v>45271</v>
       </c>
       <c r="AD38" s="12">
-        <f t="shared" ref="AD38" si="246">AC38+1</f>
+        <f>AC38+1</f>
         <v>45272</v>
       </c>
     </row>
-    <row r="39" spans="2:30" ht="30" customHeight="1">
+    <row r="39" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B39" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
     </row>
-    <row r="40" spans="2:30" ht="30" customHeight="1">
+    <row r="40" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B40" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -4127,33 +4162,33 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="T40" s="25"/>
-      <c r="U40" s="25"/>
-      <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="15"/>
       <c r="AB40" s="14"/>
       <c r="AC40" s="15"/>
       <c r="AD40" s="14"/>
     </row>
-    <row r="41" spans="2:30" ht="30" customHeight="1">
+    <row r="41" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B41" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -4187,30 +4222,30 @@
       <c r="AC41" s="15"/>
       <c r="AD41" s="14"/>
     </row>
-    <row r="42" spans="2:30" ht="30" customHeight="1">
+    <row r="42" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B42" s="13"/>
       <c r="C42" s="6" t="str">
-        <f>LOWER(TEXT(C44, "m월"))</f>
+        <f>LOWER(TEXT(C44,"m월"))</f>
         <v>12월</v>
       </c>
       <c r="D42" s="7" t="str">
-        <f t="shared" ref="D42" si="247">IF(TEXT(D44,"m월")=TEXT(C44,"m월"),"",LOWER(TEXT(D44,"m월")))</f>
+        <f>IF(TEXT(D44,"m월")=TEXT(C44,"m월"),"",LOWER(TEXT(D44,"m월")))</f>
         <v/>
       </c>
       <c r="E42" s="7" t="str">
-        <f t="shared" ref="E42" si="248">IF(TEXT(E44,"m월")=TEXT(D44,"m월"),"",LOWER(TEXT(E44,"m월")))</f>
+        <f>IF(TEXT(E44,"m월")=TEXT(D44,"m월"),"",LOWER(TEXT(E44,"m월")))</f>
         <v/>
       </c>
       <c r="F42" s="7" t="str">
-        <f t="shared" ref="F42" si="249">IF(TEXT(F44,"m월")=TEXT(E44,"m월"),"",LOWER(TEXT(F44,"m월")))</f>
+        <f>IF(TEXT(F44,"m월")=TEXT(E44,"m월"),"",LOWER(TEXT(F44,"m월")))</f>
         <v/>
       </c>
       <c r="G42" s="7" t="str">
-        <f t="shared" ref="G42" si="250">IF(TEXT(G44,"m월")=TEXT(F44,"m월"),"",LOWER(TEXT(G44,"m월")))</f>
+        <f>IF(TEXT(G44,"m월")=TEXT(F44,"m월"),"",LOWER(TEXT(G44,"m월")))</f>
         <v/>
       </c>
       <c r="H42" s="7" t="str">
-        <f t="shared" ref="H42" si="251">IF(TEXT(H44,"m월")=TEXT(G44,"m월"),"",LOWER(TEXT(H44,"m월")))</f>
+        <f>IF(TEXT(H44,"m월")=TEXT(G44,"m월"),"",LOWER(TEXT(H44,"m월")))</f>
         <v/>
       </c>
       <c r="I42" s="7" t="str">
@@ -4222,23 +4257,23 @@
         <v>12월</v>
       </c>
       <c r="K42" s="8" t="str">
-        <f t="shared" ref="K42" si="252">IF(TEXT(K44,"m월")=TEXT(J44,"m월"),"",LOWER(TEXT(K44,"m월")))</f>
+        <f>IF(TEXT(K44,"m월")=TEXT(J44,"m월"),"",LOWER(TEXT(K44,"m월")))</f>
         <v/>
       </c>
       <c r="L42" s="8" t="str">
-        <f t="shared" ref="L42" si="253">IF(TEXT(L44,"m월")=TEXT(K44,"m월"),"",LOWER(TEXT(L44,"m월")))</f>
+        <f>IF(TEXT(L44,"m월")=TEXT(K44,"m월"),"",LOWER(TEXT(L44,"m월")))</f>
         <v/>
       </c>
       <c r="M42" s="8" t="str">
-        <f t="shared" ref="M42" si="254">IF(TEXT(M44,"m월")=TEXT(L44,"m월"),"",LOWER(TEXT(M44,"m월")))</f>
+        <f>IF(TEXT(M44,"m월")=TEXT(L44,"m월"),"",LOWER(TEXT(M44,"m월")))</f>
         <v/>
       </c>
       <c r="N42" s="8" t="str">
-        <f t="shared" ref="N42" si="255">IF(TEXT(N44,"m월")=TEXT(M44,"m월"),"",LOWER(TEXT(N44,"m월")))</f>
+        <f>IF(TEXT(N44,"m월")=TEXT(M44,"m월"),"",LOWER(TEXT(N44,"m월")))</f>
         <v/>
       </c>
       <c r="O42" s="8" t="str">
-        <f t="shared" ref="O42" si="256">IF(TEXT(O44,"m월")=TEXT(N44,"m월"),"",LOWER(TEXT(O44,"m월")))</f>
+        <f>IF(TEXT(O44,"m월")=TEXT(N44,"m월"),"",LOWER(TEXT(O44,"m월")))</f>
         <v/>
       </c>
       <c r="P42" s="8" t="str">
@@ -4250,27 +4285,27 @@
         <v>12월</v>
       </c>
       <c r="R42" s="7" t="str">
-        <f t="shared" ref="R42" si="257">IF(TEXT(R44,"m월")=TEXT(Q44,"m월"),"",LOWER(TEXT(R44,"m월")))</f>
+        <f>IF(TEXT(R44,"m월")=TEXT(Q44,"m월"),"",LOWER(TEXT(R44,"m월")))</f>
         <v/>
       </c>
       <c r="S42" s="7" t="str">
-        <f t="shared" ref="S42" si="258">IF(TEXT(S44,"m월")=TEXT(R44,"m월"),"",LOWER(TEXT(S44,"m월")))</f>
+        <f>IF(TEXT(S44,"m월")=TEXT(R44,"m월"),"",LOWER(TEXT(S44,"m월")))</f>
         <v/>
       </c>
       <c r="T42" s="7" t="str">
-        <f t="shared" ref="T42" si="259">IF(TEXT(T44,"m월")=TEXT(S44,"m월"),"",LOWER(TEXT(T44,"m월")))</f>
+        <f>IF(TEXT(T44,"m월")=TEXT(S44,"m월"),"",LOWER(TEXT(T44,"m월")))</f>
         <v/>
       </c>
       <c r="U42" s="7" t="str">
-        <f t="shared" ref="U42" si="260">IF(TEXT(U44,"m월")=TEXT(T44,"m월"),"",LOWER(TEXT(U44,"m월")))</f>
+        <f>IF(TEXT(U44,"m월")=TEXT(T44,"m월"),"",LOWER(TEXT(U44,"m월")))</f>
         <v/>
       </c>
       <c r="V42" s="7" t="str">
-        <f t="shared" ref="V42" si="261">IF(TEXT(V44,"m월")=TEXT(U44,"m월"),"",LOWER(TEXT(V44,"m월")))</f>
+        <f>IF(TEXT(V44,"m월")=TEXT(U44,"m월"),"",LOWER(TEXT(V44,"m월")))</f>
         <v>1월</v>
       </c>
       <c r="W42" s="7" t="str">
-        <f t="shared" ref="W42" si="262">IF(TEXT(W44,"m월")=TEXT(V44,"m월"),"",LOWER(TEXT(W44,"m월")))</f>
+        <f>IF(TEXT(W44,"m월")=TEXT(V44,"m월"),"",LOWER(TEXT(W44,"m월")))</f>
         <v/>
       </c>
       <c r="X42" s="8" t="str">
@@ -4278,146 +4313,146 @@
         <v>1월</v>
       </c>
       <c r="Y42" s="8" t="str">
-        <f t="shared" ref="Y42" si="263">IF(TEXT(Y44,"m월")=TEXT(X44,"m월"),"",LOWER(TEXT(Y44,"m월")))</f>
+        <f>IF(TEXT(Y44,"m월")=TEXT(X44,"m월"),"",LOWER(TEXT(Y44,"m월")))</f>
         <v/>
       </c>
       <c r="Z42" s="8" t="str">
-        <f t="shared" ref="Z42" si="264">IF(TEXT(Z44,"m월")=TEXT(Y44,"m월"),"",LOWER(TEXT(Z44,"m월")))</f>
+        <f>IF(TEXT(Z44,"m월")=TEXT(Y44,"m월"),"",LOWER(TEXT(Z44,"m월")))</f>
         <v/>
       </c>
       <c r="AA42" s="8" t="str">
-        <f t="shared" ref="AA42" si="265">IF(TEXT(AA44,"m월")=TEXT(Z44,"m월"),"",LOWER(TEXT(AA44,"m월")))</f>
+        <f>IF(TEXT(AA44,"m월")=TEXT(Z44,"m월"),"",LOWER(TEXT(AA44,"m월")))</f>
         <v/>
       </c>
       <c r="AB42" s="8" t="str">
-        <f t="shared" ref="AB42" si="266">IF(TEXT(AB44,"m월")=TEXT(AA44,"m월"),"",LOWER(TEXT(AB44,"m월")))</f>
+        <f>IF(TEXT(AB44,"m월")=TEXT(AA44,"m월"),"",LOWER(TEXT(AB44,"m월")))</f>
         <v/>
       </c>
       <c r="AC42" s="8" t="str">
-        <f t="shared" ref="AC42" si="267">IF(TEXT(AC44,"m월")=TEXT(AB44,"m월"),"",LOWER(TEXT(AC44,"m월")))</f>
+        <f>IF(TEXT(AC44,"m월")=TEXT(AB44,"m월"),"",LOWER(TEXT(AC44,"m월")))</f>
         <v/>
       </c>
       <c r="AD42" s="8" t="str">
-        <f t="shared" ref="AD42" si="268">IF(TEXT(AD44,"m월")=TEXT(AC44,"m월"),"",LOWER(TEXT(AD44,"m월")))</f>
+        <f>IF(TEXT(AD44,"m월")=TEXT(AC44,"m월"),"",LOWER(TEXT(AD44,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:30" ht="30" customHeight="1">
+    <row r="43" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B43" s="13"/>
       <c r="C43" s="9" t="str">
         <f>LOWER(TEXT(C44,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="D43" s="9" t="str">
-        <f t="shared" ref="D43:AD43" si="269">LOWER(TEXT(D44,"aaa"))</f>
+        <f>LOWER(TEXT(D44,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="E43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(E44,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="F43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(F44,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="G43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(G44,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="H43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(H44,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="I43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(I44,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="J43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(J44,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="K43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(K44,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="L43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(L44,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="M43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(M44,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="N43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(N44,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="O43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(O44,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="P43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(P44,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="Q43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(Q44,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="R43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(R44,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="S43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(S44,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="T43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(T44,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="U43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(U44,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="V43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(V44,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="W43" s="9" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(W44,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="X43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(X44,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="Y43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(Y44,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Z43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(Z44,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="AA43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(AA44,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="AB43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(AB44,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AC43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(AC44,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AD43" s="10" t="str">
-        <f t="shared" si="269"/>
+        <f>LOWER(TEXT(AD44,"aaa"))</f>
         <v>화</v>
       </c>
     </row>
-    <row r="44" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="44" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B44" s="13"/>
       <c r="C44" s="11">
         <f>AD38+1</f>
@@ -4428,19 +4463,19 @@
         <v>45274</v>
       </c>
       <c r="E44" s="11">
-        <f t="shared" ref="E44" si="270">D44+1</f>
+        <f>D44+1</f>
         <v>45275</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" ref="F44" si="271">E44+1</f>
+        <f>E44+1</f>
         <v>45276</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" ref="G44" si="272">F44+1</f>
+        <f>F44+1</f>
         <v>45277</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" ref="H44" si="273">G44+1</f>
+        <f>G44+1</f>
         <v>45278</v>
       </c>
       <c r="I44" s="11">
@@ -4448,27 +4483,27 @@
         <v>45279</v>
       </c>
       <c r="J44" s="12">
-        <f t="shared" ref="J44" si="274">I44+1</f>
+        <f>I44+1</f>
         <v>45280</v>
       </c>
       <c r="K44" s="12">
-        <f t="shared" ref="K44" si="275">J44+1</f>
+        <f>J44+1</f>
         <v>45281</v>
       </c>
       <c r="L44" s="12">
-        <f t="shared" ref="L44" si="276">K44+1</f>
+        <f>K44+1</f>
         <v>45282</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" ref="M44" si="277">L44+1</f>
+        <f>L44+1</f>
         <v>45283</v>
       </c>
       <c r="N44" s="12">
-        <f t="shared" ref="N44" si="278">M44+1</f>
+        <f>M44+1</f>
         <v>45284</v>
       </c>
       <c r="O44" s="12">
-        <f t="shared" ref="O44" si="279">N44+1</f>
+        <f>N44+1</f>
         <v>45285</v>
       </c>
       <c r="P44" s="12">
@@ -4476,78 +4511,78 @@
         <v>45286</v>
       </c>
       <c r="Q44" s="11">
-        <f t="shared" ref="Q44" si="280">P44+1</f>
+        <f>P44+1</f>
         <v>45287</v>
       </c>
       <c r="R44" s="11">
-        <f t="shared" ref="R44" si="281">Q44+1</f>
+        <f>Q44+1</f>
         <v>45288</v>
       </c>
       <c r="S44" s="11">
-        <f t="shared" ref="S44" si="282">R44+1</f>
+        <f>R44+1</f>
         <v>45289</v>
       </c>
       <c r="T44" s="11">
-        <f t="shared" ref="T44" si="283">S44+1</f>
+        <f>S44+1</f>
         <v>45290</v>
       </c>
       <c r="U44" s="11">
-        <f t="shared" ref="U44" si="284">T44+1</f>
+        <f>T44+1</f>
         <v>45291</v>
       </c>
       <c r="V44" s="11">
-        <f t="shared" ref="V44" si="285">U44+1</f>
+        <f>U44+1</f>
         <v>45292</v>
       </c>
       <c r="W44" s="11">
-        <f t="shared" ref="W44" si="286">V44+1</f>
+        <f>V44+1</f>
         <v>45293</v>
       </c>
       <c r="X44" s="12">
-        <f t="shared" ref="X44" si="287">W44+1</f>
+        <f>W44+1</f>
         <v>45294</v>
       </c>
       <c r="Y44" s="12">
-        <f t="shared" ref="Y44" si="288">X44+1</f>
+        <f>X44+1</f>
         <v>45295</v>
       </c>
       <c r="Z44" s="12">
-        <f t="shared" ref="Z44" si="289">Y44+1</f>
+        <f>Y44+1</f>
         <v>45296</v>
       </c>
       <c r="AA44" s="12">
-        <f t="shared" ref="AA44" si="290">Z44+1</f>
+        <f>Z44+1</f>
         <v>45297</v>
       </c>
       <c r="AB44" s="12">
-        <f t="shared" ref="AB44" si="291">AA44+1</f>
+        <f>AA44+1</f>
         <v>45298</v>
       </c>
       <c r="AC44" s="12">
-        <f t="shared" ref="AC44" si="292">AB44+1</f>
+        <f>AB44+1</f>
         <v>45299</v>
       </c>
       <c r="AD44" s="12">
-        <f t="shared" ref="AD44" si="293">AC44+1</f>
+        <f>AC44+1</f>
         <v>45300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" ht="30" customHeight="1">
+    <row r="45" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B45" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
       <c r="L45" s="14"/>
       <c r="M45" s="15"/>
       <c r="N45" s="14"/>
@@ -4568,7 +4603,7 @@
       <c r="AC45" s="15"/>
       <c r="AD45" s="14"/>
     </row>
-    <row r="46" spans="2:30" ht="30" customHeight="1">
+    <row r="46" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B46" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -4602,7 +4637,7 @@
       <c r="AC46" s="15"/>
       <c r="AD46" s="14"/>
     </row>
-    <row r="47" spans="2:30" ht="30" customHeight="1">
+    <row r="47" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B47" s="13" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -4637,96 +4672,86 @@
       <c r="AD47" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="28">
     <mergeCell ref="B1:AD1"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="I14:W14"/>
     <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:AD8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:AD14"/>
     <mergeCell ref="I15:O15"/>
     <mergeCell ref="P15:V15"/>
-    <mergeCell ref="W15:AC15"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C33:AD33"/>
+    <mergeCell ref="W15:AD15"/>
+    <mergeCell ref="L21:AD21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="L22:R22"/>
+    <mergeCell ref="S22:Y22"/>
+    <mergeCell ref="Z22:AD22"/>
     <mergeCell ref="C27:AD27"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="X14:AC14"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="Q34:AD34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:M28"/>
+    <mergeCell ref="C28:M28"/>
     <mergeCell ref="N28:T28"/>
     <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="C33:AD33"/>
+    <mergeCell ref="C34:P34"/>
+    <mergeCell ref="Q34:AD34"/>
+    <mergeCell ref="C39:AD39"/>
     <mergeCell ref="C40:I40"/>
     <mergeCell ref="J40:R40"/>
     <mergeCell ref="S40:Y40"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="C39:AD39"/>
+    <mergeCell ref="C45:K45"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AD13">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AD20">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:AD26">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:AD32">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:AD38">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:AD44">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 워크시트에서 프로젝트 시간 표시 막대를 만듭니다. C2 셀에서 시작 날짜를 입력하고 기타 세부 정보를 B4 셀에서 시작합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 시작 날짜를 입력합니다." sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 시작 날짜를 입력합니다." sqref="C2:E2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 이 워크시트의 제목이 표시됩니다." sqref="B1:AD1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="요일이 이 행에서 자동으로 업데이트됩니다. 아래에 있는 셀에 담당자 이름을 입력하고 이름 오른쪽에 있는 행에 작업을 입력합니다." sqref="B6" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="월이 이 행에서 자동으로 업데이트됩니다." sqref="B4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="평일이 이 행에서 자동으로 업데이트됩니다." sqref="B5" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 워크시트에서 프로젝트 시간 표시 막대를 만듭니다. C2 셀에서 시작 날짜를 입력하고 기타 세부 정보를 B4 셀에서 시작합니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 시작 날짜를 입력합니다." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 시작 날짜를 입력합니다." sqref="C2:E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 이 워크시트의 제목이 표시됩니다." sqref="B1:AD1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="요일이 이 행에서 자동으로 업데이트됩니다. 아래에 있는 셀에 담당자 이름을 입력하고 이름 오른쪽에 있는 행에 작업을 입력합니다." sqref="B6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="월이 이 행에서 자동으로 업데이트됩니다." sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="평일이 이 행에서 자동으로 업데이트됩니다." sqref="B5"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="J4 Q4 X4" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Temp/LGA/졸작 계획서_이규아.xlsx
+++ b/Temp/LGA/졸작 계획서_이규아.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maru3\OneDrive\문서\GitHub\ProjectJJ\Temp\LGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F76518-4EE8-4E54-B165-5F75D48FDAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FF1F15-7C94-4758-925B-F2B34B968011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
@@ -31,69 +31,70 @@
     <t>졸업작품 제안서 발표 계획서</t>
   </si>
   <si>
-    <t>하계 기획자 특훈에서 졸업 작품 게임 기획서 제작</t>
+    <t>2학기 수업 참여 및 종합설계기획 수강</t>
   </si>
   <si>
-    <t>방학 중 수업 준비 및 개인 독학 환경 구축</t>
+    <t>2학기 수업 참여 및 종합설계기획 수강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>책 '언리얼 엔진 5 블루프린트 비주얼 스크립팅 3/e' 참고하여 언리얼 엔진 실습</t>
+    <t>졸작 프로토타입 서버 스펙, 프레임워크 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">UDP, TCP 통신 프로토콜 프로그래밍 실습  </t>
+    <t>복습 겸 12월 동안 부족한 내용 마무리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>책 '게임 프로그래밍 패턴' 복습</t>
+    <t xml:space="preserve">졸업 작품 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디자인 패턴 실습해보기(관련 책 혹은 강의)</t>
+    <t xml:space="preserve"> 2학기 수업 참여 및 종합설계기획 수강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복습 겸 한 달간 부족한 내용 마무리</t>
+    <t>프로토타입 클라이언트 - 서버 연동 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복습 겸 8월 동안 부족한 내용 마무리</t>
+    <t>Boost Asio 서버 프레임워크 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복습 겸 9월 동안 부족한 내용 마무리</t>
+    <t>졸업 작품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언리얼 클라이언트 서버 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 서버 외부 강의 수강, IOCP 서버 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 서버 외부 강의 수강, 언리얼 클라이언트 자체 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>복습 겸 10월 동안 부족한 내용 마무리</t>
-  </si>
-  <si>
-    <t>2학기 수업 참여 및 종합설계기획 수강</t>
-  </si>
-  <si>
-    <t>졸작 프로토타입 서버 스펙, 프레임워크 설계</t>
-  </si>
-  <si>
-    <t>복습 겸 11월 동안 부족한 내용 마무리</t>
-  </si>
-  <si>
-    <t>서버 외부 강의 수강 및 프레임워크 설계</t>
-  </si>
-  <si>
-    <t>언리얼 C++프로그래밍 학습</t>
-  </si>
-  <si>
-    <t>언리얼 블루프린트 복습</t>
-  </si>
-  <si>
-    <t>서버 클라이언트 연동 실습</t>
-  </si>
-  <si>
-    <t>언리얼 클라이언트 서버 연동 연습</t>
-  </si>
-  <si>
-    <t>복습 겸 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클라이언트 - 서버 통신 학습</t>
+    <t>멀티코어 프로그래밍 - 멀티 쓰레드 학습, 알고리즘 학습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클라이언트 - 서버 통신, 에코 서버로 실습</t>
+    <t>멀티코어 프로그래밍 - 멀티 쓰레드 학습,  Non-Blocking 알고리즘 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boost asio 서버 언리얼 클라이언트 연동 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티코어 프로그래밍 - 멀티 쓰레드 학습, 멀티쓰레드 Lock, Atomic, Volatile 기초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +272,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,12 +299,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -538,7 +533,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4F4AA"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -691,10 +698,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyProtection="0">
@@ -730,34 +737,34 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,7 +773,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,10 +785,10 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,10 +797,10 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,10 +809,10 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,10 +821,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,10 +833,10 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,9 +845,6 @@
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -891,23 +898,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -915,40 +922,22 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,21 +997,7 @@
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="하이퍼링크" xfId="52" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -1327,10 +1302,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD47"/>
+  <dimension ref="B1:AD41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1381,8 +1356,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="22">
-        <f>DATEVALUE("2023/06/28")</f>
-        <v>45105</v>
+        <f>DATEVALUE("2023/09/01")</f>
+        <v>45170</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -1390,12 +1365,12 @@
     <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
     <row r="4" spans="2:30" ht="18.75" customHeight="1">
       <c r="B4" s="12" t="str">
-        <f>TEXT("내용입력","aaa")</f>
+        <f>TEXT("내용입력",B1)</f>
         <v>내용입력</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>LOWER(TEXT(C6,"m월"))</f>
-        <v>6월</v>
+        <v>9월</v>
       </c>
       <c r="D4" s="6" t="str">
         <f t="shared" ref="D4:I4" si="0">IF(TEXT(D6,"m월")=TEXT(C6,"m월"),"",LOWER(TEXT(D6,"m월")))</f>
@@ -1407,7 +1382,7 @@
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>7월</v>
+        <v/>
       </c>
       <c r="G4" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1423,7 +1398,7 @@
       </c>
       <c r="J4" s="7" t="str">
         <f>LOWER(TEXT(J6,"m월"))</f>
-        <v>7월</v>
+        <v>9월</v>
       </c>
       <c r="K4" s="7" t="str">
         <f t="shared" ref="K4:P4" si="1">IF(TEXT(K6,"m월")=TEXT(J6,"m월"),"",LOWER(TEXT(K6,"m월")))</f>
@@ -1451,7 +1426,7 @@
       </c>
       <c r="Q4" s="6" t="str">
         <f>LOWER(TEXT(Q6,"m월"))</f>
-        <v>7월</v>
+        <v>9월</v>
       </c>
       <c r="R4" s="6" t="str">
         <f t="shared" ref="R4:W4" si="2">IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</f>
@@ -1479,7 +1454,7 @@
       </c>
       <c r="X4" s="7" t="str">
         <f>LOWER(TEXT(X6,"m월"))</f>
-        <v>7월</v>
+        <v>9월</v>
       </c>
       <c r="Y4" s="7" t="str">
         <f t="shared" ref="Y4:AD4" si="3">IF(TEXT(Y6,"m월")=TEXT(X6,"m월"),"",LOWER(TEXT(Y6,"m월")))</f>
@@ -1513,115 +1488,115 @@
       </c>
       <c r="C5" s="8" t="str">
         <f t="shared" ref="C5:AD5" si="4">LOWER(TEXT(C6,"aaa"))</f>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="E5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="G5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="H5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="I5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="K5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="L5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="M5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="N5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="O5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="P5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="Q5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="R5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="S5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="T5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="U5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="V5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="W5" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="X5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="Y5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="Z5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="AA5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="AB5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="AC5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="AD5" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>화</v>
+        <v>목</v>
       </c>
     </row>
     <row r="6" spans="2:30" ht="18" customHeight="1" thickBot="1">
@@ -1631,215 +1606,217 @@
       </c>
       <c r="C6" s="10">
         <f>C2</f>
-        <v>45105</v>
+        <v>45170</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" ref="D6:AD6" si="5">C6+1</f>
-        <v>45106</v>
+        <v>45171</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="5"/>
-        <v>45107</v>
+        <v>45172</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="5"/>
-        <v>45108</v>
+        <v>45173</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="5"/>
-        <v>45109</v>
+        <v>45174</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="5"/>
-        <v>45110</v>
+        <v>45175</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" si="5"/>
-        <v>45111</v>
+        <v>45176</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="5"/>
-        <v>45112</v>
+        <v>45177</v>
       </c>
       <c r="K6" s="11">
         <f t="shared" si="5"/>
-        <v>45113</v>
+        <v>45178</v>
       </c>
       <c r="L6" s="11">
         <f t="shared" si="5"/>
-        <v>45114</v>
+        <v>45179</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="5"/>
-        <v>45115</v>
+        <v>45180</v>
       </c>
       <c r="N6" s="11">
         <f t="shared" si="5"/>
-        <v>45116</v>
+        <v>45181</v>
       </c>
       <c r="O6" s="11">
         <f t="shared" si="5"/>
-        <v>45117</v>
+        <v>45182</v>
       </c>
       <c r="P6" s="11">
         <f t="shared" si="5"/>
-        <v>45118</v>
+        <v>45183</v>
       </c>
       <c r="Q6" s="10">
         <f t="shared" si="5"/>
-        <v>45119</v>
+        <v>45184</v>
       </c>
       <c r="R6" s="10">
         <f t="shared" si="5"/>
-        <v>45120</v>
+        <v>45185</v>
       </c>
       <c r="S6" s="10">
         <f t="shared" si="5"/>
-        <v>45121</v>
+        <v>45186</v>
       </c>
       <c r="T6" s="10">
         <f t="shared" si="5"/>
-        <v>45122</v>
+        <v>45187</v>
       </c>
       <c r="U6" s="10">
         <f t="shared" si="5"/>
-        <v>45123</v>
+        <v>45188</v>
       </c>
       <c r="V6" s="10">
         <f t="shared" si="5"/>
-        <v>45124</v>
+        <v>45189</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="5"/>
-        <v>45125</v>
+        <v>45190</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="5"/>
-        <v>45126</v>
+        <v>45191</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="5"/>
-        <v>45127</v>
+        <v>45192</v>
       </c>
       <c r="Z6" s="11">
         <f t="shared" si="5"/>
-        <v>45128</v>
+        <v>45193</v>
       </c>
       <c r="AA6" s="11">
         <f t="shared" si="5"/>
-        <v>45129</v>
+        <v>45194</v>
       </c>
       <c r="AB6" s="11">
         <f t="shared" si="5"/>
-        <v>45130</v>
+        <v>45195</v>
       </c>
       <c r="AC6" s="11">
         <f t="shared" si="5"/>
-        <v>45131</v>
+        <v>45196</v>
       </c>
       <c r="AD6" s="11">
         <f t="shared" si="5"/>
-        <v>45132</v>
+        <v>45197</v>
       </c>
     </row>
     <row r="7" spans="2:30" ht="30" customHeight="1">
       <c r="B7" s="12"/>
-      <c r="C7" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
     </row>
     <row r="8" spans="2:30" ht="30" customHeight="1">
       <c r="B8" s="12"/>
-      <c r="C8" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
+      <c r="C8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
     </row>
     <row r="9" spans="2:30" ht="30" customHeight="1">
       <c r="B9" s="12"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="13"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
     </row>
     <row r="10" spans="2:30" ht="30" customHeight="1">
       <c r="B10" s="12" t="str">
@@ -1850,7 +1827,7 @@
       <c r="D10" s="13"/>
       <c r="E10" s="14"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
@@ -1882,7 +1859,7 @@
       </c>
       <c r="C11" s="5" t="str">
         <f>LOWER(TEXT(C13,"m월"))</f>
-        <v>7월</v>
+        <v>9월</v>
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" ref="D11:I11" si="6">IF(TEXT(D13,"m월")=TEXT(C13,"m월"),"",LOWER(TEXT(D13,"m월")))</f>
@@ -1890,7 +1867,7 @@
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>10월</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="6"/>
@@ -1906,11 +1883,11 @@
       </c>
       <c r="I11" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>8월</v>
+        <v/>
       </c>
       <c r="J11" s="7" t="str">
         <f>LOWER(TEXT(J13,"m월"))</f>
-        <v>8월</v>
+        <v>10월</v>
       </c>
       <c r="K11" s="7" t="str">
         <f t="shared" ref="K11:P11" si="7">IF(TEXT(K13,"m월")=TEXT(J13,"m월"),"",LOWER(TEXT(K13,"m월")))</f>
@@ -1938,7 +1915,7 @@
       </c>
       <c r="Q11" s="6" t="str">
         <f>LOWER(TEXT(Q13,"m월"))</f>
-        <v>8월</v>
+        <v>10월</v>
       </c>
       <c r="R11" s="6" t="str">
         <f t="shared" ref="R11:W11" si="8">IF(TEXT(R13,"m월")=TEXT(Q13,"m월"),"",LOWER(TEXT(R13,"m월")))</f>
@@ -1966,7 +1943,7 @@
       </c>
       <c r="X11" s="7" t="str">
         <f>LOWER(TEXT(X13,"m월"))</f>
-        <v>8월</v>
+        <v>10월</v>
       </c>
       <c r="Y11" s="7" t="str">
         <f t="shared" ref="Y11:AD11" si="9">IF(TEXT(Y13,"m월")=TEXT(X13,"m월"),"",LOWER(TEXT(Y13,"m월")))</f>
@@ -2000,337 +1977,335 @@
       </c>
       <c r="C12" s="8" t="str">
         <f t="shared" ref="C12:AD12" si="10">LOWER(TEXT(C13,"aaa"))</f>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="E12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="H12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="I12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="K12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="L12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="M12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="N12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="O12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="P12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="Q12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="R12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="S12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="T12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="U12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="V12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="W12" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="X12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="Y12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="Z12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="AA12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="AB12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="AC12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="AD12" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>화</v>
+        <v>목</v>
       </c>
     </row>
     <row r="13" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B13" s="12"/>
       <c r="C13" s="10">
         <f>AD6+1</f>
-        <v>45133</v>
+        <v>45198</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" ref="D13:AD13" si="11">C13+1</f>
-        <v>45134</v>
+        <v>45199</v>
       </c>
       <c r="E13" s="10">
         <f t="shared" si="11"/>
-        <v>45135</v>
+        <v>45200</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="11"/>
-        <v>45136</v>
+        <v>45201</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="11"/>
-        <v>45137</v>
+        <v>45202</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="11"/>
-        <v>45138</v>
+        <v>45203</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="11"/>
-        <v>45139</v>
+        <v>45204</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="11"/>
-        <v>45140</v>
+        <v>45205</v>
       </c>
       <c r="K13" s="11">
         <f t="shared" si="11"/>
-        <v>45141</v>
+        <v>45206</v>
       </c>
       <c r="L13" s="11">
         <f t="shared" si="11"/>
-        <v>45142</v>
+        <v>45207</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="11"/>
-        <v>45143</v>
+        <v>45208</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="11"/>
-        <v>45144</v>
+        <v>45209</v>
       </c>
       <c r="O13" s="11">
         <f t="shared" si="11"/>
-        <v>45145</v>
+        <v>45210</v>
       </c>
       <c r="P13" s="11">
         <f t="shared" si="11"/>
-        <v>45146</v>
+        <v>45211</v>
       </c>
       <c r="Q13" s="10">
         <f t="shared" si="11"/>
-        <v>45147</v>
+        <v>45212</v>
       </c>
       <c r="R13" s="10">
         <f t="shared" si="11"/>
-        <v>45148</v>
+        <v>45213</v>
       </c>
       <c r="S13" s="10">
         <f t="shared" si="11"/>
-        <v>45149</v>
+        <v>45214</v>
       </c>
       <c r="T13" s="10">
         <f t="shared" si="11"/>
-        <v>45150</v>
+        <v>45215</v>
       </c>
       <c r="U13" s="10">
         <f t="shared" si="11"/>
-        <v>45151</v>
+        <v>45216</v>
       </c>
       <c r="V13" s="10">
         <f t="shared" si="11"/>
-        <v>45152</v>
+        <v>45217</v>
       </c>
       <c r="W13" s="10">
         <f t="shared" si="11"/>
-        <v>45153</v>
+        <v>45218</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="11"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="11"/>
-        <v>45155</v>
+        <v>45220</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="11"/>
-        <v>45156</v>
+        <v>45221</v>
       </c>
       <c r="AA13" s="11">
         <f t="shared" si="11"/>
-        <v>45157</v>
+        <v>45222</v>
       </c>
       <c r="AB13" s="11">
         <f t="shared" si="11"/>
-        <v>45158</v>
+        <v>45223</v>
       </c>
       <c r="AC13" s="11">
         <f t="shared" si="11"/>
-        <v>45159</v>
+        <v>45224</v>
       </c>
       <c r="AD13" s="11">
         <f t="shared" si="11"/>
-        <v>45160</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="14" spans="2:30" ht="30" customHeight="1">
       <c r="B14" s="12"/>
-      <c r="C14" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
+      <c r="C14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
     </row>
     <row r="15" spans="2:30" ht="30" customHeight="1">
       <c r="B15" s="12"/>
-      <c r="C15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
     </row>
     <row r="16" spans="2:30" ht="30" customHeight="1">
       <c r="B16" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="13"/>
+      <c r="C16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
     </row>
     <row r="17" spans="2:30" ht="30" customHeight="1">
       <c r="B17" s="12" t="str">
@@ -2373,7 +2348,7 @@
       </c>
       <c r="C18" s="5" t="str">
         <f>LOWER(TEXT(C20,"m월"))</f>
-        <v>8월</v>
+        <v>10월</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" ref="D18:I18" si="12">IF(TEXT(D20,"m월")=TEXT(C20,"m월"),"",LOWER(TEXT(D20,"m월")))</f>
@@ -2393,7 +2368,7 @@
       </c>
       <c r="H18" s="6" t="str">
         <f t="shared" si="12"/>
-        <v/>
+        <v>11월</v>
       </c>
       <c r="I18" s="6" t="str">
         <f t="shared" si="12"/>
@@ -2401,7 +2376,7 @@
       </c>
       <c r="J18" s="7" t="str">
         <f>LOWER(TEXT(J20,"m월"))</f>
-        <v>8월</v>
+        <v>11월</v>
       </c>
       <c r="K18" s="7" t="str">
         <f t="shared" ref="K18:P18" si="13">IF(TEXT(K20,"m월")=TEXT(J20,"m월"),"",LOWER(TEXT(K20,"m월")))</f>
@@ -2409,7 +2384,7 @@
       </c>
       <c r="L18" s="7" t="str">
         <f>IF(TEXT(L20,"m월")=TEXT(K20,"m월"),"",LOWER(TEXT(L20,"m월")))</f>
-        <v>9월</v>
+        <v/>
       </c>
       <c r="M18" s="7" t="str">
         <f t="shared" si="13"/>
@@ -2429,7 +2404,7 @@
       </c>
       <c r="Q18" s="6" t="str">
         <f>LOWER(TEXT(Q20,"m월"))</f>
-        <v>9월</v>
+        <v>11월</v>
       </c>
       <c r="R18" s="6" t="str">
         <f t="shared" ref="R18:W18" si="14">IF(TEXT(R20,"m월")=TEXT(Q20,"m월"),"",LOWER(TEXT(R20,"m월")))</f>
@@ -2457,7 +2432,7 @@
       </c>
       <c r="X18" s="7" t="str">
         <f>LOWER(TEXT(X20,"m월"))</f>
-        <v>9월</v>
+        <v>11월</v>
       </c>
       <c r="Y18" s="7" t="str">
         <f t="shared" ref="Y18:AD18" si="15">IF(TEXT(Y20,"m월")=TEXT(X20,"m월"),"",LOWER(TEXT(Y20,"m월")))</f>
@@ -2488,340 +2463,338 @@
       <c r="B19" s="12"/>
       <c r="C19" s="8" t="str">
         <f t="shared" ref="C19:AD19" si="16">LOWER(TEXT(C20,"aaa"))</f>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="D19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="E19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="F19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="H19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="I19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="J19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="K19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="L19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="M19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="N19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="O19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="P19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="Q19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="R19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="S19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="T19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="U19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="V19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="W19" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="X19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="Y19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="Z19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="AA19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="AB19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="AC19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="AD19" s="9" t="str">
         <f t="shared" si="16"/>
-        <v>화</v>
+        <v>목</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="12"/>
       <c r="C20" s="10">
         <f>AD13+1</f>
-        <v>45161</v>
+        <v>45226</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" ref="D20:AD20" si="17">C20+1</f>
-        <v>45162</v>
+        <v>45227</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="17"/>
-        <v>45163</v>
+        <v>45228</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="17"/>
-        <v>45164</v>
+        <v>45229</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="17"/>
-        <v>45165</v>
+        <v>45230</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="17"/>
-        <v>45166</v>
+        <v>45231</v>
       </c>
       <c r="I20" s="10">
         <f t="shared" si="17"/>
-        <v>45167</v>
+        <v>45232</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="17"/>
-        <v>45168</v>
+        <v>45233</v>
       </c>
       <c r="K20" s="11">
         <f t="shared" si="17"/>
-        <v>45169</v>
+        <v>45234</v>
       </c>
       <c r="L20" s="11">
         <f>K20+1</f>
-        <v>45170</v>
+        <v>45235</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="17"/>
-        <v>45171</v>
+        <v>45236</v>
       </c>
       <c r="N20" s="11">
         <f t="shared" si="17"/>
-        <v>45172</v>
+        <v>45237</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="17"/>
-        <v>45173</v>
+        <v>45238</v>
       </c>
       <c r="P20" s="11">
         <f t="shared" si="17"/>
-        <v>45174</v>
+        <v>45239</v>
       </c>
       <c r="Q20" s="10">
         <f t="shared" si="17"/>
-        <v>45175</v>
+        <v>45240</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" si="17"/>
-        <v>45176</v>
+        <v>45241</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="17"/>
-        <v>45177</v>
+        <v>45242</v>
       </c>
       <c r="T20" s="10">
         <f t="shared" si="17"/>
-        <v>45178</v>
+        <v>45243</v>
       </c>
       <c r="U20" s="10">
         <f t="shared" si="17"/>
-        <v>45179</v>
+        <v>45244</v>
       </c>
       <c r="V20" s="10">
         <f t="shared" si="17"/>
-        <v>45180</v>
+        <v>45245</v>
       </c>
       <c r="W20" s="10">
         <f t="shared" si="17"/>
-        <v>45181</v>
+        <v>45246</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="17"/>
-        <v>45182</v>
+        <v>45247</v>
       </c>
       <c r="Y20" s="11">
         <f t="shared" si="17"/>
-        <v>45183</v>
+        <v>45248</v>
       </c>
       <c r="Z20" s="11">
         <f t="shared" si="17"/>
-        <v>45184</v>
+        <v>45249</v>
       </c>
       <c r="AA20" s="11">
         <f t="shared" si="17"/>
-        <v>45185</v>
+        <v>45250</v>
       </c>
       <c r="AB20" s="11">
         <f t="shared" si="17"/>
-        <v>45186</v>
+        <v>45251</v>
       </c>
       <c r="AC20" s="11">
         <f t="shared" si="17"/>
-        <v>45187</v>
+        <v>45252</v>
       </c>
       <c r="AD20" s="11">
         <f t="shared" si="17"/>
-        <v>45188</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="30" customHeight="1">
       <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
+      <c r="C21" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
     </row>
     <row r="22" spans="2:30" ht="30" customHeight="1">
       <c r="B22" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="26" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
     </row>
     <row r="23" spans="2:30" ht="30" customHeight="1">
       <c r="B23" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="13"/>
+      <c r="C23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
     </row>
     <row r="24" spans="2:30" ht="30" customHeight="1">
       <c r="B24" s="12" t="str">
@@ -2830,7 +2803,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f>LOWER(TEXT(C26,"m월"))</f>
-        <v>9월</v>
+        <v>11월</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" ref="D24:I24" si="18">IF(TEXT(D26,"m월")=TEXT(C26,"m월"),"",LOWER(TEXT(D26,"m월")))</f>
@@ -2858,7 +2831,7 @@
       </c>
       <c r="J24" s="7" t="str">
         <f>LOWER(TEXT(J26,"m월"))</f>
-        <v>9월</v>
+        <v>12월</v>
       </c>
       <c r="K24" s="7" t="str">
         <f t="shared" ref="K24:P24" si="19">IF(TEXT(K26,"m월")=TEXT(J26,"m월"),"",LOWER(TEXT(K26,"m월")))</f>
@@ -2874,7 +2847,7 @@
       </c>
       <c r="N24" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>10월</v>
+        <v/>
       </c>
       <c r="O24" s="7" t="str">
         <f t="shared" si="19"/>
@@ -2886,7 +2859,7 @@
       </c>
       <c r="Q24" s="6" t="str">
         <f>LOWER(TEXT(Q26,"m월"))</f>
-        <v>10월</v>
+        <v>12월</v>
       </c>
       <c r="R24" s="6" t="str">
         <f t="shared" ref="R24:W24" si="20">IF(TEXT(R26,"m월")=TEXT(Q26,"m월"),"",LOWER(TEXT(R26,"m월")))</f>
@@ -2914,7 +2887,7 @@
       </c>
       <c r="X24" s="7" t="str">
         <f>LOWER(TEXT(X26,"m월"))</f>
-        <v>10월</v>
+        <v>12월</v>
       </c>
       <c r="Y24" s="7" t="str">
         <f t="shared" ref="Y24:AD24" si="21">IF(TEXT(Y26,"m월")=TEXT(X26,"m월"),"",LOWER(TEXT(Y26,"m월")))</f>
@@ -2945,285 +2918,285 @@
       <c r="B25" s="12"/>
       <c r="C25" s="8" t="str">
         <f t="shared" ref="C25:AD25" si="22">LOWER(TEXT(C26,"aaa"))</f>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="E25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="F25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="H25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="J25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="K25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="L25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="M25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="N25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="O25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="P25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="Q25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="R25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="S25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="T25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="U25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="W25" s="8" t="str">
         <f t="shared" si="22"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="X25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="Y25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="Z25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="AA25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="AB25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="AC25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="AD25" s="9" t="str">
         <f t="shared" si="22"/>
-        <v>화</v>
+        <v>목</v>
       </c>
     </row>
     <row r="26" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="12"/>
       <c r="C26" s="10">
         <f>AD20+1</f>
-        <v>45189</v>
+        <v>45254</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" ref="D26:AD26" si="23">C26+1</f>
-        <v>45190</v>
+        <v>45255</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="23"/>
-        <v>45191</v>
+        <v>45256</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="23"/>
-        <v>45192</v>
+        <v>45257</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="23"/>
-        <v>45193</v>
+        <v>45258</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="23"/>
-        <v>45194</v>
+        <v>45259</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="23"/>
-        <v>45195</v>
+        <v>45260</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="23"/>
-        <v>45196</v>
+        <v>45261</v>
       </c>
       <c r="K26" s="11">
         <f t="shared" si="23"/>
-        <v>45197</v>
+        <v>45262</v>
       </c>
       <c r="L26" s="11">
         <f t="shared" si="23"/>
-        <v>45198</v>
+        <v>45263</v>
       </c>
       <c r="M26" s="11">
         <f t="shared" si="23"/>
-        <v>45199</v>
+        <v>45264</v>
       </c>
       <c r="N26" s="11">
         <f t="shared" si="23"/>
-        <v>45200</v>
+        <v>45265</v>
       </c>
       <c r="O26" s="11">
         <f t="shared" si="23"/>
-        <v>45201</v>
+        <v>45266</v>
       </c>
       <c r="P26" s="11">
         <f t="shared" si="23"/>
-        <v>45202</v>
+        <v>45267</v>
       </c>
       <c r="Q26" s="10">
         <f t="shared" si="23"/>
-        <v>45203</v>
+        <v>45268</v>
       </c>
       <c r="R26" s="10">
         <f t="shared" si="23"/>
-        <v>45204</v>
+        <v>45269</v>
       </c>
       <c r="S26" s="10">
         <f t="shared" si="23"/>
-        <v>45205</v>
+        <v>45270</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="23"/>
-        <v>45206</v>
+        <v>45271</v>
       </c>
       <c r="U26" s="10">
         <f t="shared" si="23"/>
-        <v>45207</v>
+        <v>45272</v>
       </c>
       <c r="V26" s="10">
         <f t="shared" si="23"/>
-        <v>45208</v>
+        <v>45273</v>
       </c>
       <c r="W26" s="10">
         <f t="shared" si="23"/>
-        <v>45209</v>
+        <v>45274</v>
       </c>
       <c r="X26" s="11">
         <f t="shared" si="23"/>
-        <v>45210</v>
+        <v>45275</v>
       </c>
       <c r="Y26" s="11">
         <f t="shared" si="23"/>
-        <v>45211</v>
+        <v>45276</v>
       </c>
       <c r="Z26" s="11">
         <f t="shared" si="23"/>
-        <v>45212</v>
+        <v>45277</v>
       </c>
       <c r="AA26" s="11">
         <f t="shared" si="23"/>
-        <v>45213</v>
+        <v>45278</v>
       </c>
       <c r="AB26" s="11">
         <f t="shared" si="23"/>
-        <v>45214</v>
+        <v>45279</v>
       </c>
       <c r="AC26" s="11">
         <f t="shared" si="23"/>
-        <v>45215</v>
+        <v>45280</v>
       </c>
       <c r="AD26" s="11">
         <f t="shared" si="23"/>
-        <v>45216</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="27" spans="2:30" ht="30" customHeight="1">
       <c r="B27" s="12"/>
-      <c r="C27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
+      <c r="C27" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
     </row>
     <row r="28" spans="2:30" ht="30" customHeight="1">
       <c r="B28" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
+      <c r="C28" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="25" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
@@ -3231,20 +3204,16 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
-      <c r="U28" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
     </row>
     <row r="29" spans="2:30" ht="30" customHeight="1">
       <c r="B29" s="12" t="str">
@@ -3287,7 +3256,7 @@
       </c>
       <c r="C30" s="5" t="str">
         <f>LOWER(TEXT(C32,"m월"))</f>
-        <v>10월</v>
+        <v>12월</v>
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" ref="D30:I30" si="24">IF(TEXT(D32,"m월")=TEXT(C32,"m월"),"",LOWER(TEXT(D32,"m월")))</f>
@@ -3315,7 +3284,7 @@
       </c>
       <c r="J30" s="7" t="str">
         <f>LOWER(TEXT(J32,"m월"))</f>
-        <v>10월</v>
+        <v>12월</v>
       </c>
       <c r="K30" s="7" t="str">
         <f t="shared" ref="K30:P30" si="25">IF(TEXT(K32,"m월")=TEXT(J32,"m월"),"",LOWER(TEXT(K32,"m월")))</f>
@@ -3327,7 +3296,7 @@
       </c>
       <c r="M30" s="7" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>1월</v>
       </c>
       <c r="N30" s="7" t="str">
         <f t="shared" si="25"/>
@@ -3343,7 +3312,7 @@
       </c>
       <c r="Q30" s="6" t="str">
         <f>LOWER(TEXT(Q32,"m월"))</f>
-        <v>11월</v>
+        <v>1월</v>
       </c>
       <c r="R30" s="6" t="str">
         <f t="shared" ref="R30:W30" si="26">IF(TEXT(R32,"m월")=TEXT(Q32,"m월"),"",LOWER(TEXT(R32,"m월")))</f>
@@ -3371,7 +3340,7 @@
       </c>
       <c r="X30" s="7" t="str">
         <f>LOWER(TEXT(X32,"m월"))</f>
-        <v>11월</v>
+        <v>1월</v>
       </c>
       <c r="Y30" s="7" t="str">
         <f t="shared" ref="Y30:AD30" si="27">IF(TEXT(Y32,"m월")=TEXT(X32,"m월"),"",LOWER(TEXT(Y32,"m월")))</f>
@@ -3401,296 +3370,298 @@
     <row r="31" spans="2:30" ht="30" customHeight="1">
       <c r="C31" s="8" t="str">
         <f t="shared" ref="C31:AD31" si="28">LOWER(TEXT(C32,"aaa"))</f>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="D31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="E31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="F31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="G31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="H31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="I31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="J31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="K31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="L31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="M31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="N31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="O31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="P31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="Q31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="R31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="S31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="T31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="U31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="V31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="W31" s="8" t="str">
         <f t="shared" si="28"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="X31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="Y31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="Z31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="AA31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="AB31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="AC31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="AD31" s="9" t="str">
         <f t="shared" si="28"/>
-        <v>화</v>
+        <v>목</v>
       </c>
     </row>
     <row r="32" spans="2:30" ht="30" customHeight="1" thickBot="1">
       <c r="C32" s="10">
         <f>AD26+1</f>
-        <v>45217</v>
+        <v>45282</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" ref="D32:AD32" si="29">C32+1</f>
-        <v>45218</v>
+        <v>45283</v>
       </c>
       <c r="E32" s="10">
         <f t="shared" si="29"/>
-        <v>45219</v>
+        <v>45284</v>
       </c>
       <c r="F32" s="10">
         <f t="shared" si="29"/>
-        <v>45220</v>
+        <v>45285</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="29"/>
-        <v>45221</v>
+        <v>45286</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="29"/>
-        <v>45222</v>
+        <v>45287</v>
       </c>
       <c r="I32" s="10">
         <f t="shared" si="29"/>
-        <v>45223</v>
+        <v>45288</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="29"/>
-        <v>45224</v>
+        <v>45289</v>
       </c>
       <c r="K32" s="11">
         <f t="shared" si="29"/>
-        <v>45225</v>
+        <v>45290</v>
       </c>
       <c r="L32" s="11">
         <f t="shared" si="29"/>
-        <v>45226</v>
+        <v>45291</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="29"/>
-        <v>45227</v>
+        <v>45292</v>
       </c>
       <c r="N32" s="11">
         <f t="shared" si="29"/>
-        <v>45228</v>
+        <v>45293</v>
       </c>
       <c r="O32" s="11">
         <f t="shared" si="29"/>
-        <v>45229</v>
+        <v>45294</v>
       </c>
       <c r="P32" s="11">
         <f t="shared" si="29"/>
-        <v>45230</v>
+        <v>45295</v>
       </c>
       <c r="Q32" s="10">
         <f t="shared" si="29"/>
-        <v>45231</v>
+        <v>45296</v>
       </c>
       <c r="R32" s="10">
         <f t="shared" si="29"/>
-        <v>45232</v>
+        <v>45297</v>
       </c>
       <c r="S32" s="10">
         <f t="shared" si="29"/>
-        <v>45233</v>
+        <v>45298</v>
       </c>
       <c r="T32" s="10">
         <f t="shared" si="29"/>
-        <v>45234</v>
+        <v>45299</v>
       </c>
       <c r="U32" s="10">
         <f t="shared" si="29"/>
-        <v>45235</v>
+        <v>45300</v>
       </c>
       <c r="V32" s="10">
         <f t="shared" si="29"/>
-        <v>45236</v>
+        <v>45301</v>
       </c>
       <c r="W32" s="10">
         <f t="shared" si="29"/>
-        <v>45237</v>
+        <v>45302</v>
       </c>
       <c r="X32" s="11">
         <f t="shared" si="29"/>
-        <v>45238</v>
+        <v>45303</v>
       </c>
       <c r="Y32" s="11">
         <f t="shared" si="29"/>
-        <v>45239</v>
+        <v>45304</v>
       </c>
       <c r="Z32" s="11">
         <f t="shared" si="29"/>
-        <v>45240</v>
+        <v>45305</v>
       </c>
       <c r="AA32" s="11">
         <f t="shared" si="29"/>
-        <v>45241</v>
+        <v>45306</v>
       </c>
       <c r="AB32" s="11">
         <f t="shared" si="29"/>
-        <v>45242</v>
+        <v>45307</v>
       </c>
       <c r="AC32" s="11">
         <f t="shared" si="29"/>
-        <v>45243</v>
+        <v>45308</v>
       </c>
       <c r="AD32" s="11">
         <f t="shared" si="29"/>
-        <v>45244</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="33" spans="3:30" ht="30" customHeight="1">
-      <c r="C33" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
+      <c r="C33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
     </row>
     <row r="34" spans="3:30" ht="30" customHeight="1">
-      <c r="C34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="25" t="s">
+      <c r="C34" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="25"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
-      <c r="AD34" s="25"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
     </row>
     <row r="35" spans="3:30" ht="30" customHeight="1">
       <c r="C35" s="14"/>
@@ -3725,7 +3696,7 @@
     <row r="36" spans="3:30" ht="30" customHeight="1">
       <c r="C36" s="5" t="str">
         <f>LOWER(TEXT(C38,"m월"))</f>
-        <v>11월</v>
+        <v>1월</v>
       </c>
       <c r="D36" s="6" t="str">
         <f t="shared" ref="D36:I36" si="30">IF(TEXT(D38,"m월")=TEXT(C38,"m월"),"",LOWER(TEXT(D38,"m월")))</f>
@@ -3753,7 +3724,7 @@
       </c>
       <c r="J36" s="7" t="str">
         <f>LOWER(TEXT(J38,"m월"))</f>
-        <v>11월</v>
+        <v>1월</v>
       </c>
       <c r="K36" s="7" t="str">
         <f t="shared" ref="K36:P36" si="31">IF(TEXT(K38,"m월")=TEXT(J38,"m월"),"",LOWER(TEXT(K38,"m월")))</f>
@@ -3777,11 +3748,11 @@
       </c>
       <c r="P36" s="7" t="str">
         <f t="shared" si="31"/>
-        <v/>
+        <v>2월</v>
       </c>
       <c r="Q36" s="6" t="str">
         <f>LOWER(TEXT(Q38,"m월"))</f>
-        <v>11월</v>
+        <v>2월</v>
       </c>
       <c r="R36" s="6" t="str">
         <f t="shared" ref="R36:W36" si="32">IF(TEXT(R38,"m월")=TEXT(Q38,"m월"),"",LOWER(TEXT(R38,"m월")))</f>
@@ -3789,7 +3760,7 @@
       </c>
       <c r="S36" s="6" t="str">
         <f t="shared" si="32"/>
-        <v>12월</v>
+        <v/>
       </c>
       <c r="T36" s="6" t="str">
         <f t="shared" si="32"/>
@@ -3809,7 +3780,7 @@
       </c>
       <c r="X36" s="7" t="str">
         <f>LOWER(TEXT(X38,"m월"))</f>
-        <v>12월</v>
+        <v>2월</v>
       </c>
       <c r="Y36" s="7" t="str">
         <f t="shared" ref="Y36:AD36" si="33">IF(TEXT(Y38,"m월")=TEXT(X38,"m월"),"",LOWER(TEXT(Y38,"m월")))</f>
@@ -3839,298 +3810,294 @@
     <row r="37" spans="3:30" ht="30" customHeight="1">
       <c r="C37" s="8" t="str">
         <f t="shared" ref="C37:AD37" si="34">LOWER(TEXT(C38,"aaa"))</f>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="D37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="E37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="G37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="H37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="I37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="J37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="K37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="L37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="M37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="N37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="O37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="P37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="Q37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="R37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="S37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="T37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="U37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="V37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="W37" s="8" t="str">
         <f t="shared" si="34"/>
-        <v>화</v>
+        <v>목</v>
       </c>
       <c r="X37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>수</v>
+        <v>금</v>
       </c>
       <c r="Y37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>목</v>
+        <v>토</v>
       </c>
       <c r="Z37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>금</v>
+        <v>일</v>
       </c>
       <c r="AA37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>토</v>
+        <v>월</v>
       </c>
       <c r="AB37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>일</v>
+        <v>화</v>
       </c>
       <c r="AC37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>월</v>
+        <v>수</v>
       </c>
       <c r="AD37" s="9" t="str">
         <f t="shared" si="34"/>
-        <v>화</v>
+        <v>목</v>
       </c>
     </row>
     <row r="38" spans="3:30" ht="30" customHeight="1" thickBot="1">
       <c r="C38" s="10">
         <f>AD32+1</f>
-        <v>45245</v>
+        <v>45310</v>
       </c>
       <c r="D38" s="10">
         <f t="shared" ref="D38:AD38" si="35">C38+1</f>
-        <v>45246</v>
+        <v>45311</v>
       </c>
       <c r="E38" s="10">
         <f t="shared" si="35"/>
-        <v>45247</v>
+        <v>45312</v>
       </c>
       <c r="F38" s="10">
         <f t="shared" si="35"/>
-        <v>45248</v>
+        <v>45313</v>
       </c>
       <c r="G38" s="10">
         <f t="shared" si="35"/>
-        <v>45249</v>
+        <v>45314</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="35"/>
-        <v>45250</v>
+        <v>45315</v>
       </c>
       <c r="I38" s="10">
         <f t="shared" si="35"/>
-        <v>45251</v>
+        <v>45316</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="35"/>
-        <v>45252</v>
+        <v>45317</v>
       </c>
       <c r="K38" s="11">
         <f t="shared" si="35"/>
-        <v>45253</v>
+        <v>45318</v>
       </c>
       <c r="L38" s="11">
         <f t="shared" si="35"/>
-        <v>45254</v>
+        <v>45319</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="35"/>
-        <v>45255</v>
+        <v>45320</v>
       </c>
       <c r="N38" s="11">
         <f t="shared" si="35"/>
-        <v>45256</v>
+        <v>45321</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="35"/>
-        <v>45257</v>
+        <v>45322</v>
       </c>
       <c r="P38" s="11">
         <f t="shared" si="35"/>
-        <v>45258</v>
+        <v>45323</v>
       </c>
       <c r="Q38" s="10">
         <f t="shared" si="35"/>
-        <v>45259</v>
+        <v>45324</v>
       </c>
       <c r="R38" s="10">
         <f t="shared" si="35"/>
-        <v>45260</v>
+        <v>45325</v>
       </c>
       <c r="S38" s="10">
         <f t="shared" si="35"/>
-        <v>45261</v>
+        <v>45326</v>
       </c>
       <c r="T38" s="10">
         <f t="shared" si="35"/>
-        <v>45262</v>
+        <v>45327</v>
       </c>
       <c r="U38" s="10">
         <f t="shared" si="35"/>
-        <v>45263</v>
+        <v>45328</v>
       </c>
       <c r="V38" s="10">
         <f t="shared" si="35"/>
-        <v>45264</v>
+        <v>45329</v>
       </c>
       <c r="W38" s="10">
         <f t="shared" si="35"/>
-        <v>45265</v>
+        <v>45330</v>
       </c>
       <c r="X38" s="11">
         <f t="shared" si="35"/>
-        <v>45266</v>
+        <v>45331</v>
       </c>
       <c r="Y38" s="11">
         <f t="shared" si="35"/>
-        <v>45267</v>
+        <v>45332</v>
       </c>
       <c r="Z38" s="11">
         <f t="shared" si="35"/>
-        <v>45268</v>
+        <v>45333</v>
       </c>
       <c r="AA38" s="11">
         <f t="shared" si="35"/>
-        <v>45269</v>
+        <v>45334</v>
       </c>
       <c r="AB38" s="11">
         <f t="shared" si="35"/>
-        <v>45270</v>
+        <v>45335</v>
       </c>
       <c r="AC38" s="11">
         <f t="shared" si="35"/>
-        <v>45271</v>
+        <v>45336</v>
       </c>
       <c r="AD38" s="11">
         <f t="shared" si="35"/>
-        <v>45272</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="39" spans="3:30" ht="30" customHeight="1">
-      <c r="C39" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
+      <c r="C39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
     </row>
     <row r="40" spans="3:30" ht="30" customHeight="1">
-      <c r="C40" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="13"/>
+      <c r="C40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
     </row>
     <row r="41" spans="3:30" ht="30" customHeight="1">
       <c r="C41" s="14"/>
@@ -4162,504 +4129,60 @@
       <c r="AC41" s="14"/>
       <c r="AD41" s="13"/>
     </row>
-    <row r="42" spans="3:30" ht="30" customHeight="1">
-      <c r="C42" s="5" t="str">
-        <f>LOWER(TEXT(C44,"m월"))</f>
-        <v>12월</v>
-      </c>
-      <c r="D42" s="6" t="str">
-        <f t="shared" ref="D42:I42" si="36">IF(TEXT(D44,"m월")=TEXT(C44,"m월"),"",LOWER(TEXT(D44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="E42" s="6" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="F42" s="6" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="G42" s="6" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="H42" s="6" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="I42" s="6" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="J42" s="7" t="str">
-        <f>LOWER(TEXT(J44,"m월"))</f>
-        <v>12월</v>
-      </c>
-      <c r="K42" s="7" t="str">
-        <f t="shared" ref="K42:P42" si="37">IF(TEXT(K44,"m월")=TEXT(J44,"m월"),"",LOWER(TEXT(K44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="L42" s="7" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="M42" s="7" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="N42" s="7" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="O42" s="7" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="P42" s="7" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="Q42" s="6" t="str">
-        <f>LOWER(TEXT(Q44,"m월"))</f>
-        <v>12월</v>
-      </c>
-      <c r="R42" s="6" t="str">
-        <f t="shared" ref="R42:W42" si="38">IF(TEXT(R44,"m월")=TEXT(Q44,"m월"),"",LOWER(TEXT(R44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="S42" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="T42" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="U42" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="V42" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v>1월</v>
-      </c>
-      <c r="W42" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="X42" s="7" t="str">
-        <f>LOWER(TEXT(X44,"m월"))</f>
-        <v>1월</v>
-      </c>
-      <c r="Y42" s="7" t="str">
-        <f t="shared" ref="Y42:AD42" si="39">IF(TEXT(Y44,"m월")=TEXT(X44,"m월"),"",LOWER(TEXT(Y44,"m월")))</f>
-        <v/>
-      </c>
-      <c r="Z42" s="7" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="AA42" s="7" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="AB42" s="7" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="AC42" s="7" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="AD42" s="7" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="3:30" ht="30" customHeight="1">
-      <c r="C43" s="8" t="str">
-        <f t="shared" ref="C43:AD43" si="40">LOWER(TEXT(C44,"aaa"))</f>
-        <v>수</v>
-      </c>
-      <c r="D43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>목</v>
-      </c>
-      <c r="E43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>금</v>
-      </c>
-      <c r="F43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>토</v>
-      </c>
-      <c r="G43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>일</v>
-      </c>
-      <c r="H43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>월</v>
-      </c>
-      <c r="I43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>화</v>
-      </c>
-      <c r="J43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>수</v>
-      </c>
-      <c r="K43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>목</v>
-      </c>
-      <c r="L43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>금</v>
-      </c>
-      <c r="M43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>토</v>
-      </c>
-      <c r="N43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>일</v>
-      </c>
-      <c r="O43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>월</v>
-      </c>
-      <c r="P43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>화</v>
-      </c>
-      <c r="Q43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>수</v>
-      </c>
-      <c r="R43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>목</v>
-      </c>
-      <c r="S43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>금</v>
-      </c>
-      <c r="T43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>토</v>
-      </c>
-      <c r="U43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>일</v>
-      </c>
-      <c r="V43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>월</v>
-      </c>
-      <c r="W43" s="8" t="str">
-        <f t="shared" si="40"/>
-        <v>화</v>
-      </c>
-      <c r="X43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>수</v>
-      </c>
-      <c r="Y43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>목</v>
-      </c>
-      <c r="Z43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>금</v>
-      </c>
-      <c r="AA43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>토</v>
-      </c>
-      <c r="AB43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>일</v>
-      </c>
-      <c r="AC43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>월</v>
-      </c>
-      <c r="AD43" s="9" t="str">
-        <f t="shared" si="40"/>
-        <v>화</v>
-      </c>
-    </row>
-    <row r="44" spans="3:30" ht="30" customHeight="1" thickBot="1">
-      <c r="C44" s="10">
-        <f>AD38+1</f>
-        <v>45273</v>
-      </c>
-      <c r="D44" s="10">
-        <f t="shared" ref="D44:AD44" si="41">C44+1</f>
-        <v>45274</v>
-      </c>
-      <c r="E44" s="10">
-        <f t="shared" si="41"/>
-        <v>45275</v>
-      </c>
-      <c r="F44" s="10">
-        <f t="shared" si="41"/>
-        <v>45276</v>
-      </c>
-      <c r="G44" s="10">
-        <f t="shared" si="41"/>
-        <v>45277</v>
-      </c>
-      <c r="H44" s="10">
-        <f t="shared" si="41"/>
-        <v>45278</v>
-      </c>
-      <c r="I44" s="10">
-        <f t="shared" si="41"/>
-        <v>45279</v>
-      </c>
-      <c r="J44" s="11">
-        <f t="shared" si="41"/>
-        <v>45280</v>
-      </c>
-      <c r="K44" s="11">
-        <f t="shared" si="41"/>
-        <v>45281</v>
-      </c>
-      <c r="L44" s="11">
-        <f t="shared" si="41"/>
-        <v>45282</v>
-      </c>
-      <c r="M44" s="11">
-        <f t="shared" si="41"/>
-        <v>45283</v>
-      </c>
-      <c r="N44" s="11">
-        <f t="shared" si="41"/>
-        <v>45284</v>
-      </c>
-      <c r="O44" s="11">
-        <f t="shared" si="41"/>
-        <v>45285</v>
-      </c>
-      <c r="P44" s="11">
-        <f t="shared" si="41"/>
-        <v>45286</v>
-      </c>
-      <c r="Q44" s="10">
-        <f t="shared" si="41"/>
-        <v>45287</v>
-      </c>
-      <c r="R44" s="10">
-        <f t="shared" si="41"/>
-        <v>45288</v>
-      </c>
-      <c r="S44" s="10">
-        <f t="shared" si="41"/>
-        <v>45289</v>
-      </c>
-      <c r="T44" s="10">
-        <f t="shared" si="41"/>
-        <v>45290</v>
-      </c>
-      <c r="U44" s="10">
-        <f t="shared" si="41"/>
-        <v>45291</v>
-      </c>
-      <c r="V44" s="10">
-        <f t="shared" si="41"/>
-        <v>45292</v>
-      </c>
-      <c r="W44" s="10">
-        <f t="shared" si="41"/>
-        <v>45293</v>
-      </c>
-      <c r="X44" s="11">
-        <f t="shared" si="41"/>
-        <v>45294</v>
-      </c>
-      <c r="Y44" s="11">
-        <f t="shared" si="41"/>
-        <v>45295</v>
-      </c>
-      <c r="Z44" s="11">
-        <f t="shared" si="41"/>
-        <v>45296</v>
-      </c>
-      <c r="AA44" s="11">
-        <f t="shared" si="41"/>
-        <v>45297</v>
-      </c>
-      <c r="AB44" s="11">
-        <f t="shared" si="41"/>
-        <v>45298</v>
-      </c>
-      <c r="AC44" s="11">
-        <f t="shared" si="41"/>
-        <v>45299</v>
-      </c>
-      <c r="AD44" s="11">
-        <f t="shared" si="41"/>
-        <v>45300</v>
-      </c>
-    </row>
-    <row r="45" spans="3:30" ht="30" customHeight="1">
-      <c r="C45" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="13"/>
-    </row>
-    <row r="46" spans="3:30" ht="30" customHeight="1">
-      <c r="C46" s="14"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="13"/>
-    </row>
-    <row r="47" spans="3:30" ht="30" customHeight="1">
-      <c r="C47" s="14"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="14"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="14"/>
-      <c r="AD47" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="F8:AD8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C33:AD33"/>
-    <mergeCell ref="C34:P34"/>
-    <mergeCell ref="Q34:AD34"/>
+  <mergeCells count="23">
+    <mergeCell ref="N28:AD28"/>
+    <mergeCell ref="C23:AD23"/>
+    <mergeCell ref="S22:AD22"/>
+    <mergeCell ref="B1:AD1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:AD7"/>
+    <mergeCell ref="C14:AD14"/>
+    <mergeCell ref="C21:AD21"/>
+    <mergeCell ref="C8:V8"/>
+    <mergeCell ref="W8:AD8"/>
+    <mergeCell ref="C9:AD9"/>
+    <mergeCell ref="C16:AD16"/>
+    <mergeCell ref="C40:AD40"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="M33:AD33"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="M34:AD34"/>
+    <mergeCell ref="I15:AD15"/>
+    <mergeCell ref="C22:R22"/>
     <mergeCell ref="C39:AD39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="J40:R40"/>
-    <mergeCell ref="S40:Y40"/>
     <mergeCell ref="C27:AD27"/>
     <mergeCell ref="C28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="L21:AD21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="L22:R22"/>
-    <mergeCell ref="S22:Y22"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:AD14"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="P15:V15"/>
-    <mergeCell ref="W15:AD15"/>
-    <mergeCell ref="B1:AD1"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AD13">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AD20">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:AD26">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:AD32">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:AD38">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>C$6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:AD44">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Temp/LGA/졸작 계획서_이규아.xlsx
+++ b/Temp/LGA/졸작 계획서_이규아.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="9.104.180.50690"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maru3\OneDrive\문서\GitHub\ProjectJJ\Temp\LGA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FF1F15-7C94-4758-925B-F2B34B968011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 시간 표시 막대" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'프로젝트 시간 표시 막대'!$4:$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"> 시작 날짜:</t>
   </si>
@@ -35,73 +29,86 @@
   </si>
   <si>
     <t>2학기 수업 참여 및 종합설계기획 수강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸작 프로토타입 서버 스펙, 프레임워크 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>복습 겸 12월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">졸업 작품 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 2학기 수업 참여 및 종합설계기획 수강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>프로토타입 클라이언트 - 서버 연동 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Boost Asio 서버 프레임워크 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>졸업 작품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>언리얼 클라이언트 서버 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게임 서버 외부 강의 수강, IOCP 서버 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게임 서버 외부 강의 수강, 언리얼 클라이언트 자체 연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>복습 겸 10월 동안 부족한 내용 마무리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>멀티코어 프로그래밍 - 멀티 쓰레드 학습, 알고리즘 학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>멀티코어 프로그래밍 - 멀티 쓰레드 학습,  Non-Blocking 알고리즘 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Boost asio 서버 언리얼 클라이언트 연동 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>멀티코어 프로그래밍 - 멀티 쓰레드 학습, 멀티쓰레드 Lock, Atomic, Volatile 기초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boost asio 서버 - 더미 클라이언트 연동 실습</t>
+  </si>
+  <si>
+    <t>Boost Asio 언리얼 서버 연동 실습</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>Boost Asio 언리얼 서버 연동 실습</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249980"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>Boost Asio 언리얼 서버 연동 실습</t>
+    </r>
+  </si>
+  <si>
+    <t>Boost asio 에코 서버 실습</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -110,208 +117,179 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="m&quot;월&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
+      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
+      <color theme="1" tint="0.249950"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1" tint="0.49995422223578601"/>
+      <sz val="14.0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="1" tint="0.499950"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
+      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="1" tint="0.249950"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="1" tint="0.049990"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <sz val="12.0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="1" tint="0.049990"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF006100"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF9C0006"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="31"/>
-      <color theme="9" tint="-0.24994659260841701"/>
+      <sz val="31.0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="9" tint="-0.249950"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
+      <sz val="18.0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="1" tint="0.049990"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="0"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="0"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FFFF0000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FFFA7D00"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF3F3F76"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FF9C5700"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color rgb="FFFA7D00"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="10"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
       <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Malgun Gothic"/>
+      <color theme="1" tint="0.249980"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.049990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.150000"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.249980"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
+        <fgColor theme="5" tint="0.599960"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.149970"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.249950"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -365,19 +343,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799950"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885"/>
+        <fgColor theme="4" tint="0.599960"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -389,19 +367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.799950"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
+        <fgColor theme="5" tint="0.599960"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -413,19 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
+        <fgColor theme="6" tint="0.799950"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59996337778862885"/>
+        <fgColor theme="6" tint="0.599960"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -437,19 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799950"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59996337778862885"/>
+        <fgColor theme="7" tint="0.599960"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -461,19 +439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="8" tint="0.799950"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
+        <fgColor theme="8" tint="0.599960"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -485,37 +463,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799950"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+        <fgColor theme="9" tint="0.599960"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399980"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
+        <fgColor theme="8" tint="0.599960"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799950"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799950"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -533,7 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599990"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -545,7 +523,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF36B700"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7DCD00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -556,27 +552,24 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="1" tint="0.49995422223578601"/>
+        <color theme="1" tint="0.499950"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149970"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149970"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -585,16 +578,14 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -609,7 +600,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -624,7 +614,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -633,7 +622,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -648,7 +636,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -663,7 +650,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -674,7 +660,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -683,29 +668,28 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.149970"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="right" vertical="center" indent="1" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
@@ -720,152 +704,152 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1">
@@ -892,28 +876,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="5" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -922,22 +906,40 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="49" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,11 +971,9 @@
     <cellStyle name="경고문" xfId="24" builtinId="11" customBuiltin="1"/>
     <cellStyle name="계산" xfId="21" builtinId="22" customBuiltin="1"/>
     <cellStyle name="나쁨" xfId="17" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="날짜" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="메모" xfId="25" builtinId="10" customBuiltin="1"/>
     <cellStyle name="백분율" xfId="15" builtinId="5" customBuiltin="1"/>
     <cellStyle name="보통" xfId="18" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="상태" xfId="10" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="설명 텍스트" xfId="26" builtinId="53" customBuiltin="1"/>
     <cellStyle name="셀 확인" xfId="23" builtinId="23" customBuiltin="1"/>
     <cellStyle name="쉼표" xfId="11" builtinId="3" customBuiltin="1"/>
@@ -981,8 +981,6 @@
     <cellStyle name="연결된 셀" xfId="22" builtinId="24" customBuiltin="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="요약" xfId="27" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="요일" xfId="8" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="월" xfId="9" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="입력" xfId="19" builtinId="20" customBuiltin="1"/>
     <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -993,18 +991,22 @@
     <cellStyle name="출력" xfId="20" builtinId="21" customBuiltin="1"/>
     <cellStyle name="통화" xfId="13" builtinId="4" customBuiltin="1"/>
     <cellStyle name="통화 [0]" xfId="14" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="평일" xfId="7" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="하이퍼링크" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="날짜" xfId="6"/>
+    <cellStyle name="상태" xfId="10"/>
+    <cellStyle name="요일" xfId="8"/>
+    <cellStyle name="월" xfId="9"/>
+    <cellStyle name="평일" xfId="7"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79995117038483843"/>
+          <bgColor theme="9" tint="0.799950"/>
         </patternFill>
       </fill>
       <border>
@@ -1014,11 +1016,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79995117038483843"/>
+          <bgColor theme="9" tint="0.799950"/>
         </patternFill>
       </fill>
       <border>
@@ -1028,11 +1030,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79995117038483843"/>
+          <bgColor theme="9" tint="0.799950"/>
         </patternFill>
       </fill>
       <border>
@@ -1042,11 +1044,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79995117038483843"/>
+          <bgColor theme="9" tint="0.799950"/>
         </patternFill>
       </fill>
       <border>
@@ -1056,11 +1058,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79995117038483843"/>
+          <bgColor theme="9" tint="0.799950"/>
         </patternFill>
       </fill>
       <border>
@@ -1070,11 +1072,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049990"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79995117038483843"/>
+          <bgColor theme="9" tint="0.799950"/>
         </patternFill>
       </fill>
       <border>
@@ -1083,15 +1085,6 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1297,28 +1290,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AD41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+    <sheetView topLeftCell="A26" showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="30.000000" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="3" customWidth="1"/>
-    <col min="18" max="30" width="5.625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="2.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="4" width="13.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="17" style="3" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="30" style="1" width="5.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="31" max="31" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="32" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="48.75" customHeight="1">
+    <row r="1" spans="2:30" ht="48.750000" customHeight="1">
       <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
@@ -1351,7 +1344,7 @@
       <c r="AC1" s="21"/>
       <c r="AD1" s="21"/>
     </row>
-    <row r="2" spans="2:30" ht="24.75" customHeight="1">
+    <row r="2" spans="2:30" ht="24.750000" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1362,8 +1355,8 @@
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="2:30" ht="12.75" customHeight="1"/>
-    <row r="4" spans="2:30" ht="18.75" customHeight="1">
+    <row r="3" ht="12.750000" customHeight="1"/>
+    <row r="4" spans="2:30" ht="18.750000" customHeight="1">
       <c r="B4" s="12" t="str">
         <f>TEXT("내용입력",B1)</f>
         <v>내용입력</v>
@@ -1373,27 +1366,27 @@
         <v>9월</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f t="shared" ref="D4:I4" si="0">IF(TEXT(D6,"m월")=TEXT(C6,"m월"),"",LOWER(TEXT(D6,"m월")))</f>
+        <f>IF(TEXT(D6,"m월")=TEXT(C6,"m월"),"",LOWER(TEXT(D6,"m월")))</f>
         <v/>
       </c>
       <c r="E4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(E6,"m월")=TEXT(D6,"m월"),"",LOWER(TEXT(E6,"m월")))</f>
         <v/>
       </c>
       <c r="F4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(F6,"m월")=TEXT(E6,"m월"),"",LOWER(TEXT(F6,"m월")))</f>
         <v/>
       </c>
       <c r="G4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(G6,"m월")=TEXT(F6,"m월"),"",LOWER(TEXT(G6,"m월")))</f>
         <v/>
       </c>
       <c r="H4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(H6,"m월")=TEXT(G6,"m월"),"",LOWER(TEXT(H6,"m월")))</f>
         <v/>
       </c>
       <c r="I4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(TEXT(I6,"m월")=TEXT(H6,"m월"),"",LOWER(TEXT(I6,"m월")))</f>
         <v/>
       </c>
       <c r="J4" s="7" t="str">
@@ -1401,27 +1394,27 @@
         <v>9월</v>
       </c>
       <c r="K4" s="7" t="str">
-        <f t="shared" ref="K4:P4" si="1">IF(TEXT(K6,"m월")=TEXT(J6,"m월"),"",LOWER(TEXT(K6,"m월")))</f>
+        <f>IF(TEXT(K6,"m월")=TEXT(J6,"m월"),"",LOWER(TEXT(K6,"m월")))</f>
         <v/>
       </c>
       <c r="L4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(L6,"m월")=TEXT(K6,"m월"),"",LOWER(TEXT(L6,"m월")))</f>
         <v/>
       </c>
       <c r="M4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(M6,"m월")=TEXT(L6,"m월"),"",LOWER(TEXT(M6,"m월")))</f>
         <v/>
       </c>
       <c r="N4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(N6,"m월")=TEXT(M6,"m월"),"",LOWER(TEXT(N6,"m월")))</f>
         <v/>
       </c>
       <c r="O4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(O6,"m월")=TEXT(N6,"m월"),"",LOWER(TEXT(O6,"m월")))</f>
         <v/>
       </c>
       <c r="P4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(TEXT(P6,"m월")=TEXT(O6,"m월"),"",LOWER(TEXT(P6,"m월")))</f>
         <v/>
       </c>
       <c r="Q4" s="6" t="str">
@@ -1429,27 +1422,27 @@
         <v>9월</v>
       </c>
       <c r="R4" s="6" t="str">
-        <f t="shared" ref="R4:W4" si="2">IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</f>
+        <f>IF(TEXT(R6,"m월")=TEXT(Q6,"m월"),"",LOWER(TEXT(R6,"m월")))</f>
         <v/>
       </c>
       <c r="S4" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(S6,"m월")=TEXT(R6,"m월"),"",LOWER(TEXT(S6,"m월")))</f>
         <v/>
       </c>
       <c r="T4" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(T6,"m월")=TEXT(S6,"m월"),"",LOWER(TEXT(T6,"m월")))</f>
         <v/>
       </c>
       <c r="U4" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(U6,"m월")=TEXT(T6,"m월"),"",LOWER(TEXT(U6,"m월")))</f>
         <v/>
       </c>
       <c r="V4" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(V6,"m월")=TEXT(U6,"m월"),"",LOWER(TEXT(V6,"m월")))</f>
         <v/>
       </c>
       <c r="W4" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(TEXT(W6,"m월")=TEXT(V6,"m월"),"",LOWER(TEXT(W6,"m월")))</f>
         <v/>
       </c>
       <c r="X4" s="7" t="str">
@@ -1457,149 +1450,149 @@
         <v>9월</v>
       </c>
       <c r="Y4" s="7" t="str">
-        <f t="shared" ref="Y4:AD4" si="3">IF(TEXT(Y6,"m월")=TEXT(X6,"m월"),"",LOWER(TEXT(Y6,"m월")))</f>
+        <f>IF(TEXT(Y6,"m월")=TEXT(X6,"m월"),"",LOWER(TEXT(Y6,"m월")))</f>
         <v/>
       </c>
       <c r="Z4" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(Z6,"m월")=TEXT(Y6,"m월"),"",LOWER(TEXT(Z6,"m월")))</f>
         <v/>
       </c>
       <c r="AA4" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(AA6,"m월")=TEXT(Z6,"m월"),"",LOWER(TEXT(AA6,"m월")))</f>
         <v/>
       </c>
       <c r="AB4" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(AB6,"m월")=TEXT(AA6,"m월"),"",LOWER(TEXT(AB6,"m월")))</f>
         <v/>
       </c>
       <c r="AC4" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(AC6,"m월")=TEXT(AB6,"m월"),"",LOWER(TEXT(AC6,"m월")))</f>
         <v/>
       </c>
       <c r="AD4" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(TEXT(AD6,"m월")=TEXT(AC6,"m월"),"",LOWER(TEXT(AD6,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="12" customHeight="1">
+    <row r="5" spans="2:30" ht="12.000000" customHeight="1">
       <c r="B5" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
       <c r="C5" s="8" t="str">
-        <f t="shared" ref="C5:AD5" si="4">LOWER(TEXT(C6,"aaa"))</f>
+        <f>LOWER(TEXT(C6,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="D5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(D6,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="E5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(E6,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="F5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(F6,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="G5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(G6,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="H5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(H6,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(I6,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(J6,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="K5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(K6,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="L5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(L6,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="M5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(M6,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="N5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(N6,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="O5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(O6,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="P5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(P6,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Q5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(Q6,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="R5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(R6,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="S5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(S6,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="T5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(T6,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="U5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(U6,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="V5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(V6,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="W5" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(W6,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="X5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(X6,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="Y5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(Y6,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="Z5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(Z6,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AA5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(AA6,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AB5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(AB6,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="AC5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(AC6,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="AD5" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f>LOWER(TEXT(AD6,"aaa"))</f>
         <v>목</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:30" ht="18.000000" customHeight="1">
       <c r="B6" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -1609,115 +1602,115 @@
         <v>45170</v>
       </c>
       <c r="D6" s="10">
-        <f t="shared" ref="D6:AD6" si="5">C6+1</f>
+        <f>C6+1</f>
         <v>45171</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" si="5"/>
+        <f>D6+1</f>
         <v>45172</v>
       </c>
       <c r="F6" s="10">
-        <f t="shared" si="5"/>
+        <f>E6+1</f>
         <v>45173</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="5"/>
+        <f>F6+1</f>
         <v>45174</v>
       </c>
       <c r="H6" s="10">
-        <f t="shared" si="5"/>
+        <f>G6+1</f>
         <v>45175</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" si="5"/>
+        <f>H6+1</f>
         <v>45176</v>
       </c>
       <c r="J6" s="11">
-        <f t="shared" si="5"/>
+        <f>I6+1</f>
         <v>45177</v>
       </c>
       <c r="K6" s="11">
-        <f t="shared" si="5"/>
+        <f>J6+1</f>
         <v>45178</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" si="5"/>
+        <f>K6+1</f>
         <v>45179</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="5"/>
+        <f>L6+1</f>
         <v>45180</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="5"/>
+        <f>M6+1</f>
         <v>45181</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" si="5"/>
+        <f>N6+1</f>
         <v>45182</v>
       </c>
       <c r="P6" s="11">
-        <f t="shared" si="5"/>
+        <f>O6+1</f>
         <v>45183</v>
       </c>
       <c r="Q6" s="10">
-        <f t="shared" si="5"/>
+        <f>P6+1</f>
         <v>45184</v>
       </c>
       <c r="R6" s="10">
-        <f t="shared" si="5"/>
+        <f>Q6+1</f>
         <v>45185</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" si="5"/>
+        <f>R6+1</f>
         <v>45186</v>
       </c>
       <c r="T6" s="10">
-        <f t="shared" si="5"/>
+        <f>S6+1</f>
         <v>45187</v>
       </c>
       <c r="U6" s="10">
-        <f t="shared" si="5"/>
+        <f>T6+1</f>
         <v>45188</v>
       </c>
       <c r="V6" s="10">
-        <f t="shared" si="5"/>
+        <f>U6+1</f>
         <v>45189</v>
       </c>
       <c r="W6" s="10">
-        <f t="shared" si="5"/>
+        <f>V6+1</f>
         <v>45190</v>
       </c>
       <c r="X6" s="11">
-        <f t="shared" si="5"/>
+        <f>W6+1</f>
         <v>45191</v>
       </c>
       <c r="Y6" s="11">
-        <f t="shared" si="5"/>
+        <f>X6+1</f>
         <v>45192</v>
       </c>
       <c r="Z6" s="11">
-        <f t="shared" si="5"/>
+        <f>Y6+1</f>
         <v>45193</v>
       </c>
       <c r="AA6" s="11">
-        <f t="shared" si="5"/>
+        <f>Z6+1</f>
         <v>45194</v>
       </c>
       <c r="AB6" s="11">
-        <f t="shared" si="5"/>
+        <f>AA6+1</f>
         <v>45195</v>
       </c>
       <c r="AC6" s="11">
-        <f t="shared" si="5"/>
+        <f>AB6+1</f>
         <v>45196</v>
       </c>
       <c r="AD6" s="11">
-        <f t="shared" si="5"/>
+        <f>AC6+1</f>
         <v>45197</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="30" customHeight="1">
+    <row r="7" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="23" t="s">
         <v>7</v>
@@ -1750,7 +1743,7 @@
       <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
     </row>
-    <row r="8" spans="2:30" ht="30" customHeight="1">
+    <row r="8" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="17" t="s">
         <v>12</v>
@@ -1785,7 +1778,7 @@
       <c r="AC8" s="26"/>
       <c r="AD8" s="26"/>
     </row>
-    <row r="9" spans="2:30" ht="30" customHeight="1">
+    <row r="9" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B9" s="12"/>
       <c r="C9" s="28" t="s">
         <v>18</v>
@@ -1818,7 +1811,7 @@
       <c r="AC9" s="28"/>
       <c r="AD9" s="28"/>
     </row>
-    <row r="10" spans="2:30" ht="30" customHeight="1">
+    <row r="10" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B10" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -1852,7 +1845,7 @@
       <c r="AC10" s="14"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="2:30" ht="30" customHeight="1">
+    <row r="11" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B11" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -1862,27 +1855,27 @@
         <v>9월</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f t="shared" ref="D11:I11" si="6">IF(TEXT(D13,"m월")=TEXT(C13,"m월"),"",LOWER(TEXT(D13,"m월")))</f>
+        <f>IF(TEXT(D13,"m월")=TEXT(C13,"m월"),"",LOWER(TEXT(D13,"m월")))</f>
         <v/>
       </c>
       <c r="E11" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(TEXT(E13,"m월")=TEXT(D13,"m월"),"",LOWER(TEXT(E13,"m월")))</f>
         <v>10월</v>
       </c>
       <c r="F11" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(TEXT(F13,"m월")=TEXT(E13,"m월"),"",LOWER(TEXT(F13,"m월")))</f>
         <v/>
       </c>
       <c r="G11" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(TEXT(G13,"m월")=TEXT(F13,"m월"),"",LOWER(TEXT(G13,"m월")))</f>
         <v/>
       </c>
       <c r="H11" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(TEXT(H13,"m월")=TEXT(G13,"m월"),"",LOWER(TEXT(H13,"m월")))</f>
         <v/>
       </c>
       <c r="I11" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(TEXT(I13,"m월")=TEXT(H13,"m월"),"",LOWER(TEXT(I13,"m월")))</f>
         <v/>
       </c>
       <c r="J11" s="7" t="str">
@@ -1890,27 +1883,27 @@
         <v>10월</v>
       </c>
       <c r="K11" s="7" t="str">
-        <f t="shared" ref="K11:P11" si="7">IF(TEXT(K13,"m월")=TEXT(J13,"m월"),"",LOWER(TEXT(K13,"m월")))</f>
+        <f>IF(TEXT(K13,"m월")=TEXT(J13,"m월"),"",LOWER(TEXT(K13,"m월")))</f>
         <v/>
       </c>
       <c r="L11" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(TEXT(L13,"m월")=TEXT(K13,"m월"),"",LOWER(TEXT(L13,"m월")))</f>
         <v/>
       </c>
       <c r="M11" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(TEXT(M13,"m월")=TEXT(L13,"m월"),"",LOWER(TEXT(M13,"m월")))</f>
         <v/>
       </c>
       <c r="N11" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(TEXT(N13,"m월")=TEXT(M13,"m월"),"",LOWER(TEXT(N13,"m월")))</f>
         <v/>
       </c>
       <c r="O11" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(TEXT(O13,"m월")=TEXT(N13,"m월"),"",LOWER(TEXT(O13,"m월")))</f>
         <v/>
       </c>
       <c r="P11" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(TEXT(P13,"m월")=TEXT(O13,"m월"),"",LOWER(TEXT(P13,"m월")))</f>
         <v/>
       </c>
       <c r="Q11" s="6" t="str">
@@ -1918,27 +1911,27 @@
         <v>10월</v>
       </c>
       <c r="R11" s="6" t="str">
-        <f t="shared" ref="R11:W11" si="8">IF(TEXT(R13,"m월")=TEXT(Q13,"m월"),"",LOWER(TEXT(R13,"m월")))</f>
+        <f>IF(TEXT(R13,"m월")=TEXT(Q13,"m월"),"",LOWER(TEXT(R13,"m월")))</f>
         <v/>
       </c>
       <c r="S11" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(TEXT(S13,"m월")=TEXT(R13,"m월"),"",LOWER(TEXT(S13,"m월")))</f>
         <v/>
       </c>
       <c r="T11" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(TEXT(T13,"m월")=TEXT(S13,"m월"),"",LOWER(TEXT(T13,"m월")))</f>
         <v/>
       </c>
       <c r="U11" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(TEXT(U13,"m월")=TEXT(T13,"m월"),"",LOWER(TEXT(U13,"m월")))</f>
         <v/>
       </c>
       <c r="V11" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(TEXT(V13,"m월")=TEXT(U13,"m월"),"",LOWER(TEXT(V13,"m월")))</f>
         <v/>
       </c>
       <c r="W11" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(TEXT(W13,"m월")=TEXT(V13,"m월"),"",LOWER(TEXT(W13,"m월")))</f>
         <v/>
       </c>
       <c r="X11" s="7" t="str">
@@ -1946,264 +1939,264 @@
         <v>10월</v>
       </c>
       <c r="Y11" s="7" t="str">
-        <f t="shared" ref="Y11:AD11" si="9">IF(TEXT(Y13,"m월")=TEXT(X13,"m월"),"",LOWER(TEXT(Y13,"m월")))</f>
+        <f>IF(TEXT(Y13,"m월")=TEXT(X13,"m월"),"",LOWER(TEXT(Y13,"m월")))</f>
         <v/>
       </c>
       <c r="Z11" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(TEXT(Z13,"m월")=TEXT(Y13,"m월"),"",LOWER(TEXT(Z13,"m월")))</f>
         <v/>
       </c>
       <c r="AA11" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(TEXT(AA13,"m월")=TEXT(Z13,"m월"),"",LOWER(TEXT(AA13,"m월")))</f>
         <v/>
       </c>
       <c r="AB11" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(TEXT(AB13,"m월")=TEXT(AA13,"m월"),"",LOWER(TEXT(AB13,"m월")))</f>
         <v/>
       </c>
       <c r="AC11" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(TEXT(AC13,"m월")=TEXT(AB13,"m월"),"",LOWER(TEXT(AC13,"m월")))</f>
         <v/>
       </c>
       <c r="AD11" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(TEXT(AD13,"m월")=TEXT(AC13,"m월"),"",LOWER(TEXT(AD13,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:30" ht="30" customHeight="1">
+    <row r="12" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B12" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
       <c r="C12" s="8" t="str">
-        <f t="shared" ref="C12:AD12" si="10">LOWER(TEXT(C13,"aaa"))</f>
+        <f>LOWER(TEXT(C13,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(D13,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(E13,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="F12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(F13,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="G12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(G13,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="H12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(H13,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(I13,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="J12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(J13,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="K12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(K13,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="L12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(L13,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="M12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(M13,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="N12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(N13,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="O12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(O13,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="P12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(P13,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Q12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(Q13,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="R12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(R13,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="S12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(S13,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="T12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(T13,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="U12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(U13,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="V12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(V13,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="W12" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(W13,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="X12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(X13,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="Y12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(Y13,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="Z12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(Z13,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AA12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(AA13,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AB12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(AB13,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="AC12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(AC13,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="AD12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(TEXT(AD13,"aaa"))</f>
         <v>목</v>
       </c>
     </row>
-    <row r="13" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="13" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B13" s="12"/>
       <c r="C13" s="10">
         <f>AD6+1</f>
         <v>45198</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" ref="D13:AD13" si="11">C13+1</f>
+        <f>C13+1</f>
         <v>45199</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="11"/>
+        <f>D13+1</f>
         <v>45200</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="11"/>
+        <f>E13+1</f>
         <v>45201</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="11"/>
+        <f>F13+1</f>
         <v>45202</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="11"/>
+        <f>G13+1</f>
         <v>45203</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="11"/>
+        <f>H13+1</f>
         <v>45204</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="11"/>
+        <f>I13+1</f>
         <v>45205</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="11"/>
+        <f>J13+1</f>
         <v>45206</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="11"/>
+        <f>K13+1</f>
         <v>45207</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" si="11"/>
+        <f>L13+1</f>
         <v>45208</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="11"/>
+        <f>M13+1</f>
         <v>45209</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="11"/>
+        <f>N13+1</f>
         <v>45210</v>
       </c>
       <c r="P13" s="11">
-        <f t="shared" si="11"/>
+        <f>O13+1</f>
         <v>45211</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="11"/>
+        <f>P13+1</f>
         <v>45212</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" si="11"/>
+        <f>Q13+1</f>
         <v>45213</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="11"/>
+        <f>R13+1</f>
         <v>45214</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="11"/>
+        <f>S13+1</f>
         <v>45215</v>
       </c>
       <c r="U13" s="10">
-        <f t="shared" si="11"/>
+        <f>T13+1</f>
         <v>45216</v>
       </c>
       <c r="V13" s="10">
-        <f t="shared" si="11"/>
+        <f>U13+1</f>
         <v>45217</v>
       </c>
       <c r="W13" s="10">
-        <f t="shared" si="11"/>
+        <f>V13+1</f>
         <v>45218</v>
       </c>
       <c r="X13" s="11">
-        <f t="shared" si="11"/>
+        <f>W13+1</f>
         <v>45219</v>
       </c>
       <c r="Y13" s="11">
-        <f t="shared" si="11"/>
+        <f>X13+1</f>
         <v>45220</v>
       </c>
       <c r="Z13" s="11">
-        <f t="shared" si="11"/>
+        <f>Y13+1</f>
         <v>45221</v>
       </c>
       <c r="AA13" s="11">
-        <f t="shared" si="11"/>
+        <f>Z13+1</f>
         <v>45222</v>
       </c>
       <c r="AB13" s="11">
-        <f t="shared" si="11"/>
+        <f>AA13+1</f>
         <v>45223</v>
       </c>
       <c r="AC13" s="11">
-        <f t="shared" si="11"/>
+        <f>AB13+1</f>
         <v>45224</v>
       </c>
       <c r="AD13" s="11">
-        <f t="shared" si="11"/>
+        <f>AC13+1</f>
         <v>45225</v>
       </c>
     </row>
-    <row r="14" spans="2:30" ht="30" customHeight="1">
+    <row r="14" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B14" s="12"/>
       <c r="C14" s="24" t="s">
         <v>3</v>
@@ -2236,7 +2229,7 @@
       <c r="AC14" s="24"/>
       <c r="AD14" s="24"/>
     </row>
-    <row r="15" spans="2:30" ht="30" customHeight="1">
+    <row r="15" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="18" t="s">
         <v>14</v>
@@ -2271,7 +2264,7 @@
       <c r="AC15" s="20"/>
       <c r="AD15" s="20"/>
     </row>
-    <row r="16" spans="2:30" ht="30" customHeight="1">
+    <row r="16" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B16" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2307,7 +2300,7 @@
       <c r="AC16" s="27"/>
       <c r="AD16" s="27"/>
     </row>
-    <row r="17" spans="2:30" ht="30" customHeight="1">
+    <row r="17" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B17" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2333,15 +2326,13 @@
       <c r="U17" s="14"/>
       <c r="V17" s="13"/>
       <c r="W17" s="14"/>
-      <c r="X17" s="13"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="14"/>
-      <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="2:30" ht="30" customHeight="1">
+    <row r="18" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B18" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2351,27 +2342,27 @@
         <v>10월</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f t="shared" ref="D18:I18" si="12">IF(TEXT(D20,"m월")=TEXT(C20,"m월"),"",LOWER(TEXT(D20,"m월")))</f>
+        <f>IF(TEXT(D20,"m월")=TEXT(C20,"m월"),"",LOWER(TEXT(D20,"m월")))</f>
         <v/>
       </c>
       <c r="E18" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(TEXT(E20,"m월")=TEXT(D20,"m월"),"",LOWER(TEXT(E20,"m월")))</f>
         <v/>
       </c>
       <c r="F18" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(TEXT(F20,"m월")=TEXT(E20,"m월"),"",LOWER(TEXT(F20,"m월")))</f>
         <v/>
       </c>
       <c r="G18" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(TEXT(G20,"m월")=TEXT(F20,"m월"),"",LOWER(TEXT(G20,"m월")))</f>
         <v/>
       </c>
       <c r="H18" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(TEXT(H20,"m월")=TEXT(G20,"m월"),"",LOWER(TEXT(H20,"m월")))</f>
         <v>11월</v>
       </c>
       <c r="I18" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(TEXT(I20,"m월")=TEXT(H20,"m월"),"",LOWER(TEXT(I20,"m월")))</f>
         <v/>
       </c>
       <c r="J18" s="7" t="str">
@@ -2379,7 +2370,7 @@
         <v>11월</v>
       </c>
       <c r="K18" s="7" t="str">
-        <f t="shared" ref="K18:P18" si="13">IF(TEXT(K20,"m월")=TEXT(J20,"m월"),"",LOWER(TEXT(K20,"m월")))</f>
+        <f>IF(TEXT(K20,"m월")=TEXT(J20,"m월"),"",LOWER(TEXT(K20,"m월")))</f>
         <v/>
       </c>
       <c r="L18" s="7" t="str">
@@ -2387,19 +2378,19 @@
         <v/>
       </c>
       <c r="M18" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(TEXT(M20,"m월")=TEXT(L20,"m월"),"",LOWER(TEXT(M20,"m월")))</f>
         <v/>
       </c>
       <c r="N18" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(TEXT(N20,"m월")=TEXT(M20,"m월"),"",LOWER(TEXT(N20,"m월")))</f>
         <v/>
       </c>
       <c r="O18" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(TEXT(O20,"m월")=TEXT(N20,"m월"),"",LOWER(TEXT(O20,"m월")))</f>
         <v/>
       </c>
       <c r="P18" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(TEXT(P20,"m월")=TEXT(O20,"m월"),"",LOWER(TEXT(P20,"m월")))</f>
         <v/>
       </c>
       <c r="Q18" s="6" t="str">
@@ -2407,27 +2398,27 @@
         <v>11월</v>
       </c>
       <c r="R18" s="6" t="str">
-        <f t="shared" ref="R18:W18" si="14">IF(TEXT(R20,"m월")=TEXT(Q20,"m월"),"",LOWER(TEXT(R20,"m월")))</f>
+        <f>IF(TEXT(R20,"m월")=TEXT(Q20,"m월"),"",LOWER(TEXT(R20,"m월")))</f>
         <v/>
       </c>
       <c r="S18" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(TEXT(S20,"m월")=TEXT(R20,"m월"),"",LOWER(TEXT(S20,"m월")))</f>
         <v/>
       </c>
       <c r="T18" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(TEXT(T20,"m월")=TEXT(S20,"m월"),"",LOWER(TEXT(T20,"m월")))</f>
         <v/>
       </c>
       <c r="U18" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(TEXT(U20,"m월")=TEXT(T20,"m월"),"",LOWER(TEXT(U20,"m월")))</f>
         <v/>
       </c>
       <c r="V18" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(TEXT(V20,"m월")=TEXT(U20,"m월"),"",LOWER(TEXT(V20,"m월")))</f>
         <v/>
       </c>
       <c r="W18" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(TEXT(W20,"m월")=TEXT(V20,"m월"),"",LOWER(TEXT(W20,"m월")))</f>
         <v/>
       </c>
       <c r="X18" s="7" t="str">
@@ -2435,181 +2426,181 @@
         <v>11월</v>
       </c>
       <c r="Y18" s="7" t="str">
-        <f t="shared" ref="Y18:AD18" si="15">IF(TEXT(Y20,"m월")=TEXT(X20,"m월"),"",LOWER(TEXT(Y20,"m월")))</f>
+        <f>IF(TEXT(Y20,"m월")=TEXT(X20,"m월"),"",LOWER(TEXT(Y20,"m월")))</f>
         <v/>
       </c>
       <c r="Z18" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(TEXT(Z20,"m월")=TEXT(Y20,"m월"),"",LOWER(TEXT(Z20,"m월")))</f>
         <v/>
       </c>
       <c r="AA18" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(TEXT(AA20,"m월")=TEXT(Z20,"m월"),"",LOWER(TEXT(AA20,"m월")))</f>
         <v/>
       </c>
       <c r="AB18" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(TEXT(AB20,"m월")=TEXT(AA20,"m월"),"",LOWER(TEXT(AB20,"m월")))</f>
         <v/>
       </c>
       <c r="AC18" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(TEXT(AC20,"m월")=TEXT(AB20,"m월"),"",LOWER(TEXT(AC20,"m월")))</f>
         <v/>
       </c>
       <c r="AD18" s="7" t="str">
-        <f t="shared" si="15"/>
+        <f>IF(TEXT(AD20,"m월")=TEXT(AC20,"m월"),"",LOWER(TEXT(AD20,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:30" ht="30" customHeight="1">
+    <row r="19" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="8" t="str">
-        <f t="shared" ref="C19:AD19" si="16">LOWER(TEXT(C20,"aaa"))</f>
+        <f>LOWER(TEXT(C20,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="D19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(D20,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="E19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(E20,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="F19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(F20,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="G19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(G20,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="H19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(H20,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(I20,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="J19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(J20,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="K19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(K20,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="L19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(L20,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="M19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(M20,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="N19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(N20,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="O19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(O20,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="P19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(P20,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Q19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(Q20,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="R19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(R20,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="S19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(S20,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="T19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(T20,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="U19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(U20,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="V19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(V20,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="W19" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(W20,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="X19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(X20,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="Y19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(Y20,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="Z19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(Z20,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AA19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(AA20,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AB19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(AB20,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="AC19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(AC20,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="AD19" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f>LOWER(TEXT(AD20,"aaa"))</f>
         <v>목</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="20" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B20" s="12"/>
       <c r="C20" s="10">
         <f>AD13+1</f>
         <v>45226</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" ref="D20:AD20" si="17">C20+1</f>
+        <f>C20+1</f>
         <v>45227</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="17"/>
+        <f>D20+1</f>
         <v>45228</v>
       </c>
       <c r="F20" s="10">
-        <f t="shared" si="17"/>
+        <f>E20+1</f>
         <v>45229</v>
       </c>
       <c r="G20" s="10">
-        <f t="shared" si="17"/>
+        <f>F20+1</f>
         <v>45230</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="17"/>
+        <f>G20+1</f>
         <v>45231</v>
       </c>
       <c r="I20" s="10">
-        <f t="shared" si="17"/>
+        <f>H20+1</f>
         <v>45232</v>
       </c>
       <c r="J20" s="11">
-        <f t="shared" si="17"/>
+        <f>I20+1</f>
         <v>45233</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" si="17"/>
+        <f>J20+1</f>
         <v>45234</v>
       </c>
       <c r="L20" s="11">
@@ -2617,79 +2608,79 @@
         <v>45235</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="17"/>
+        <f>L20+1</f>
         <v>45236</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="17"/>
+        <f>M20+1</f>
         <v>45237</v>
       </c>
       <c r="O20" s="11">
-        <f t="shared" si="17"/>
+        <f>N20+1</f>
         <v>45238</v>
       </c>
       <c r="P20" s="11">
-        <f t="shared" si="17"/>
+        <f>O20+1</f>
         <v>45239</v>
       </c>
       <c r="Q20" s="10">
-        <f t="shared" si="17"/>
+        <f>P20+1</f>
         <v>45240</v>
       </c>
       <c r="R20" s="10">
-        <f t="shared" si="17"/>
+        <f>Q20+1</f>
         <v>45241</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="17"/>
+        <f>R20+1</f>
         <v>45242</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="17"/>
+        <f>S20+1</f>
         <v>45243</v>
       </c>
       <c r="U20" s="10">
-        <f t="shared" si="17"/>
+        <f>T20+1</f>
         <v>45244</v>
       </c>
       <c r="V20" s="10">
-        <f t="shared" si="17"/>
+        <f>U20+1</f>
         <v>45245</v>
       </c>
       <c r="W20" s="10">
-        <f t="shared" si="17"/>
+        <f>V20+1</f>
         <v>45246</v>
       </c>
       <c r="X20" s="11">
-        <f t="shared" si="17"/>
+        <f>W20+1</f>
         <v>45247</v>
       </c>
       <c r="Y20" s="11">
-        <f t="shared" si="17"/>
+        <f>X20+1</f>
         <v>45248</v>
       </c>
       <c r="Z20" s="11">
-        <f t="shared" si="17"/>
+        <f>Y20+1</f>
         <v>45249</v>
       </c>
       <c r="AA20" s="11">
-        <f t="shared" si="17"/>
+        <f>Z20+1</f>
         <v>45250</v>
       </c>
       <c r="AB20" s="11">
-        <f t="shared" si="17"/>
+        <f>AA20+1</f>
         <v>45251</v>
       </c>
       <c r="AC20" s="11">
-        <f t="shared" si="17"/>
+        <f>AB20+1</f>
         <v>45252</v>
       </c>
       <c r="AD20" s="11">
-        <f t="shared" si="17"/>
+        <f>AC20+1</f>
         <v>45253</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="30" customHeight="1">
+    <row r="21" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B21" s="12"/>
       <c r="C21" s="16" t="s">
         <v>2</v>
@@ -2722,7 +2713,7 @@
       <c r="AC21" s="16"/>
       <c r="AD21" s="16"/>
     </row>
-    <row r="22" spans="2:30" ht="30" customHeight="1">
+    <row r="22" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B22" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2746,7 +2737,7 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
@@ -2760,7 +2751,7 @@
       <c r="AC22" s="19"/>
       <c r="AD22" s="19"/>
     </row>
-    <row r="23" spans="2:30" ht="30" customHeight="1">
+    <row r="23" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B23" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2796,7 +2787,7 @@
       <c r="AC23" s="26"/>
       <c r="AD23" s="26"/>
     </row>
-    <row r="24" spans="2:30" ht="30" customHeight="1">
+    <row r="24" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B24" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -2806,27 +2797,27 @@
         <v>11월</v>
       </c>
       <c r="D24" s="6" t="str">
-        <f t="shared" ref="D24:I24" si="18">IF(TEXT(D26,"m월")=TEXT(C26,"m월"),"",LOWER(TEXT(D26,"m월")))</f>
+        <f>IF(TEXT(D26,"m월")=TEXT(C26,"m월"),"",LOWER(TEXT(D26,"m월")))</f>
         <v/>
       </c>
       <c r="E24" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(TEXT(E26,"m월")=TEXT(D26,"m월"),"",LOWER(TEXT(E26,"m월")))</f>
         <v/>
       </c>
       <c r="F24" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(TEXT(F26,"m월")=TEXT(E26,"m월"),"",LOWER(TEXT(F26,"m월")))</f>
         <v/>
       </c>
       <c r="G24" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(TEXT(G26,"m월")=TEXT(F26,"m월"),"",LOWER(TEXT(G26,"m월")))</f>
         <v/>
       </c>
       <c r="H24" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(TEXT(H26,"m월")=TEXT(G26,"m월"),"",LOWER(TEXT(H26,"m월")))</f>
         <v/>
       </c>
       <c r="I24" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(TEXT(I26,"m월")=TEXT(H26,"m월"),"",LOWER(TEXT(I26,"m월")))</f>
         <v/>
       </c>
       <c r="J24" s="7" t="str">
@@ -2834,27 +2825,27 @@
         <v>12월</v>
       </c>
       <c r="K24" s="7" t="str">
-        <f t="shared" ref="K24:P24" si="19">IF(TEXT(K26,"m월")=TEXT(J26,"m월"),"",LOWER(TEXT(K26,"m월")))</f>
+        <f>IF(TEXT(K26,"m월")=TEXT(J26,"m월"),"",LOWER(TEXT(K26,"m월")))</f>
         <v/>
       </c>
       <c r="L24" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(TEXT(L26,"m월")=TEXT(K26,"m월"),"",LOWER(TEXT(L26,"m월")))</f>
         <v/>
       </c>
       <c r="M24" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(TEXT(M26,"m월")=TEXT(L26,"m월"),"",LOWER(TEXT(M26,"m월")))</f>
         <v/>
       </c>
       <c r="N24" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(TEXT(N26,"m월")=TEXT(M26,"m월"),"",LOWER(TEXT(N26,"m월")))</f>
         <v/>
       </c>
       <c r="O24" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(TEXT(O26,"m월")=TEXT(N26,"m월"),"",LOWER(TEXT(O26,"m월")))</f>
         <v/>
       </c>
       <c r="P24" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(TEXT(P26,"m월")=TEXT(O26,"m월"),"",LOWER(TEXT(P26,"m월")))</f>
         <v/>
       </c>
       <c r="Q24" s="6" t="str">
@@ -2862,27 +2853,27 @@
         <v>12월</v>
       </c>
       <c r="R24" s="6" t="str">
-        <f t="shared" ref="R24:W24" si="20">IF(TEXT(R26,"m월")=TEXT(Q26,"m월"),"",LOWER(TEXT(R26,"m월")))</f>
+        <f>IF(TEXT(R26,"m월")=TEXT(Q26,"m월"),"",LOWER(TEXT(R26,"m월")))</f>
         <v/>
       </c>
       <c r="S24" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(TEXT(S26,"m월")=TEXT(R26,"m월"),"",LOWER(TEXT(S26,"m월")))</f>
         <v/>
       </c>
       <c r="T24" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(TEXT(T26,"m월")=TEXT(S26,"m월"),"",LOWER(TEXT(T26,"m월")))</f>
         <v/>
       </c>
       <c r="U24" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(TEXT(U26,"m월")=TEXT(T26,"m월"),"",LOWER(TEXT(U26,"m월")))</f>
         <v/>
       </c>
       <c r="V24" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(TEXT(V26,"m월")=TEXT(U26,"m월"),"",LOWER(TEXT(V26,"m월")))</f>
         <v/>
       </c>
       <c r="W24" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(TEXT(W26,"m월")=TEXT(V26,"m월"),"",LOWER(TEXT(W26,"m월")))</f>
         <v/>
       </c>
       <c r="X24" s="7" t="str">
@@ -2890,261 +2881,261 @@
         <v>12월</v>
       </c>
       <c r="Y24" s="7" t="str">
-        <f t="shared" ref="Y24:AD24" si="21">IF(TEXT(Y26,"m월")=TEXT(X26,"m월"),"",LOWER(TEXT(Y26,"m월")))</f>
+        <f>IF(TEXT(Y26,"m월")=TEXT(X26,"m월"),"",LOWER(TEXT(Y26,"m월")))</f>
         <v/>
       </c>
       <c r="Z24" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(TEXT(Z26,"m월")=TEXT(Y26,"m월"),"",LOWER(TEXT(Z26,"m월")))</f>
         <v/>
       </c>
       <c r="AA24" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(TEXT(AA26,"m월")=TEXT(Z26,"m월"),"",LOWER(TEXT(AA26,"m월")))</f>
         <v/>
       </c>
       <c r="AB24" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(TEXT(AB26,"m월")=TEXT(AA26,"m월"),"",LOWER(TEXT(AB26,"m월")))</f>
         <v/>
       </c>
       <c r="AC24" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(TEXT(AC26,"m월")=TEXT(AB26,"m월"),"",LOWER(TEXT(AC26,"m월")))</f>
         <v/>
       </c>
       <c r="AD24" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(TEXT(AD26,"m월")=TEXT(AC26,"m월"),"",LOWER(TEXT(AD26,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="30" customHeight="1">
+    <row r="25" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B25" s="12"/>
       <c r="C25" s="8" t="str">
-        <f t="shared" ref="C25:AD25" si="22">LOWER(TEXT(C26,"aaa"))</f>
+        <f>LOWER(TEXT(C26,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="D25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(D26,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="E25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(E26,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="F25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(F26,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="G25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(G26,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="H25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(H26,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="I25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(I26,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="J25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(J26,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="K25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(K26,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="L25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(L26,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="M25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(M26,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="N25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(N26,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="O25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(O26,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="P25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(P26,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Q25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(Q26,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="R25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(R26,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="S25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(S26,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="T25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(T26,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="U25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(U26,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="V25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(V26,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="W25" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(W26,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="X25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(X26,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="Y25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(Y26,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="Z25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(Z26,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AA25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(AA26,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AB25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(AB26,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="AC25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(AC26,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="AD25" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f>LOWER(TEXT(AD26,"aaa"))</f>
         <v>목</v>
       </c>
     </row>
-    <row r="26" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="26" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B26" s="12"/>
       <c r="C26" s="10">
         <f>AD20+1</f>
         <v>45254</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" ref="D26:AD26" si="23">C26+1</f>
+        <f>C26+1</f>
         <v>45255</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" si="23"/>
+        <f>D26+1</f>
         <v>45256</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="23"/>
+        <f>E26+1</f>
         <v>45257</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="23"/>
+        <f>F26+1</f>
         <v>45258</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="23"/>
+        <f>G26+1</f>
         <v>45259</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="23"/>
+        <f>H26+1</f>
         <v>45260</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" si="23"/>
+        <f>I26+1</f>
         <v>45261</v>
       </c>
       <c r="K26" s="11">
-        <f t="shared" si="23"/>
+        <f>J26+1</f>
         <v>45262</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" si="23"/>
+        <f>K26+1</f>
         <v>45263</v>
       </c>
       <c r="M26" s="11">
-        <f t="shared" si="23"/>
+        <f>L26+1</f>
         <v>45264</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="23"/>
+        <f>M26+1</f>
         <v>45265</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" si="23"/>
+        <f>N26+1</f>
         <v>45266</v>
       </c>
       <c r="P26" s="11">
-        <f t="shared" si="23"/>
+        <f>O26+1</f>
         <v>45267</v>
       </c>
       <c r="Q26" s="10">
-        <f t="shared" si="23"/>
+        <f>P26+1</f>
         <v>45268</v>
       </c>
       <c r="R26" s="10">
-        <f t="shared" si="23"/>
+        <f>Q26+1</f>
         <v>45269</v>
       </c>
       <c r="S26" s="10">
-        <f t="shared" si="23"/>
+        <f>R26+1</f>
         <v>45270</v>
       </c>
       <c r="T26" s="10">
-        <f t="shared" si="23"/>
+        <f>S26+1</f>
         <v>45271</v>
       </c>
       <c r="U26" s="10">
-        <f t="shared" si="23"/>
+        <f>T26+1</f>
         <v>45272</v>
       </c>
       <c r="V26" s="10">
-        <f t="shared" si="23"/>
+        <f>U26+1</f>
         <v>45273</v>
       </c>
       <c r="W26" s="10">
-        <f t="shared" si="23"/>
+        <f>V26+1</f>
         <v>45274</v>
       </c>
       <c r="X26" s="11">
-        <f t="shared" si="23"/>
+        <f>W26+1</f>
         <v>45275</v>
       </c>
       <c r="Y26" s="11">
-        <f t="shared" si="23"/>
+        <f>X26+1</f>
         <v>45276</v>
       </c>
       <c r="Z26" s="11">
-        <f t="shared" si="23"/>
+        <f>Y26+1</f>
         <v>45277</v>
       </c>
       <c r="AA26" s="11">
-        <f t="shared" si="23"/>
+        <f>Z26+1</f>
         <v>45278</v>
       </c>
       <c r="AB26" s="11">
-        <f t="shared" si="23"/>
+        <f>AA26+1</f>
         <v>45279</v>
       </c>
       <c r="AC26" s="11">
-        <f t="shared" si="23"/>
+        <f>AB26+1</f>
         <v>45280</v>
       </c>
       <c r="AD26" s="11">
-        <f t="shared" si="23"/>
+        <f>AC26+1</f>
         <v>45281</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="30" customHeight="1">
+    <row r="27" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="16" t="s">
         <v>2</v>
@@ -3177,24 +3168,24 @@
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
     </row>
-    <row r="28" spans="2:30" ht="30" customHeight="1">
+    <row r="28" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B28" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
+      <c r="C28" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
       <c r="N28" s="25" t="s">
         <v>8</v>
       </c>
@@ -3215,7 +3206,7 @@
       <c r="AC28" s="25"/>
       <c r="AD28" s="25"/>
     </row>
-    <row r="29" spans="2:30" ht="30" customHeight="1">
+    <row r="29" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B29" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -3249,7 +3240,7 @@
       <c r="AC29" s="14"/>
       <c r="AD29" s="13"/>
     </row>
-    <row r="30" spans="2:30" ht="30" customHeight="1">
+    <row r="30" spans="2:30" ht="30.000000" customHeight="1">
       <c r="B30" s="12" t="str">
         <f>TEXT("내용입력","aaa")</f>
         <v>내용입력</v>
@@ -3259,27 +3250,27 @@
         <v>12월</v>
       </c>
       <c r="D30" s="6" t="str">
-        <f t="shared" ref="D30:I30" si="24">IF(TEXT(D32,"m월")=TEXT(C32,"m월"),"",LOWER(TEXT(D32,"m월")))</f>
+        <f>IF(TEXT(D32,"m월")=TEXT(C32,"m월"),"",LOWER(TEXT(D32,"m월")))</f>
         <v/>
       </c>
       <c r="E30" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(TEXT(E32,"m월")=TEXT(D32,"m월"),"",LOWER(TEXT(E32,"m월")))</f>
         <v/>
       </c>
       <c r="F30" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(TEXT(F32,"m월")=TEXT(E32,"m월"),"",LOWER(TEXT(F32,"m월")))</f>
         <v/>
       </c>
       <c r="G30" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(TEXT(G32,"m월")=TEXT(F32,"m월"),"",LOWER(TEXT(G32,"m월")))</f>
         <v/>
       </c>
       <c r="H30" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(TEXT(H32,"m월")=TEXT(G32,"m월"),"",LOWER(TEXT(H32,"m월")))</f>
         <v/>
       </c>
       <c r="I30" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(TEXT(I32,"m월")=TEXT(H32,"m월"),"",LOWER(TEXT(I32,"m월")))</f>
         <v/>
       </c>
       <c r="J30" s="7" t="str">
@@ -3287,27 +3278,27 @@
         <v>12월</v>
       </c>
       <c r="K30" s="7" t="str">
-        <f t="shared" ref="K30:P30" si="25">IF(TEXT(K32,"m월")=TEXT(J32,"m월"),"",LOWER(TEXT(K32,"m월")))</f>
+        <f>IF(TEXT(K32,"m월")=TEXT(J32,"m월"),"",LOWER(TEXT(K32,"m월")))</f>
         <v/>
       </c>
       <c r="L30" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(TEXT(L32,"m월")=TEXT(K32,"m월"),"",LOWER(TEXT(L32,"m월")))</f>
         <v/>
       </c>
       <c r="M30" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(TEXT(M32,"m월")=TEXT(L32,"m월"),"",LOWER(TEXT(M32,"m월")))</f>
         <v>1월</v>
       </c>
       <c r="N30" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(TEXT(N32,"m월")=TEXT(M32,"m월"),"",LOWER(TEXT(N32,"m월")))</f>
         <v/>
       </c>
       <c r="O30" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(TEXT(O32,"m월")=TEXT(N32,"m월"),"",LOWER(TEXT(O32,"m월")))</f>
         <v/>
       </c>
       <c r="P30" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(TEXT(P32,"m월")=TEXT(O32,"m월"),"",LOWER(TEXT(P32,"m월")))</f>
         <v/>
       </c>
       <c r="Q30" s="6" t="str">
@@ -3315,27 +3306,27 @@
         <v>1월</v>
       </c>
       <c r="R30" s="6" t="str">
-        <f t="shared" ref="R30:W30" si="26">IF(TEXT(R32,"m월")=TEXT(Q32,"m월"),"",LOWER(TEXT(R32,"m월")))</f>
+        <f>IF(TEXT(R32,"m월")=TEXT(Q32,"m월"),"",LOWER(TEXT(R32,"m월")))</f>
         <v/>
       </c>
       <c r="S30" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(TEXT(S32,"m월")=TEXT(R32,"m월"),"",LOWER(TEXT(S32,"m월")))</f>
         <v/>
       </c>
       <c r="T30" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(TEXT(T32,"m월")=TEXT(S32,"m월"),"",LOWER(TEXT(T32,"m월")))</f>
         <v/>
       </c>
       <c r="U30" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(TEXT(U32,"m월")=TEXT(T32,"m월"),"",LOWER(TEXT(U32,"m월")))</f>
         <v/>
       </c>
       <c r="V30" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(TEXT(V32,"m월")=TEXT(U32,"m월"),"",LOWER(TEXT(V32,"m월")))</f>
         <v/>
       </c>
       <c r="W30" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f>IF(TEXT(W32,"m월")=TEXT(V32,"m월"),"",LOWER(TEXT(W32,"m월")))</f>
         <v/>
       </c>
       <c r="X30" s="7" t="str">
@@ -3343,259 +3334,259 @@
         <v>1월</v>
       </c>
       <c r="Y30" s="7" t="str">
-        <f t="shared" ref="Y30:AD30" si="27">IF(TEXT(Y32,"m월")=TEXT(X32,"m월"),"",LOWER(TEXT(Y32,"m월")))</f>
+        <f>IF(TEXT(Y32,"m월")=TEXT(X32,"m월"),"",LOWER(TEXT(Y32,"m월")))</f>
         <v/>
       </c>
       <c r="Z30" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(TEXT(Z32,"m월")=TEXT(Y32,"m월"),"",LOWER(TEXT(Z32,"m월")))</f>
         <v/>
       </c>
       <c r="AA30" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(TEXT(AA32,"m월")=TEXT(Z32,"m월"),"",LOWER(TEXT(AA32,"m월")))</f>
         <v/>
       </c>
       <c r="AB30" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(TEXT(AB32,"m월")=TEXT(AA32,"m월"),"",LOWER(TEXT(AB32,"m월")))</f>
         <v/>
       </c>
       <c r="AC30" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(TEXT(AC32,"m월")=TEXT(AB32,"m월"),"",LOWER(TEXT(AC32,"m월")))</f>
         <v/>
       </c>
       <c r="AD30" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(TEXT(AD32,"m월")=TEXT(AC32,"m월"),"",LOWER(TEXT(AD32,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="30" customHeight="1">
+    <row r="31" spans="2:30" ht="30.000000" customHeight="1">
       <c r="C31" s="8" t="str">
-        <f t="shared" ref="C31:AD31" si="28">LOWER(TEXT(C32,"aaa"))</f>
+        <f>LOWER(TEXT(C32,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="D31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(D32,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(E32,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="F31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(F32,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="G31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(G32,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="H31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(H32,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="I31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(I32,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(J32,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="K31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(K32,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="L31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(L32,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="M31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(M32,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="N31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(N32,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="O31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(O32,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="P31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(P32,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Q31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(Q32,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="R31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(R32,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="S31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(S32,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="T31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(T32,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="U31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(U32,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="V31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(V32,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="W31" s="8" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(W32,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="X31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(X32,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="Y31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(Y32,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="Z31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(Z32,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AA31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(AA32,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AB31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(AB32,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="AC31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(AC32,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="AD31" s="9" t="str">
-        <f t="shared" si="28"/>
+        <f>LOWER(TEXT(AD32,"aaa"))</f>
         <v>목</v>
       </c>
     </row>
-    <row r="32" spans="2:30" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="2:30" ht="30.000000" customHeight="1">
       <c r="C32" s="10">
         <f>AD26+1</f>
         <v>45282</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" ref="D32:AD32" si="29">C32+1</f>
+        <f>C32+1</f>
         <v>45283</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="29"/>
+        <f>D32+1</f>
         <v>45284</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="29"/>
+        <f>E32+1</f>
         <v>45285</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="29"/>
+        <f>F32+1</f>
         <v>45286</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="29"/>
+        <f>G32+1</f>
         <v>45287</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="29"/>
+        <f>H32+1</f>
         <v>45288</v>
       </c>
       <c r="J32" s="11">
-        <f t="shared" si="29"/>
+        <f>I32+1</f>
         <v>45289</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" si="29"/>
+        <f>J32+1</f>
         <v>45290</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" si="29"/>
+        <f>K32+1</f>
         <v>45291</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" si="29"/>
+        <f>L32+1</f>
         <v>45292</v>
       </c>
       <c r="N32" s="11">
-        <f t="shared" si="29"/>
+        <f>M32+1</f>
         <v>45293</v>
       </c>
       <c r="O32" s="11">
-        <f t="shared" si="29"/>
+        <f>N32+1</f>
         <v>45294</v>
       </c>
       <c r="P32" s="11">
-        <f t="shared" si="29"/>
+        <f>O32+1</f>
         <v>45295</v>
       </c>
       <c r="Q32" s="10">
-        <f t="shared" si="29"/>
+        <f>P32+1</f>
         <v>45296</v>
       </c>
       <c r="R32" s="10">
-        <f t="shared" si="29"/>
+        <f>Q32+1</f>
         <v>45297</v>
       </c>
       <c r="S32" s="10">
-        <f t="shared" si="29"/>
+        <f>R32+1</f>
         <v>45298</v>
       </c>
       <c r="T32" s="10">
-        <f t="shared" si="29"/>
+        <f>S32+1</f>
         <v>45299</v>
       </c>
       <c r="U32" s="10">
-        <f t="shared" si="29"/>
+        <f>T32+1</f>
         <v>45300</v>
       </c>
       <c r="V32" s="10">
-        <f t="shared" si="29"/>
+        <f>U32+1</f>
         <v>45301</v>
       </c>
       <c r="W32" s="10">
-        <f t="shared" si="29"/>
+        <f>V32+1</f>
         <v>45302</v>
       </c>
       <c r="X32" s="11">
-        <f t="shared" si="29"/>
+        <f>W32+1</f>
         <v>45303</v>
       </c>
       <c r="Y32" s="11">
-        <f t="shared" si="29"/>
+        <f>X32+1</f>
         <v>45304</v>
       </c>
       <c r="Z32" s="11">
-        <f t="shared" si="29"/>
+        <f>Y32+1</f>
         <v>45305</v>
       </c>
       <c r="AA32" s="11">
-        <f t="shared" si="29"/>
+        <f>Z32+1</f>
         <v>45306</v>
       </c>
       <c r="AB32" s="11">
-        <f t="shared" si="29"/>
+        <f>AA32+1</f>
         <v>45307</v>
       </c>
       <c r="AC32" s="11">
-        <f t="shared" si="29"/>
+        <f>AB32+1</f>
         <v>45308</v>
       </c>
       <c r="AD32" s="11">
-        <f t="shared" si="29"/>
+        <f>AC32+1</f>
         <v>45309</v>
       </c>
     </row>
-    <row r="33" spans="3:30" ht="30" customHeight="1">
+    <row r="33" spans="3:30" ht="30.000000" customHeight="1">
       <c r="C33" s="16" t="s">
         <v>2</v>
       </c>
@@ -3629,7 +3620,7 @@
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
     </row>
-    <row r="34" spans="3:30" ht="30" customHeight="1">
+    <row r="34" spans="3:30" ht="30.000000" customHeight="1">
       <c r="C34" s="17" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3654,7 @@
       <c r="AC34" s="18"/>
       <c r="AD34" s="18"/>
     </row>
-    <row r="35" spans="3:30" ht="30" customHeight="1">
+    <row r="35" spans="3:30" ht="30.000000" customHeight="1">
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
       <c r="E35" s="14"/>
@@ -3693,33 +3684,33 @@
       <c r="AC35" s="14"/>
       <c r="AD35" s="13"/>
     </row>
-    <row r="36" spans="3:30" ht="30" customHeight="1">
+    <row r="36" spans="3:30" ht="30.000000" customHeight="1">
       <c r="C36" s="5" t="str">
         <f>LOWER(TEXT(C38,"m월"))</f>
         <v>1월</v>
       </c>
       <c r="D36" s="6" t="str">
-        <f t="shared" ref="D36:I36" si="30">IF(TEXT(D38,"m월")=TEXT(C38,"m월"),"",LOWER(TEXT(D38,"m월")))</f>
+        <f>IF(TEXT(D38,"m월")=TEXT(C38,"m월"),"",LOWER(TEXT(D38,"m월")))</f>
         <v/>
       </c>
       <c r="E36" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(TEXT(E38,"m월")=TEXT(D38,"m월"),"",LOWER(TEXT(E38,"m월")))</f>
         <v/>
       </c>
       <c r="F36" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(TEXT(F38,"m월")=TEXT(E38,"m월"),"",LOWER(TEXT(F38,"m월")))</f>
         <v/>
       </c>
       <c r="G36" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(TEXT(G38,"m월")=TEXT(F38,"m월"),"",LOWER(TEXT(G38,"m월")))</f>
         <v/>
       </c>
       <c r="H36" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(TEXT(H38,"m월")=TEXT(G38,"m월"),"",LOWER(TEXT(H38,"m월")))</f>
         <v/>
       </c>
       <c r="I36" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(TEXT(I38,"m월")=TEXT(H38,"m월"),"",LOWER(TEXT(I38,"m월")))</f>
         <v/>
       </c>
       <c r="J36" s="7" t="str">
@@ -3727,27 +3718,27 @@
         <v>1월</v>
       </c>
       <c r="K36" s="7" t="str">
-        <f t="shared" ref="K36:P36" si="31">IF(TEXT(K38,"m월")=TEXT(J38,"m월"),"",LOWER(TEXT(K38,"m월")))</f>
+        <f>IF(TEXT(K38,"m월")=TEXT(J38,"m월"),"",LOWER(TEXT(K38,"m월")))</f>
         <v/>
       </c>
       <c r="L36" s="7" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(TEXT(L38,"m월")=TEXT(K38,"m월"),"",LOWER(TEXT(L38,"m월")))</f>
         <v/>
       </c>
       <c r="M36" s="7" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(TEXT(M38,"m월")=TEXT(L38,"m월"),"",LOWER(TEXT(M38,"m월")))</f>
         <v/>
       </c>
       <c r="N36" s="7" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(TEXT(N38,"m월")=TEXT(M38,"m월"),"",LOWER(TEXT(N38,"m월")))</f>
         <v/>
       </c>
       <c r="O36" s="7" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(TEXT(O38,"m월")=TEXT(N38,"m월"),"",LOWER(TEXT(O38,"m월")))</f>
         <v/>
       </c>
       <c r="P36" s="7" t="str">
-        <f t="shared" si="31"/>
+        <f>IF(TEXT(P38,"m월")=TEXT(O38,"m월"),"",LOWER(TEXT(P38,"m월")))</f>
         <v>2월</v>
       </c>
       <c r="Q36" s="6" t="str">
@@ -3755,27 +3746,27 @@
         <v>2월</v>
       </c>
       <c r="R36" s="6" t="str">
-        <f t="shared" ref="R36:W36" si="32">IF(TEXT(R38,"m월")=TEXT(Q38,"m월"),"",LOWER(TEXT(R38,"m월")))</f>
+        <f>IF(TEXT(R38,"m월")=TEXT(Q38,"m월"),"",LOWER(TEXT(R38,"m월")))</f>
         <v/>
       </c>
       <c r="S36" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(TEXT(S38,"m월")=TEXT(R38,"m월"),"",LOWER(TEXT(S38,"m월")))</f>
         <v/>
       </c>
       <c r="T36" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(TEXT(T38,"m월")=TEXT(S38,"m월"),"",LOWER(TEXT(T38,"m월")))</f>
         <v/>
       </c>
       <c r="U36" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(TEXT(U38,"m월")=TEXT(T38,"m월"),"",LOWER(TEXT(U38,"m월")))</f>
         <v/>
       </c>
       <c r="V36" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(TEXT(V38,"m월")=TEXT(U38,"m월"),"",LOWER(TEXT(V38,"m월")))</f>
         <v/>
       </c>
       <c r="W36" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(TEXT(W38,"m월")=TEXT(V38,"m월"),"",LOWER(TEXT(W38,"m월")))</f>
         <v/>
       </c>
       <c r="X36" s="7" t="str">
@@ -3783,259 +3774,259 @@
         <v>2월</v>
       </c>
       <c r="Y36" s="7" t="str">
-        <f t="shared" ref="Y36:AD36" si="33">IF(TEXT(Y38,"m월")=TEXT(X38,"m월"),"",LOWER(TEXT(Y38,"m월")))</f>
+        <f>IF(TEXT(Y38,"m월")=TEXT(X38,"m월"),"",LOWER(TEXT(Y38,"m월")))</f>
         <v/>
       </c>
       <c r="Z36" s="7" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(TEXT(Z38,"m월")=TEXT(Y38,"m월"),"",LOWER(TEXT(Z38,"m월")))</f>
         <v/>
       </c>
       <c r="AA36" s="7" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(TEXT(AA38,"m월")=TEXT(Z38,"m월"),"",LOWER(TEXT(AA38,"m월")))</f>
         <v/>
       </c>
       <c r="AB36" s="7" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(TEXT(AB38,"m월")=TEXT(AA38,"m월"),"",LOWER(TEXT(AB38,"m월")))</f>
         <v/>
       </c>
       <c r="AC36" s="7" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(TEXT(AC38,"m월")=TEXT(AB38,"m월"),"",LOWER(TEXT(AC38,"m월")))</f>
         <v/>
       </c>
       <c r="AD36" s="7" t="str">
-        <f t="shared" si="33"/>
+        <f>IF(TEXT(AD38,"m월")=TEXT(AC38,"m월"),"",LOWER(TEXT(AD38,"m월")))</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:30" ht="30" customHeight="1">
+    <row r="37" spans="3:30" ht="30.000000" customHeight="1">
       <c r="C37" s="8" t="str">
-        <f t="shared" ref="C37:AD37" si="34">LOWER(TEXT(C38,"aaa"))</f>
+        <f>LOWER(TEXT(C38,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="D37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(D38,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(E38,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="F37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(F38,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="G37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(G38,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="H37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(H38,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="I37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(I38,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(J38,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="K37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(K38,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="L37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(L38,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="M37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(M38,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="N37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(N38,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="O37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(O38,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="P37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(P38,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="Q37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(Q38,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="R37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(R38,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="S37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(S38,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="T37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(T38,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="U37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(U38,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="V37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(V38,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="W37" s="8" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(W38,"aaa"))</f>
         <v>목</v>
       </c>
       <c r="X37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(X38,"aaa"))</f>
         <v>금</v>
       </c>
       <c r="Y37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(Y38,"aaa"))</f>
         <v>토</v>
       </c>
       <c r="Z37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(Z38,"aaa"))</f>
         <v>일</v>
       </c>
       <c r="AA37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(AA38,"aaa"))</f>
         <v>월</v>
       </c>
       <c r="AB37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(AB38,"aaa"))</f>
         <v>화</v>
       </c>
       <c r="AC37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(AC38,"aaa"))</f>
         <v>수</v>
       </c>
       <c r="AD37" s="9" t="str">
-        <f t="shared" si="34"/>
+        <f>LOWER(TEXT(AD38,"aaa"))</f>
         <v>목</v>
       </c>
     </row>
-    <row r="38" spans="3:30" ht="30" customHeight="1" thickBot="1">
+    <row r="38" spans="3:30" ht="30.000000" customHeight="1">
       <c r="C38" s="10">
         <f>AD32+1</f>
         <v>45310</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" ref="D38:AD38" si="35">C38+1</f>
+        <f>C38+1</f>
         <v>45311</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" si="35"/>
+        <f>D38+1</f>
         <v>45312</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="35"/>
+        <f>E38+1</f>
         <v>45313</v>
       </c>
       <c r="G38" s="10">
-        <f t="shared" si="35"/>
+        <f>F38+1</f>
         <v>45314</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="35"/>
+        <f>G38+1</f>
         <v>45315</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="35"/>
+        <f>H38+1</f>
         <v>45316</v>
       </c>
       <c r="J38" s="11">
-        <f t="shared" si="35"/>
+        <f>I38+1</f>
         <v>45317</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="35"/>
+        <f>J38+1</f>
         <v>45318</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="35"/>
+        <f>K38+1</f>
         <v>45319</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" si="35"/>
+        <f>L38+1</f>
         <v>45320</v>
       </c>
       <c r="N38" s="11">
-        <f t="shared" si="35"/>
+        <f>M38+1</f>
         <v>45321</v>
       </c>
       <c r="O38" s="11">
-        <f t="shared" si="35"/>
+        <f>N38+1</f>
         <v>45322</v>
       </c>
       <c r="P38" s="11">
-        <f t="shared" si="35"/>
+        <f>O38+1</f>
         <v>45323</v>
       </c>
       <c r="Q38" s="10">
-        <f t="shared" si="35"/>
+        <f>P38+1</f>
         <v>45324</v>
       </c>
       <c r="R38" s="10">
-        <f t="shared" si="35"/>
+        <f>Q38+1</f>
         <v>45325</v>
       </c>
       <c r="S38" s="10">
-        <f t="shared" si="35"/>
+        <f>R38+1</f>
         <v>45326</v>
       </c>
       <c r="T38" s="10">
-        <f t="shared" si="35"/>
+        <f>S38+1</f>
         <v>45327</v>
       </c>
       <c r="U38" s="10">
-        <f t="shared" si="35"/>
+        <f>T38+1</f>
         <v>45328</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" si="35"/>
+        <f>U38+1</f>
         <v>45329</v>
       </c>
       <c r="W38" s="10">
-        <f t="shared" si="35"/>
+        <f>V38+1</f>
         <v>45330</v>
       </c>
       <c r="X38" s="11">
-        <f t="shared" si="35"/>
+        <f>W38+1</f>
         <v>45331</v>
       </c>
       <c r="Y38" s="11">
-        <f t="shared" si="35"/>
+        <f>X38+1</f>
         <v>45332</v>
       </c>
       <c r="Z38" s="11">
-        <f t="shared" si="35"/>
+        <f>Y38+1</f>
         <v>45333</v>
       </c>
       <c r="AA38" s="11">
-        <f t="shared" si="35"/>
+        <f>Z38+1</f>
         <v>45334</v>
       </c>
       <c r="AB38" s="11">
-        <f t="shared" si="35"/>
+        <f>AA38+1</f>
         <v>45335</v>
       </c>
       <c r="AC38" s="11">
-        <f t="shared" si="35"/>
+        <f>AB38+1</f>
         <v>45336</v>
       </c>
       <c r="AD38" s="11">
-        <f t="shared" si="35"/>
+        <f>AC38+1</f>
         <v>45337</v>
       </c>
     </row>
-    <row r="39" spans="3:30" ht="30" customHeight="1">
+    <row r="39" spans="3:30" ht="30.000000" customHeight="1">
       <c r="C39" s="16" t="s">
         <v>10</v>
       </c>
@@ -4067,7 +4058,7 @@
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
     </row>
-    <row r="40" spans="3:30" ht="30" customHeight="1">
+    <row r="40" spans="3:30" ht="30.000000" customHeight="1">
       <c r="C40" s="15" t="s">
         <v>11</v>
       </c>
@@ -4099,7 +4090,7 @@
       <c r="AC40" s="15"/>
       <c r="AD40" s="15"/>
     </row>
-    <row r="41" spans="3:30" ht="30" customHeight="1">
+    <row r="41" spans="3:30" ht="30.000000" customHeight="1">
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
@@ -4131,69 +4122,69 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="N28:AD28"/>
-    <mergeCell ref="C23:AD23"/>
-    <mergeCell ref="S22:AD22"/>
     <mergeCell ref="B1:AD1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C7:AD7"/>
-    <mergeCell ref="C14:AD14"/>
-    <mergeCell ref="C21:AD21"/>
     <mergeCell ref="C8:V8"/>
     <mergeCell ref="W8:AD8"/>
     <mergeCell ref="C9:AD9"/>
+    <mergeCell ref="C14:AD14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:AD15"/>
     <mergeCell ref="C16:AD16"/>
-    <mergeCell ref="C40:AD40"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="M33:AD33"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M34:AD34"/>
-    <mergeCell ref="I15:AD15"/>
+    <mergeCell ref="C21:AD21"/>
     <mergeCell ref="C22:R22"/>
-    <mergeCell ref="C39:AD39"/>
+    <mergeCell ref="S22:AD22"/>
+    <mergeCell ref="C23:AD23"/>
     <mergeCell ref="C27:AD27"/>
     <mergeCell ref="C28:M28"/>
+    <mergeCell ref="N28:AD28"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="M33:AD33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="M34:AD34"/>
+    <mergeCell ref="C39:AD39"/>
+    <mergeCell ref="C40:AD40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C5:AD6">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AD13">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:AD20">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:AD26">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:AD32">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:AD38">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2" operator="" text="">
       <formula>C$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 워크시트에서 프로젝트 시간 표시 막대를 만듭니다. C2 셀에서 시작 날짜를 입력하고 기타 세부 정보를 B4 셀에서 시작합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 시작 날짜를 입력합니다." sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 시작 날짜를 입력합니다." sqref="C2:E2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 이 워크시트의 제목이 표시됩니다." sqref="B1:AD1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 워크시트에서 프로젝트 시간 표시 막대를 만듭니다. C2 셀에서 시작 날짜를 입력하고 기타 세부 정보를 B4 셀에서 시작합니다." sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="오른쪽 셀에 시작 날짜를 입력합니다." sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에 시작 날짜를 입력합니다." sqref="C2:E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀에는 이 워크시트의 제목이 표시됩니다." sqref="B1:AD1"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
